--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -18446,7 +18446,7 @@
         <x:v>FirstName</x:v>
       </x:c>
       <x:c r="C1034" s="2" t="str">
-        <x:v>EXTENSION-Reviewer</x:v>
+        <x:v>EXTENSION-PersonBeingReviewed</x:v>
       </x:c>
       <x:c r="D1034" s="2" t="str">
         <x:v/>
@@ -18463,7 +18463,7 @@
         <x:v>FirstName</x:v>
       </x:c>
       <x:c r="C1035" s="2" t="str">
-        <x:v>Name</x:v>
+        <x:v>EXTENSION-Reviewer</x:v>
       </x:c>
       <x:c r="D1035" s="2" t="str">
         <x:v/>
@@ -18480,7 +18480,7 @@
         <x:v>FirstName</x:v>
       </x:c>
       <x:c r="C1036" s="2" t="str">
-        <x:v>OtherName</x:v>
+        <x:v>Name</x:v>
       </x:c>
       <x:c r="D1036" s="2" t="str">
         <x:v/>
@@ -18491,13 +18491,13 @@
     </x:row>
     <x:row r="1037">
       <x:c r="A1037" s="2" t="str">
-        <x:v>FirstNameOfObservee</x:v>
+        <x:v>FirstName</x:v>
       </x:c>
       <x:c r="B1037" s="2" t="str">
         <x:v>FirstName</x:v>
       </x:c>
       <x:c r="C1037" s="2" t="str">
-        <x:v>EXTENSION-PersonBeingReviewed</x:v>
+        <x:v>OtherName</x:v>
       </x:c>
       <x:c r="D1037" s="2" t="str">
         <x:v/>
@@ -22212,36 +22212,36 @@
     </x:row>
     <x:row r="1246">
       <x:c r="A1246" s="2" t="str">
-        <x:v>LastNameOfObservee</x:v>
+        <x:v>LastQualifyingMove</x:v>
       </x:c>
       <x:c r="B1246" s="2" t="str">
-        <x:v>LastSurname</x:v>
+        <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C1246" s="2" t="str">
-        <x:v>EXTENSION-PersonBeingReviewed</x:v>
+        <x:v>StudentMigrantEducationProgramAssociation</x:v>
       </x:c>
       <x:c r="D1246" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1246" s="2" t="str">
-        <x:v>The name borne in common by members of a family.</x:v>
+        <x:v>Date the last qualifying move occurred; used to compute MEP status.</x:v>
       </x:c>
     </x:row>
     <x:row r="1247">
       <x:c r="A1247" s="2" t="str">
-        <x:v>LastQualifyingMove</x:v>
+        <x:v>LastSurname</x:v>
       </x:c>
       <x:c r="B1247" s="2" t="str">
-        <x:v>xs:date</x:v>
+        <x:v>LastSurname</x:v>
       </x:c>
       <x:c r="C1247" s="2" t="str">
-        <x:v>StudentMigrantEducationProgramAssociation</x:v>
+        <x:v>EXTENSION-Reviewer</x:v>
       </x:c>
       <x:c r="D1247" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1247" s="2" t="str">
-        <x:v>Date the last qualifying move occurred; used to compute MEP status.</x:v>
+        <x:v>The name borne in common by members of a family.</x:v>
       </x:c>
     </x:row>
     <x:row r="1248">
@@ -22252,7 +22252,7 @@
         <x:v>LastSurname</x:v>
       </x:c>
       <x:c r="C1248" s="2" t="str">
-        <x:v>EXTENSION-Reviewer</x:v>
+        <x:v>EXTENSION-PersonBeingReviewed</x:v>
       </x:c>
       <x:c r="D1248" s="2" t="str">
         <x:v/>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -26394,7 +26394,7 @@
         <x:v>PercentMobility</x:v>
       </x:c>
       <x:c r="B1479" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Percent</x:v>
       </x:c>
       <x:c r="C1479" s="2" t="str">
         <x:v>EXTENSION-StudentsEnrolled</x:v>
@@ -26404,7 +26404,7 @@
 </x:v>
       </x:c>
       <x:c r="E1479" s="2" t="str">
-        <x:v>The average number of times a student moves schools during a school year.</x:v>
+        <x:v>The percentage of students who have moved at least once during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="1480">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -10476,7 +10476,7 @@
         <x:v>CredentialEndorsement</x:v>
       </x:c>
       <x:c r="B582" s="2" t="str">
-        <x:v>EXTENSION-CredentialEndorsement</x:v>
+        <x:v>CredentialEndorsement</x:v>
       </x:c>
       <x:c r="C582" s="2" t="str">
         <x:v>Credential</x:v>
@@ -50458,9 +50458,22 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="2" t="str">
+        <x:v>CredentialEndorsement</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 255
+</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="str">
+        <x:v>Endorsements are attachments to teaching certificates and indicate areas of specialization.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" s="2" t="str">
         <x:v>CredentialType</x:v>
       </x:c>
-      <x:c r="B69" s="2" t="str">
+      <x:c r="B70" s="2" t="str">
         <x:v>Certification
 Endorsement
 Licensure
@@ -50468,42 +50481,42 @@
 Registration
 </x:v>
       </x:c>
-      <x:c r="C69" s="2" t="str">
+      <x:c r="C70" s="2" t="str">
         <x:v>An indication of the category of credential an individual holds.</x:v>
       </x:c>
     </x:row>
-    <x:row r="70">
-      <x:c r="A70" s="2" t="str">
+    <x:row r="71">
+      <x:c r="A71" s="2" t="str">
         <x:v>CreditConversion</x:v>
       </x:c>
-      <x:c r="B70" s="2" t="str">
+      <x:c r="B71" s="2" t="str">
         <x:v>totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C70" s="2" t="str">
+      <x:c r="C71" s="2" t="str">
         <x:v>Conversion factor that when multiplied by the number of credits is equivalent to Carnegie units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="71">
-      <x:c r="A71" s="2" t="str">
+    <x:row r="72">
+      <x:c r="A72" s="2" t="str">
         <x:v>CreditsValue</x:v>
       </x:c>
-      <x:c r="B71" s="2" t="str">
+      <x:c r="B72" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C71" s="2" t="str">
+      <x:c r="C72" s="2" t="str">
         <x:v>The value of credits or units of value awarded for the completion of a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="72">
-      <x:c r="A72" s="2" t="str">
+    <x:row r="73">
+      <x:c r="A73" s="2" t="str">
         <x:v>CreditType</x:v>
       </x:c>
-      <x:c r="B72" s="2" t="str">
+      <x:c r="B73" s="2" t="str">
         <x:v>Adult education credit
 Career and Technical Education credit
 Carnegie unit
@@ -50523,39 +50536,39 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C72" s="2" t="str">
+      <x:c r="C73" s="2" t="str">
         <x:v>The type of credits or units of value awarded for the completion of a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="73">
-      <x:c r="A73" s="2" t="str">
+    <x:row r="74">
+      <x:c r="A74" s="2" t="str">
         <x:v>Criteria</x:v>
       </x:c>
-      <x:c r="B73" s="2" t="str">
+      <x:c r="B74" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C73" s="2" t="str">
+      <x:c r="C74" s="2" t="str">
         <x:v>The criteria for competency-based completion of the achievement/award.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74">
-      <x:c r="A74" s="2" t="str">
-        <x:v>Currency</x:v>
-      </x:c>
-      <x:c r="B74" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C74" s="2" t="str">
-        <x:v>U.S. currency in dollars and cents.</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="2" t="str">
+        <x:v>Currency</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C75" s="2" t="str">
+        <x:v>U.S. currency in dollars and cents.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" s="2" t="str">
         <x:v>CurriculumUsedType</x:v>
       </x:c>
-      <x:c r="B75" s="2" t="str">
+      <x:c r="B76" s="2" t="str">
         <x:v>Creative curriculum infants/toddlers
 Creative curriculum preschool
 Creative curriculum family child care
@@ -50567,69 +50580,69 @@
 None
 </x:v>
       </x:c>
-      <x:c r="C75" s="2" t="str">
+      <x:c r="C76" s="2" t="str">
         <x:v>The type of curriculum used in an early learning classroom or group.</x:v>
       </x:c>
     </x:row>
-    <x:row r="76">
-      <x:c r="A76" s="2" t="str">
+    <x:row r="77">
+      <x:c r="A77" s="2" t="str">
         <x:v>DeliveryMethodType</x:v>
       </x:c>
-      <x:c r="B76" s="2" t="str">
+      <x:c r="B77" s="2" t="str">
         <x:v>Individual
 Small Group
 Whole Class
 Whole School
 </x:v>
       </x:c>
-      <x:c r="C76" s="2" t="str">
+      <x:c r="C77" s="2" t="str">
         <x:v>The way in which an intervention was implemented: individual, small group, whole class, or whole school.</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
-      <x:c r="A77" s="2" t="str">
+    <x:row r="78">
+      <x:c r="A78" s="2" t="str">
         <x:v>Department</x:v>
       </x:c>
-      <x:c r="B77" s="2" t="str">
+      <x:c r="B78" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 3
 </x:v>
       </x:c>
-      <x:c r="C77" s="2" t="str">
+      <x:c r="C78" s="2" t="str">
         <x:v>The department or suborganization the employee/contractor is associated with in the Education Organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="78">
-      <x:c r="A78" s="2" t="str">
+    <x:row r="79">
+      <x:c r="A79" s="2" t="str">
         <x:v>Description</x:v>
       </x:c>
-      <x:c r="B78" s="2" t="str">
+      <x:c r="B79" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C78" s="2" t="str">
+      <x:c r="C79" s="2" t="str">
         <x:v>A detailed description of the entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
-      <x:c r="A79" s="2" t="str">
+    <x:row r="80">
+      <x:c r="A80" s="2" t="str">
         <x:v>DesignatedBy</x:v>
       </x:c>
-      <x:c r="B79" s="2" t="str">
+      <x:c r="B80" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C79" s="2" t="str">
+      <x:c r="C80" s="2" t="str">
         <x:v>The person, organization, or department that made a student designation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="80">
-      <x:c r="A80" s="2" t="str">
+    <x:row r="81">
+      <x:c r="A81" s="2" t="str">
         <x:v>DiagnosisMapType</x:v>
       </x:c>
-      <x:c r="B80" s="2" t="str">
+      <x:c r="B81" s="2" t="str">
         <x:v>Low Attendance
 Dropout Risk
 Low Observation Performance
@@ -50639,41 +50652,41 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C80" s="2" t="str">
+      <x:c r="C81" s="2" t="str">
         <x:v>Targeted purpose of the intervention (e.g., attendance issue, dropout risk).</x:v>
       </x:c>
     </x:row>
-    <x:row r="81">
-      <x:c r="A81" s="2" t="str">
+    <x:row r="82">
+      <x:c r="A82" s="2" t="str">
         <x:v>DiagnosticStatement</x:v>
       </x:c>
-      <x:c r="B81" s="2" t="str">
+      <x:c r="B82" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C81" s="2" t="str">
+      <x:c r="C82" s="2" t="str">
         <x:v>A statement provided by the teacher that provides information in addition to the grade or assessment score.</x:v>
       </x:c>
     </x:row>
-    <x:row r="82">
-      <x:c r="A82" s="2" t="str">
+    <x:row r="83">
+      <x:c r="A83" s="2" t="str">
         <x:v>DiplomaDescription</x:v>
       </x:c>
-      <x:c r="B82" s="2" t="str">
+      <x:c r="B83" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C82" s="2" t="str">
+      <x:c r="C83" s="2" t="str">
         <x:v>The description of diploma given to the student for accomplishments.</x:v>
       </x:c>
     </x:row>
-    <x:row r="83">
-      <x:c r="A83" s="2" t="str">
+    <x:row r="84">
+      <x:c r="A84" s="2" t="str">
         <x:v>DiplomaLevelType</x:v>
       </x:c>
-      <x:c r="B83" s="2" t="str">
+      <x:c r="B84" s="2" t="str">
         <x:v>Minimum
 Recommended
 Distinguished
@@ -50683,15 +50696,15 @@
 Summa cum laude
 </x:v>
       </x:c>
-      <x:c r="C83" s="2" t="str">
+      <x:c r="C84" s="2" t="str">
         <x:v>The level of diploma/credential that is awarded to a student in recognition of his/her completion of the curricular requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="84">
-      <x:c r="A84" s="2" t="str">
+    <x:row r="85">
+      <x:c r="A85" s="2" t="str">
         <x:v>DiplomaType</x:v>
       </x:c>
-      <x:c r="B84" s="2" t="str">
+      <x:c r="B85" s="2" t="str">
         <x:v>Regular diploma
 Endorsed/advanced diploma
 Regents diploma
@@ -50711,29 +50724,29 @@
 Apprenticeship Certificate
 </x:v>
       </x:c>
-      <x:c r="C84" s="2" t="str">
+      <x:c r="C85" s="2" t="str">
         <x:v>The type of diploma/credential that is awarded to a student in recognition of his/her completion of the curricular requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="85">
-      <x:c r="A85" s="2" t="str">
+    <x:row r="86">
+      <x:c r="A86" s="2" t="str">
         <x:v>DisabilityCategoryType</x:v>
       </x:c>
-      <x:c r="B85" s="2" t="str">
+      <x:c r="B86" s="2" t="str">
         <x:v>Individuals with Disabilities Education Act
 Section 504
 Other
 </x:v>
       </x:c>
-      <x:c r="C85" s="2" t="str">
+      <x:c r="C86" s="2" t="str">
         <x:v>The type of disability designation (e.g., IDEA, Section 504).</x:v>
       </x:c>
     </x:row>
-    <x:row r="86">
-      <x:c r="A86" s="2" t="str">
+    <x:row r="87">
+      <x:c r="A87" s="2" t="str">
         <x:v>DisabilityDeterminationSourceType</x:v>
       </x:c>
-      <x:c r="B86" s="2" t="str">
+      <x:c r="B87" s="2" t="str">
         <x:v>By physician
 By health care provider
 By school psychologist or other psychologist
@@ -50745,28 +50758,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C86" s="2" t="str">
+      <x:c r="C87" s="2" t="str">
         <x:v>The source that provided the disability determination.</x:v>
       </x:c>
     </x:row>
-    <x:row r="87">
-      <x:c r="A87" s="2" t="str">
+    <x:row r="88">
+      <x:c r="A88" s="2" t="str">
         <x:v>DisabilityDiagnosis</x:v>
       </x:c>
-      <x:c r="B87" s="2" t="str">
+      <x:c r="B88" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C87" s="2" t="str">
+      <x:c r="C88" s="2" t="str">
         <x:v>A description of the disability diagnosis.</x:v>
       </x:c>
     </x:row>
-    <x:row r="88">
-      <x:c r="A88" s="2" t="str">
+    <x:row r="89">
+      <x:c r="A89" s="2" t="str">
         <x:v>DisabilityMapType</x:v>
       </x:c>
-      <x:c r="B88" s="2" t="str">
+      <x:c r="B89" s="2" t="str">
         <x:v>Autism Spectrum Disorders
 Deaf-Blindness
 Hearing Impairment, including Deafness
@@ -50789,28 +50802,28 @@
 Visual Impairment, including Blindness
 </x:v>
       </x:c>
-      <x:c r="C88" s="2" t="str">
+      <x:c r="C89" s="2" t="str">
         <x:v>A disability condition that describes a child's impairment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
-      <x:c r="A89" s="2" t="str">
+    <x:row r="90">
+      <x:c r="A90" s="2" t="str">
         <x:v>DisciplineActionIdentifier</x:v>
       </x:c>
-      <x:c r="B89" s="2" t="str">
+      <x:c r="B90" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C89" s="2" t="str">
+      <x:c r="C90" s="2" t="str">
         <x:v>Identifier assigned by the education organization to the discipline action.</x:v>
       </x:c>
     </x:row>
-    <x:row r="90">
-      <x:c r="A90" s="2" t="str">
+    <x:row r="91">
+      <x:c r="A91" s="2" t="str">
         <x:v>DisciplineActionLengthDifferenceReasonType</x:v>
       </x:c>
-      <x:c r="B90" s="2" t="str">
+      <x:c r="B91" s="2" t="str">
         <x:v>No Difference
 Term Modified By District
 Term Modified By Court Order
@@ -50825,15 +50838,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C90" s="2" t="str">
+      <x:c r="C91" s="2" t="str">
         <x:v>Indicates the reason for the difference, if any, between the official and actual lengths of a student's disciplinary assignment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="91">
-      <x:c r="A91" s="2" t="str">
+    <x:row r="92">
+      <x:c r="A92" s="2" t="str">
         <x:v>DisciplineMapType</x:v>
       </x:c>
-      <x:c r="B91" s="2" t="str">
+      <x:c r="B92" s="2" t="str">
         <x:v>Removal from Classroom
 In School Suspension
 Out of School Suspension
@@ -50843,53 +50856,53 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C91" s="2" t="str">
+      <x:c r="C92" s="2" t="str">
         <x:v>The category of discipline action.</x:v>
       </x:c>
     </x:row>
-    <x:row r="92">
-      <x:c r="A92" s="2" t="str">
+    <x:row r="93">
+      <x:c r="A93" s="2" t="str">
         <x:v>DisplacementStatus</x:v>
       </x:c>
-      <x:c r="B92" s="2" t="str">
+      <x:c r="B93" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C92" s="2" t="str">
+      <x:c r="C93" s="2" t="str">
         <x:v>Indicates a state health or weather related event that displaces a group of students, and may require additional funding, educational, or social services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="93">
-      <x:c r="A93" s="2" t="str">
+    <x:row r="94">
+      <x:c r="A94" s="2" t="str">
         <x:v>DocumentTitle</x:v>
       </x:c>
-      <x:c r="B93" s="2" t="str">
+      <x:c r="B94" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C93" s="2" t="str">
+      <x:c r="C94" s="2" t="str">
         <x:v>The title of the document given by the issuer.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94">
-      <x:c r="A94" s="2" t="str">
-        <x:v>Duration</x:v>
-      </x:c>
-      <x:c r="B94" s="2" t="str">
-        <x:v>minInclusive: 1
-</x:v>
-      </x:c>
-      <x:c r="C94" s="2" t="str">
-        <x:v>The actual or estimated number of clock minutes for a given class.</x:v>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="2" t="str">
+        <x:v>Duration</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="str">
+        <x:v>minInclusive: 1
+</x:v>
+      </x:c>
+      <x:c r="C95" s="2" t="str">
+        <x:v>The actual or estimated number of clock minutes for a given class.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" s="2" t="str">
         <x:v>EducationalEnvironmentType</x:v>
       </x:c>
-      <x:c r="B95" s="2" t="str">
+      <x:c r="B96" s="2" t="str">
         <x:v>Classroom
 Homebound
 Hospital class
@@ -50905,15 +50918,15 @@
 Shop
 </x:v>
       </x:c>
-      <x:c r="C95" s="2" t="str">
+      <x:c r="C96" s="2" t="str">
         <x:v>The setting in which a child receives education and related services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="96">
-      <x:c r="A96" s="2" t="str">
+    <x:row r="97">
+      <x:c r="A97" s="2" t="str">
         <x:v>EducationOrganizationCategoryType</x:v>
       </x:c>
-      <x:c r="B96" s="2" t="str">
+      <x:c r="B97" s="2" t="str">
         <x:v>Education Organization Network
 Education Service Center
 Local Education Agency
@@ -50926,15 +50939,15 @@
 Teacher Preparation Provider
 </x:v>
       </x:c>
-      <x:c r="C96" s="2" t="str">
+      <x:c r="C97" s="2" t="str">
         <x:v>The classification of the education agency within the geographic boundaries of a state according to the level of administrative and operational control granted by the state.</x:v>
       </x:c>
     </x:row>
-    <x:row r="97">
-      <x:c r="A97" s="2" t="str">
+    <x:row r="98">
+      <x:c r="A98" s="2" t="str">
         <x:v>EducationOrganizationIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B97" s="2" t="str">
+      <x:c r="B98" s="2" t="str">
         <x:v>ACT
 DUNS
 Federal
@@ -50948,15 +50961,15 @@
 USDE - OPE
 </x:v>
       </x:c>
-      <x:c r="C97" s="2" t="str">
+      <x:c r="C98" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by education organizations, social services or other agencies to refer to an education organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="98">
-      <x:c r="A98" s="2" t="str">
+    <x:row r="99">
+      <x:c r="A99" s="2" t="str">
         <x:v>EducationPlanType</x:v>
       </x:c>
-      <x:c r="B98" s="2" t="str">
+      <x:c r="B99" s="2" t="str">
         <x:v>504 Plan
 Career Pathways
 Career Suggestions
@@ -50971,45 +50984,45 @@
 Student Success Plan
 </x:v>
       </x:c>
-      <x:c r="C98" s="2" t="str">
+      <x:c r="C99" s="2" t="str">
         <x:v>The type of education plan(s) the student is following, if appropriate. For example:
     Special education
     Vocational.</x:v>
       </x:c>
     </x:row>
-    <x:row r="99">
-      <x:c r="A99" s="2" t="str">
+    <x:row r="100">
+      <x:c r="A100" s="2" t="str">
         <x:v>ElectronicMailAddress</x:v>
       </x:c>
-      <x:c r="B99" s="2" t="str">
+      <x:c r="B100" s="2" t="str">
         <x:v>minLength: 7
 maxLength: 128
 </x:v>
       </x:c>
-      <x:c r="C99" s="2" t="str">
+      <x:c r="C100" s="2" t="str">
         <x:v>The electronic mail (e-mail) address listed for an individual or organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="100">
-      <x:c r="A100" s="2" t="str">
+    <x:row r="101">
+      <x:c r="A101" s="2" t="str">
         <x:v>ElectronicMailType</x:v>
       </x:c>
-      <x:c r="B100" s="2" t="str">
+      <x:c r="B101" s="2" t="str">
         <x:v>Home/Personal
 Organization
 Other
 Work
 </x:v>
       </x:c>
-      <x:c r="C100" s="2" t="str">
+      <x:c r="C101" s="2" t="str">
         <x:v>The type of email listed for an individual or organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="101">
-      <x:c r="A101" s="2" t="str">
+    <x:row r="102">
+      <x:c r="A102" s="2" t="str">
         <x:v>EmploymentStatusMapType</x:v>
       </x:c>
-      <x:c r="B101" s="2" t="str">
+      <x:c r="B102" s="2" t="str">
         <x:v>Probationary
 Contractual
 Substitute/temporary
@@ -51022,15 +51035,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C101" s="2" t="str">
+      <x:c r="C102" s="2" t="str">
         <x:v>Reflects the type of employment or contract.</x:v>
       </x:c>
     </x:row>
-    <x:row r="102">
-      <x:c r="A102" s="2" t="str">
+    <x:row r="103">
+      <x:c r="A103" s="2" t="str">
         <x:v>EntryGradeLevelReasonType</x:v>
       </x:c>
-      <x:c r="B102" s="2" t="str">
+      <x:c r="B103" s="2" t="str">
         <x:v>Promotion - Accelerated promotion
 Promotion - Continuous promotion
 Promotion - Probationary promotion
@@ -51046,15 +51059,15 @@
 Nonpromotion - Other
 </x:v>
       </x:c>
-      <x:c r="C102" s="2" t="str">
+      <x:c r="C103" s="2" t="str">
         <x:v>The primary reason as to why a staff member determined that a student should be promoted or not (or be demoted) at the end of a given school term.</x:v>
       </x:c>
     </x:row>
-    <x:row r="103">
-      <x:c r="A103" s="2" t="str">
+    <x:row r="104">
+      <x:c r="A104" s="2" t="str">
         <x:v>EntryTypeMapType</x:v>
       </x:c>
-      <x:c r="B103" s="2" t="str">
+      <x:c r="B104" s="2" t="str">
         <x:v>Transfer
 Re-entry
 Next year school
@@ -51062,15 +51075,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C103" s="2" t="str">
+      <x:c r="C104" s="2" t="str">
         <x:v>The process by which a student enters a school during a given academic session.</x:v>
       </x:c>
     </x:row>
-    <x:row r="104">
-      <x:c r="A104" s="2" t="str">
+    <x:row r="105">
+      <x:c r="A105" s="2" t="str">
         <x:v>EventCircumstanceType</x:v>
       </x:c>
-      <x:c r="B104" s="2" t="str">
+      <x:c r="B105" s="2" t="str">
         <x:v>Long-term suspension - non-special education
 Short-term suspension - non-special education
 Suspension - special education
@@ -51105,28 +51118,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C104" s="2" t="str">
+      <x:c r="C105" s="2" t="str">
         <x:v>An unusual event occurred during the administration of the assessment. This could include fire alarm, student became ill, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="105">
-      <x:c r="A105" s="2" t="str">
+    <x:row r="106">
+      <x:c r="A106" s="2" t="str">
         <x:v>EventDuration</x:v>
       </x:c>
-      <x:c r="B105" s="2" t="str">
+      <x:c r="B106" s="2" t="str">
         <x:v>totalDigits: 3
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C105" s="2" t="str">
+      <x:c r="C106" s="2" t="str">
         <x:v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</x:v>
       </x:c>
     </x:row>
-    <x:row r="106">
-      <x:c r="A106" s="2" t="str">
+    <x:row r="107">
+      <x:c r="A107" s="2" t="str">
         <x:v>ExitWithdrawTypeMapType</x:v>
       </x:c>
-      <x:c r="B106" s="2" t="str">
+      <x:c r="B107" s="2" t="str">
         <x:v>Transferred
 Graduated
 Completed
@@ -51144,15 +51157,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C106" s="2" t="str">
+      <x:c r="C107" s="2" t="str">
         <x:v>The circumstances under which the student exited from membership in an educational institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="107">
-      <x:c r="A107" s="2" t="str">
+    <x:row r="108">
+      <x:c r="A108" s="2" t="str">
         <x:v>EXTENSION-AbsenceEventCategoryMapType</x:v>
       </x:c>
-      <x:c r="B107" s="2" t="str">
+      <x:c r="B108" s="2" t="str">
         <x:v>Doctor
 Family
 Injured
@@ -51162,41 +51175,41 @@
 Vacation
 </x:v>
       </x:c>
-      <x:c r="C107" s="2" t="str">
+      <x:c r="C108" s="2" t="str">
         <x:v>Map for the code describing the type of leave taken, for example: Sick, Personal, Vacation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="108">
-      <x:c r="A108" s="2" t="str">
+    <x:row r="109">
+      <x:c r="A109" s="2" t="str">
         <x:v>EXTENSION-AbsenceEventReason</x:v>
       </x:c>
-      <x:c r="B108" s="2" t="str">
+      <x:c r="B109" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C108" s="2" t="str">
+      <x:c r="C109" s="2" t="str">
         <x:v>Expanded reason for the staff absence.</x:v>
       </x:c>
     </x:row>
-    <x:row r="109">
-      <x:c r="A109" s="2" t="str">
+    <x:row r="110">
+      <x:c r="A110" s="2" t="str">
         <x:v>EXTENSION-AggregatedMatrixElement</x:v>
       </x:c>
-      <x:c r="B109" s="2" t="str">
+      <x:c r="B110" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C109" s="2" t="str">
+      <x:c r="C110" s="2" t="str">
         <x:v>For aggregated matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
-    <x:row r="110">
-      <x:c r="A110" s="2" t="str">
+    <x:row r="111">
+      <x:c r="A111" s="2" t="str">
         <x:v>EXTENSION-AidTypeMapType</x:v>
       </x:c>
-      <x:c r="B110" s="2" t="str">
+      <x:c r="B111" s="2" t="str">
         <x:v>Pell Grants
 Other Federal Grants
 State and Local Grants
@@ -51223,67 +51236,67 @@
 Loan Forgiveness
 </x:v>
       </x:c>
-      <x:c r="C110" s="2" t="str">
+      <x:c r="C111" s="2" t="str">
         <x:v>The classification of financial aid awarded to a person for the academic term/year.</x:v>
       </x:c>
     </x:row>
-    <x:row r="111">
-      <x:c r="A111" s="2" t="str">
+    <x:row r="112">
+      <x:c r="A112" s="2" t="str">
         <x:v>EXTENSION-AnonymizedStudentIdentifier</x:v>
       </x:c>
-      <x:c r="B111" s="2" t="str">
+      <x:c r="B112" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C111" s="2" t="str">
+      <x:c r="C112" s="2" t="str">
         <x:v>Unique identifier for anonymized student</x:v>
       </x:c>
     </x:row>
-    <x:row r="112">
-      <x:c r="A112" s="2" t="str">
+    <x:row r="113">
+      <x:c r="A113" s="2" t="str">
         <x:v>EXTENSION-ApplicantIdentifier</x:v>
       </x:c>
-      <x:c r="B112" s="2" t="str">
+      <x:c r="B113" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C112" s="2" t="str">
+      <x:c r="C113" s="2" t="str">
         <x:v>Identifier assigned to a person making formal application for an open staff position.</x:v>
       </x:c>
     </x:row>
-    <x:row r="113">
-      <x:c r="A113" s="2" t="str">
+    <x:row r="114">
+      <x:c r="A114" s="2" t="str">
         <x:v>EXTENSION-AssessmentIdentifier</x:v>
       </x:c>
-      <x:c r="B113" s="2" t="str">
+      <x:c r="B114" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C113" s="2" t="str">
+      <x:c r="C114" s="2" t="str">
         <x:v>An identifier that uniquely identifies the assessment to which the student results are associated.</x:v>
       </x:c>
     </x:row>
-    <x:row r="114">
-      <x:c r="A114" s="2" t="str">
+    <x:row r="115">
+      <x:c r="A115" s="2" t="str">
         <x:v>EXTENSION-AverageNumericResponse</x:v>
       </x:c>
-      <x:c r="B114" s="2" t="str">
+      <x:c r="B115" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C114" s="2" t="str">
+      <x:c r="C115" s="2" t="str">
         <x:v>The average numeric response for the survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="115">
-      <x:c r="A115" s="2" t="str">
+    <x:row r="116">
+      <x:c r="A116" s="2" t="str">
         <x:v>EXTENSION-BackgroundCheckStatusMapType</x:v>
       </x:c>
-      <x:c r="B115" s="2" t="str">
+      <x:c r="B116" s="2" t="str">
         <x:v>Eligible
 Employer Review
 Not Eligible
@@ -51292,15 +51305,15 @@
 Waiting
 </x:v>
       </x:c>
-      <x:c r="C115" s="2" t="str">
+      <x:c r="C116" s="2" t="str">
         <x:v>The status of the background check (e.g., pending, under investigation, offense(s) found, etc.).</x:v>
       </x:c>
     </x:row>
-    <x:row r="116">
-      <x:c r="A116" s="2" t="str">
+    <x:row r="117">
+      <x:c r="A117" s="2" t="str">
         <x:v>EXTENSION-BackgroundCheckTypeMapType</x:v>
       </x:c>
-      <x:c r="B116" s="2" t="str">
+      <x:c r="B117" s="2" t="str">
         <x:v>City
 County
 Federal
@@ -51308,15 +51321,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C116" s="2" t="str">
+      <x:c r="C117" s="2" t="str">
         <x:v>The type of background check (e.g., online, criminal, employment).</x:v>
       </x:c>
     </x:row>
-    <x:row r="117">
-      <x:c r="A117" s="2" t="str">
+    <x:row r="118">
+      <x:c r="A118" s="2" t="str">
         <x:v>EXTENSION-BoardCertificationTypeMapType</x:v>
       </x:c>
-      <x:c r="B117" s="2" t="str">
+      <x:c r="B118" s="2" t="str">
         <x:v>None
 Art/Early Adolescence through Young Adulthood
 Art/Early and Middle Childhood
@@ -51348,60 +51361,47 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C117" s="2" t="str">
+      <x:c r="C118" s="2" t="str">
         <x:v>Map for the board certiciation board types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="118">
-      <x:c r="A118" s="2" t="str">
+    <x:row r="119">
+      <x:c r="A119" s="2" t="str">
         <x:v>EXTENSION-CertificationExamTitle</x:v>
       </x:c>
-      <x:c r="B118" s="2" t="str">
+      <x:c r="B119" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C118" s="2" t="str">
+      <x:c r="C119" s="2" t="str">
         <x:v>The title or name of the certification.</x:v>
       </x:c>
     </x:row>
-    <x:row r="119">
-      <x:c r="A119" s="2" t="str">
+    <x:row r="120">
+      <x:c r="A120" s="2" t="str">
         <x:v>EXTENSION-CertificationExamTypeMapType</x:v>
       </x:c>
-      <x:c r="B119" s="2" t="str">
+      <x:c r="B120" s="2" t="str">
         <x:v>National
 State
 Other
 </x:v>
       </x:c>
-      <x:c r="C119" s="2" t="str">
+      <x:c r="C120" s="2" t="str">
         <x:v>Map for the certification exam types.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120">
-      <x:c r="A120" s="2" t="str">
-        <x:v>EXTENSION-Comments</x:v>
-      </x:c>
-      <x:c r="B120" s="2" t="str">
-        <x:v>maxLength: 1024
-</x:v>
-      </x:c>
-      <x:c r="C120" s="2" t="str">
-        <x:v>Any comments about the performance measure to be captured</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="2" t="str">
-        <x:v>EXTENSION-CredentialEndorsement</x:v>
+        <x:v>EXTENSION-Comments</x:v>
       </x:c>
       <x:c r="B121" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 255
+        <x:v>maxLength: 1024
 </x:v>
       </x:c>
       <x:c r="C121" s="2" t="str">
-        <x:v>Endorsements are attachments to teaching certificates and indicate areas of specialization.</x:v>
+        <x:v>Any comments about the performance measure to be captured</x:v>
       </x:c>
     </x:row>
     <x:row r="122">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -4208,7 +4208,7 @@
 </x:v>
       </x:c>
       <x:c r="E229" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment\grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
       </x:c>
     </x:row>
     <x:row r="230">
@@ -4226,7 +4226,7 @@
 </x:v>
       </x:c>
       <x:c r="E230" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment\grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
       </x:c>
     </x:row>
     <x:row r="231">
@@ -4244,7 +4244,7 @@
 </x:v>
       </x:c>
       <x:c r="E231" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment\grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
@@ -4262,7 +4262,7 @@
 </x:v>
       </x:c>
       <x:c r="E232" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment\grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
       </x:c>
     </x:row>
     <x:row r="233">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -40186,72 +40186,72 @@
     </x:row>
     <x:row r="2260">
       <x:c r="A2260" s="2" t="str">
-        <x:v>TeacherCandidateIdentity</x:v>
+        <x:v>TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="B2260" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="C2260" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2260" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2260" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
+        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2261">
       <x:c r="A2261" s="2" t="str">
-        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
+        <x:v>TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="B2261" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="C2261" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
       </x:c>
       <x:c r="D2261" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2261" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
+        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2262">
       <x:c r="A2262" s="2" t="str">
-        <x:v>TeacherCandidateReference</x:v>
+        <x:v>TeacherCandidateIdentity</x:v>
       </x:c>
       <x:c r="B2262" s="2" t="str">
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+      </x:c>
+      <x:c r="C2262" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
-      <x:c r="C2262" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
-      </x:c>
       <x:c r="D2262" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2262" s="2" t="str">
-        <x:v>The staff associated with this absence event</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2263">
       <x:c r="A2263" s="2" t="str">
-        <x:v>TeacherCandidateReference</x:v>
+        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
       </x:c>
       <x:c r="B2263" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="C2263" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
       </x:c>
       <x:c r="D2263" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2263" s="2" t="str">
-        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
+        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
       </x:c>
     </x:row>
     <x:row r="2264">
@@ -40262,13 +40262,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2264" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
       </x:c>
       <x:c r="D2264" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2264" s="2" t="str">
-        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
+        <x:v>The staff associated with this absence event</x:v>
       </x:c>
     </x:row>
     <x:row r="2265">
@@ -40279,13 +40279,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2265" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasure</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
       </x:c>
       <x:c r="D2265" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2265" s="2" t="str">
-        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
+        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2266">
@@ -40296,13 +40296,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2266" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="D2266" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2266" s="2" t="str">
-        <x:v>The teacher candidate associated with the staff.</x:v>
+        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
       </x:c>
     </x:row>
     <x:row r="2267">
@@ -40313,13 +40313,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2267" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasure</x:v>
       </x:c>
       <x:c r="D2267" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2267" s="2" t="str">
-        <x:v>Teacher Candidate for the association</x:v>
+        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
       </x:c>
     </x:row>
     <x:row r="2268">
@@ -40330,13 +40330,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2268" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociation</x:v>
       </x:c>
       <x:c r="D2268" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2268" s="2" t="str">
-        <x:v>Teacher Candidate for the association</x:v>
+        <x:v>The teacher candidate associated with the staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2269">
@@ -40347,13 +40347,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2269" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
       </x:c>
       <x:c r="D2269" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2269" s="2" t="str">
-        <x:v>The staff associated with this absence event</x:v>
+        <x:v>Teacher Candidate for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2270">
@@ -40364,13 +40364,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2270" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventIdentityType</x:v>
       </x:c>
       <x:c r="D2270" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2270" s="2" t="str">
-        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
+        <x:v>The staff associated with this absence event</x:v>
       </x:c>
     </x:row>
     <x:row r="2271">
@@ -40381,13 +40381,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2271" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceIdentityType</x:v>
       </x:c>
       <x:c r="D2271" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2271" s="2" t="str">
-        <x:v>The teacher candidate associated with the staff.</x:v>
+        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2272">
@@ -40398,13 +40398,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2272" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="D2272" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2272" s="2" t="str">
-        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
+        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
       </x:c>
     </x:row>
     <x:row r="2273">
@@ -40415,13 +40415,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2273" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2273" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2273" s="2" t="str">
-        <x:v>Teacher Candidate for the association</x:v>
+        <x:v>The teacher candidate associated with the staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2274">
@@ -40432,13 +40432,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2274" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
       </x:c>
       <x:c r="D2274" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2274" s="2" t="str">
-        <x:v>Teacher Candidate for the association</x:v>
+        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
       </x:c>
     </x:row>
     <x:row r="2275">
@@ -40449,14 +40449,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2275" s="2" t="str">
-        <x:v>EXTENSION-FieldworkExperience</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2275" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2275" s="2" t="str">
-        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
+        <x:v>Teacher Candidate for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2276">
@@ -40467,13 +40466,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2276" s="2" t="str">
-        <x:v>EXTENSION-PersonBeingReviewed</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2276" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2276" s="2" t="str">
-        <x:v>The teacher candidate associated with the performance measure.</x:v>
+        <x:v>Teacher Candidate for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2277">
@@ -40484,7 +40483,7 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2277" s="2" t="str">
-        <x:v>EXTENSION-ProfessionalDevelopmentAttendanceEvent</x:v>
+        <x:v>EXTENSION-FieldworkExperience</x:v>
       </x:c>
       <x:c r="D2277" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40502,13 +40501,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2278" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAbsenceEvent</x:v>
+        <x:v>EXTENSION-PersonBeingReviewed</x:v>
       </x:c>
       <x:c r="D2278" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2278" s="2" t="str">
-        <x:v>The teacher candidate associated with this teacher candidate absence event.</x:v>
+        <x:v>The teacher candidate associated with the performance measure.</x:v>
       </x:c>
     </x:row>
     <x:row r="2279">
@@ -40519,119 +40518,120 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2279" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateAbsenceEvent</x:v>
       </x:c>
       <x:c r="D2279" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2279" s="2" t="str">
-        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
+        <x:v>The teacher candidate associated with this teacher candidate absence event.</x:v>
       </x:c>
     </x:row>
     <x:row r="2280">
       <x:c r="A2280" s="2" t="str">
-        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
+        <x:v>TeacherCandidateReference</x:v>
       </x:c>
       <x:c r="B2280" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2280" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2280" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2280" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
+        <x:v>Teacher Candidate for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2281">
       <x:c r="A2281" s="2" t="str">
-        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
+        <x:v>TeacherCandidateReference</x:v>
       </x:c>
       <x:c r="B2281" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2281" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
+        <x:v>EXTENSION-ProfessionalDevelopmentAttendanceEvent</x:v>
       </x:c>
       <x:c r="D2281" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2281" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
+        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2282">
       <x:c r="A2282" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
+        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2282" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2282" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2282" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2282" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2283">
       <x:c r="A2283" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
+        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
       </x:c>
       <x:c r="B2283" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
       </x:c>
       <x:c r="C2283" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
       </x:c>
       <x:c r="D2283" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2283" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
       </x:c>
     </x:row>
     <x:row r="2284">
       <x:c r="A2284" s="2" t="str">
-        <x:v>TeacherCandidateUniqueId</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2284" s="2" t="str">
-        <x:v>UniqueId</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2284" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2284" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2284" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2285">
       <x:c r="A2285" s="2" t="str">
-        <x:v>TeacherCandidateUniqueId</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2285" s="2" t="str">
-        <x:v>UniqueId</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2285" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2285" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2285" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2286">
@@ -52136,20 +52136,20 @@
     </x:row>
     <x:row r="173">
       <x:c r="A173" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramIdentifier</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="B173" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 75
+maxLength: 32
 </x:v>
       </x:c>
       <x:c r="C173" s="2" t="str">
-        <x:v>An ID assigned to the teacher preparation program.</x:v>
+        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramName</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgramIdentifier</x:v>
       </x:c>
       <x:c r="B174" s="2" t="str">
         <x:v>minLength: 1
@@ -52157,54 +52157,67 @@
 </x:v>
       </x:c>
       <x:c r="C174" s="2" t="str">
-        <x:v>The name of the Teacher Preparation Program.</x:v>
+        <x:v>An ID assigned to the teacher preparation program.</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
       <x:c r="A175" s="2" t="str">
+        <x:v>EXTENSION-TeacherPreparationProgramName</x:v>
+      </x:c>
+      <x:c r="B175" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 75
+</x:v>
+      </x:c>
+      <x:c r="C175" s="2" t="str">
+        <x:v>The name of the Teacher Preparation Program.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgramTypeMapType</x:v>
       </x:c>
-      <x:c r="B175" s="2" t="str">
+      <x:c r="B176" s="2" t="str">
         <x:v>Alternate
 Other
 Traditional
 </x:v>
       </x:c>
-      <x:c r="C175" s="2" t="str">
+      <x:c r="C176" s="2" t="str">
         <x:v>Map for the type of teacher prep program (e.g., college, alternative, TFA, etc.).</x:v>
       </x:c>
     </x:row>
-    <x:row r="176">
-      <x:c r="A176" s="2" t="str">
+    <x:row r="177">
+      <x:c r="A177" s="2" t="str">
         <x:v>EXTENSION-TextChoice</x:v>
       </x:c>
-      <x:c r="B176" s="2" t="str">
+      <x:c r="B177" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C176" s="2" t="str">
+      <x:c r="C177" s="2" t="str">
         <x:v>For radio buttons, checkboxes, dropdowns, matrix of drop downs - the list of choices.</x:v>
       </x:c>
     </x:row>
-    <x:row r="177">
-      <x:c r="A177" s="2" t="str">
+    <x:row r="178">
+      <x:c r="A178" s="2" t="str">
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
-      <x:c r="B177" s="2" t="str">
+      <x:c r="B178" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C177" s="2" t="str">
+      <x:c r="C178" s="2" t="str">
         <x:v>The text response(s) for the question.</x:v>
       </x:c>
     </x:row>
-    <x:row r="178">
-      <x:c r="A178" s="2" t="str">
+    <x:row r="179">
+      <x:c r="A179" s="2" t="str">
         <x:v>EXTENSION-ThemeTypeMapType</x:v>
       </x:c>
-      <x:c r="B178" s="2" t="str">
+      <x:c r="B179" s="2" t="str">
         <x:v>Effective Planning
 Classroom Environment
 Classroom Instruction
@@ -52217,28 +52230,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C178" s="2" t="str">
+      <x:c r="C179" s="2" t="str">
         <x:v>Map for the theme types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="179">
-      <x:c r="A179" s="2" t="str">
+    <x:row r="180">
+      <x:c r="A180" s="2" t="str">
         <x:v>EXTENSION-TouchpointContent</x:v>
       </x:c>
-      <x:c r="B179" s="2" t="str">
+      <x:c r="B180" s="2" t="str">
         <x:v>minLength: 0
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C179" s="2" t="str">
+      <x:c r="C180" s="2" t="str">
         <x:v>The content associated with or an artifact from the touchpoint.</x:v>
       </x:c>
     </x:row>
-    <x:row r="180">
-      <x:c r="A180" s="2" t="str">
+    <x:row r="181">
+      <x:c r="A181" s="2" t="str">
         <x:v>EXTENSION-TPPDegreeTypeMapType</x:v>
       </x:c>
-      <x:c r="B180" s="2" t="str">
+      <x:c r="B181" s="2" t="str">
         <x:v>Master's of Arts
 Master's of Science
 Master's of Education
@@ -52250,15 +52263,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C180" s="2" t="str">
+      <x:c r="C181" s="2" t="str">
         <x:v>Map for the type of degree awarded.</x:v>
       </x:c>
     </x:row>
-    <x:row r="181">
-      <x:c r="A181" s="2" t="str">
+    <x:row r="182">
+      <x:c r="A182" s="2" t="str">
         <x:v>EXTENSION-TPPProgramPathwayMapType</x:v>
       </x:c>
-      <x:c r="B181" s="2" t="str">
+      <x:c r="B182" s="2" t="str">
         <x:v>Residency
 Intership
 Fellowship
@@ -52266,55 +52279,55 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C181" s="2" t="str">
+      <x:c r="C182" s="2" t="str">
         <x:v>Map for the program pathways.</x:v>
       </x:c>
     </x:row>
-    <x:row r="182">
-      <x:c r="A182" s="2" t="str">
+    <x:row r="183">
+      <x:c r="A183" s="2" t="str">
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
-      <x:c r="B182" s="2" t="str">
+      <x:c r="B183" s="2" t="str">
         <x:v>Actual
 Projected
 Other
 </x:v>
       </x:c>
-      <x:c r="C182" s="2" t="str">
+      <x:c r="C183" s="2" t="str">
         <x:v>The type (i.e. actual or projected) of value.</x:v>
       </x:c>
     </x:row>
-    <x:row r="183">
-      <x:c r="A183" s="2" t="str">
+    <x:row r="184">
+      <x:c r="A184" s="2" t="str">
         <x:v>EXTENSION-Whereabouts</x:v>
       </x:c>
-      <x:c r="B183" s="2" t="str">
+      <x:c r="B184" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C183" s="2" t="str">
+      <x:c r="C184" s="2" t="str">
         <x:v>The location, typically City and State, for the institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="184">
-      <x:c r="A184" s="2" t="str">
+    <x:row r="185">
+      <x:c r="A185" s="2" t="str">
         <x:v>EXTENSION-YearsOfService</x:v>
       </x:c>
-      <x:c r="B184" s="2" t="str">
+      <x:c r="B185" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C184" s="2" t="str">
+      <x:c r="C185" s="2" t="str">
         <x:v>Years of service</x:v>
       </x:c>
     </x:row>
-    <x:row r="185">
-      <x:c r="A185" s="2" t="str">
+    <x:row r="186">
+      <x:c r="A186" s="2" t="str">
         <x:v>FederalLocaleCodeMapType</x:v>
       </x:c>
-      <x:c r="B185" s="2" t="str">
+      <x:c r="B186" s="2" t="str">
         <x:v>City
 Suburb
 Other
@@ -52322,68 +52335,68 @@
 Rural
 </x:v>
       </x:c>
-      <x:c r="C185" s="2" t="str">
+      <x:c r="C186" s="2" t="str">
         <x:v>Map for the type federal local codes.</x:v>
       </x:c>
     </x:row>
-    <x:row r="186">
-      <x:c r="A186" s="2" t="str">
+    <x:row r="187">
+      <x:c r="A187" s="2" t="str">
         <x:v>FirstName</x:v>
       </x:c>
-      <x:c r="B186" s="2" t="str">
+      <x:c r="B187" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C186" s="2" t="str">
+      <x:c r="C187" s="2" t="str">
         <x:v>A name given to an individual at birth, baptism, or during another naming ceremony, or through legal change.</x:v>
       </x:c>
     </x:row>
-    <x:row r="187">
-      <x:c r="A187" s="2" t="str">
+    <x:row r="188">
+      <x:c r="A188" s="2" t="str">
         <x:v>GenerationCodeSuffix</x:v>
       </x:c>
-      <x:c r="B187" s="2" t="str">
+      <x:c r="B188" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 10
 </x:v>
       </x:c>
-      <x:c r="C187" s="2" t="str">
+      <x:c r="C188" s="2" t="str">
         <x:v>An appendage, if any, used to denote an individual's generation in his family (e.g., Jr., Sr., III).</x:v>
       </x:c>
     </x:row>
-    <x:row r="188">
-      <x:c r="A188" s="2" t="str">
+    <x:row r="189">
+      <x:c r="A189" s="2" t="str">
         <x:v>GPA</x:v>
       </x:c>
-      <x:c r="B188" s="2" t="str">
+      <x:c r="B189" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C188" s="2" t="str">
+      <x:c r="C189" s="2" t="str">
         <x:v>Grade Point Average computed for a grading period or cumulatively.</x:v>
       </x:c>
     </x:row>
-    <x:row r="189">
-      <x:c r="A189" s="2" t="str">
+    <x:row r="190">
+      <x:c r="A190" s="2" t="str">
         <x:v>GradebookEntryTitle</x:v>
       </x:c>
-      <x:c r="B189" s="2" t="str">
+      <x:c r="B190" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C189" s="2" t="str">
+      <x:c r="C190" s="2" t="str">
         <x:v>The name or title of the activity to be recorded in the gradebook entry.</x:v>
       </x:c>
     </x:row>
-    <x:row r="190">
-      <x:c r="A190" s="2" t="str">
+    <x:row r="191">
+      <x:c r="A191" s="2" t="str">
         <x:v>GradebookEntryType</x:v>
       </x:c>
-      <x:c r="B190" s="2" t="str">
+      <x:c r="B191" s="2" t="str">
         <x:v>Activity
 Assignment
 Classroom Assessment
@@ -52394,28 +52407,28 @@
 Unit Test
 </x:v>
       </x:c>
-      <x:c r="C190" s="2" t="str">
+      <x:c r="C191" s="2" t="str">
         <x:v>The type of the gradebook entry; for example, homework, assignment, quiz, unit test, oral presentation, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="191">
-      <x:c r="A191" s="2" t="str">
+    <x:row r="192">
+      <x:c r="A192" s="2" t="str">
         <x:v>GradeEarned</x:v>
       </x:c>
-      <x:c r="B191" s="2" t="str">
+      <x:c r="B192" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C191" s="2" t="str">
+      <x:c r="C192" s="2" t="str">
         <x:v>A final or interim (grading period) indicator of student performance in a class as submitted by the instructor.</x:v>
       </x:c>
     </x:row>
-    <x:row r="192">
-      <x:c r="A192" s="2" t="str">
+    <x:row r="193">
+      <x:c r="A193" s="2" t="str">
         <x:v>GradeLevelMapType</x:v>
       </x:c>
-      <x:c r="B192" s="2" t="str">
+      <x:c r="B193" s="2" t="str">
         <x:v>Adult Education
 Early Education
 Eighth grade
@@ -52442,15 +52455,15 @@
 Professional Certification
 </x:v>
       </x:c>
-      <x:c r="C192" s="2" t="str">
+      <x:c r="C193" s="2" t="str">
         <x:v>The enumeration items for the set of grade levels.</x:v>
       </x:c>
     </x:row>
-    <x:row r="193">
-      <x:c r="A193" s="2" t="str">
+    <x:row r="194">
+      <x:c r="A194" s="2" t="str">
         <x:v>GradeType</x:v>
       </x:c>
-      <x:c r="B193" s="2" t="str">
+      <x:c r="B194" s="2" t="str">
         <x:v>Conduct
 Exam
 Final
@@ -52460,28 +52473,28 @@
 Semester
 </x:v>
       </x:c>
-      <x:c r="C193" s="2" t="str">
+      <x:c r="C194" s="2" t="str">
         <x:v>The type of grade in a report card or transcript (e.g., Final, Exam, Grading Period).</x:v>
       </x:c>
     </x:row>
-    <x:row r="194">
-      <x:c r="A194" s="2" t="str">
+    <x:row r="195">
+      <x:c r="A195" s="2" t="str">
         <x:v>GradeValueQualifier</x:v>
       </x:c>
-      <x:c r="B194" s="2" t="str">
+      <x:c r="B195" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C194" s="2" t="str">
+      <x:c r="C195" s="2" t="str">
         <x:v>The scale of equivalents, if applicable, for grades awarded as indicators of performance in schoolwork. For example, numerical equivalents for letter grades used in determining a student's Grade Point Average (A=4, B=3, C=2, D=1 in a four-point system) or letter equivalents for percentage grades (90-100%=A, 80-90%=B, etc.)</x:v>
       </x:c>
     </x:row>
-    <x:row r="195">
-      <x:c r="A195" s="2" t="str">
+    <x:row r="196">
+      <x:c r="A196" s="2" t="str">
         <x:v>GradingPeriodMapType</x:v>
       </x:c>
-      <x:c r="B195" s="2" t="str">
+      <x:c r="B196" s="2" t="str">
         <x:v>First Six Weeks
 Second Six Weeks
 Third Six Weeks
@@ -52504,15 +52517,15 @@
 End of Year
 </x:v>
       </x:c>
-      <x:c r="C195" s="2" t="str">
+      <x:c r="C196" s="2" t="str">
         <x:v>The name of the period for which grades are reported.</x:v>
       </x:c>
     </x:row>
-    <x:row r="196">
-      <x:c r="A196" s="2" t="str">
+    <x:row r="197">
+      <x:c r="A197" s="2" t="str">
         <x:v>GraduationPlanTypeMapType</x:v>
       </x:c>
-      <x:c r="B196" s="2" t="str">
+      <x:c r="B197" s="2" t="str">
         <x:v>Career and Technical Education
 Distinguished
 Minimum
@@ -52520,109 +52533,109 @@
 Standard
 </x:v>
       </x:c>
-      <x:c r="C196" s="2" t="str">
+      <x:c r="C197" s="2" t="str">
         <x:v>The type of academic plan the student is following for graduation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="197">
-      <x:c r="A197" s="2" t="str">
+    <x:row r="198">
+      <x:c r="A198" s="2" t="str">
         <x:v>GunFreeSchoolsActReportingStatusType</x:v>
       </x:c>
-      <x:c r="B197" s="2" t="str">
+      <x:c r="B198" s="2" t="str">
         <x:v>Yes, with reporting of one or more students for an offense
 Yes, with no reported offenses
 No
 Not applicable
 </x:v>
       </x:c>
-      <x:c r="C197" s="2" t="str">
+      <x:c r="C198" s="2" t="str">
         <x:v>An indication of whether the school or local education agency (LEA) submitted a Gun-Free Schools Act (GFSA) of 1994 report to the state, as defined by Title 18, Section 921.</x:v>
       </x:c>
     </x:row>
-    <x:row r="198">
-      <x:c r="A198" s="2" t="str">
+    <x:row r="199">
+      <x:c r="A199" s="2" t="str">
         <x:v>HonorDescription</x:v>
       </x:c>
-      <x:c r="B198" s="2" t="str">
+      <x:c r="B199" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C198" s="2" t="str">
+      <x:c r="C199" s="2" t="str">
         <x:v>A description of the type of academic distinctions earned by or awarded to the individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="199">
-      <x:c r="A199" s="2" t="str">
+    <x:row r="200">
+      <x:c r="A200" s="2" t="str">
         <x:v>HoursOnLeave</x:v>
       </x:c>
-      <x:c r="B199" s="2" t="str">
+      <x:c r="B200" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C199" s="2" t="str">
+      <x:c r="C200" s="2" t="str">
         <x:v>The hours the staff was absent, if not the entire working day.</x:v>
       </x:c>
     </x:row>
-    <x:row r="200">
-      <x:c r="A200" s="2" t="str">
+    <x:row r="201">
+      <x:c r="A201" s="2" t="str">
         <x:v>HoursPerWeek</x:v>
       </x:c>
-      <x:c r="B200" s="2" t="str">
+      <x:c r="B201" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C200" s="2" t="str">
+      <x:c r="C201" s="2" t="str">
         <x:v>The number of hours per week used on an activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="201">
-      <x:c r="A201" s="2" t="str">
+    <x:row r="202">
+      <x:c r="A202" s="2" t="str">
         <x:v>IdentificationCode</x:v>
       </x:c>
-      <x:c r="B201" s="2" t="str">
+      <x:c r="B202" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C201" s="2" t="str">
+      <x:c r="C202" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a space, room, site, building, individual, organization, program, or institution by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="202">
-      <x:c r="A202" s="2" t="str">
+    <x:row r="203">
+      <x:c r="A203" s="2" t="str">
         <x:v>IdentificationDocumentUseType</x:v>
       </x:c>
-      <x:c r="B202" s="2" t="str">
+      <x:c r="B203" s="2" t="str">
         <x:v>Personal Information Verification
 US Citizenship Identification
 Foreign Citizenship Identification
 </x:v>
       </x:c>
-      <x:c r="C202" s="2" t="str">
+      <x:c r="C203" s="2" t="str">
         <x:v>Identifies the type of use given to an identification document.</x:v>
       </x:c>
     </x:row>
-    <x:row r="203">
-      <x:c r="A203" s="2" t="str">
+    <x:row r="204">
+      <x:c r="A204" s="2" t="str">
         <x:v>IncidentIdentifier</x:v>
       </x:c>
-      <x:c r="B203" s="2" t="str">
+      <x:c r="B204" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C203" s="2" t="str">
+      <x:c r="C204" s="2" t="str">
         <x:v>A locally assigned unique identifier (within the school or school district) to identify each specific incident or occurrence. The same identifier should be used to document the entire incident even if it included multiple offenses and multiple offenders.</x:v>
       </x:c>
     </x:row>
-    <x:row r="204">
-      <x:c r="A204" s="2" t="str">
+    <x:row r="205">
+      <x:c r="A205" s="2" t="str">
         <x:v>IncidentLocationType</x:v>
       </x:c>
-      <x:c r="B204" s="2" t="str">
+      <x:c r="B205" s="2" t="str">
         <x:v>On campus
 Administrative offices area
 Cafeteria area
@@ -52650,41 +52663,41 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C204" s="2" t="str">
+      <x:c r="C205" s="2" t="str">
         <x:v>Identifies where the incident occurred and whether or not it occurred on school property.</x:v>
       </x:c>
     </x:row>
-    <x:row r="205">
-      <x:c r="A205" s="2" t="str">
+    <x:row r="206">
+      <x:c r="A206" s="2" t="str">
         <x:v>Indicator</x:v>
       </x:c>
-      <x:c r="B205" s="2" t="str">
+      <x:c r="B206" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C205" s="2" t="str">
+      <x:c r="C206" s="2" t="str">
         <x:v>Indicator or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="206">
-      <x:c r="A206" s="2" t="str">
+    <x:row r="207">
+      <x:c r="A207" s="2" t="str">
         <x:v>IndicatorName</x:v>
       </x:c>
-      <x:c r="B206" s="2" t="str">
+      <x:c r="B207" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C206" s="2" t="str">
+      <x:c r="C207" s="2" t="str">
         <x:v>The name of the Indicator, indicator group, or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="207">
-      <x:c r="A207" s="2" t="str">
+    <x:row r="208">
+      <x:c r="A208" s="2" t="str">
         <x:v>InstitutionTelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B207" s="2" t="str">
+      <x:c r="B208" s="2" t="str">
         <x:v>Main
 Administrative
 Health Clinic
@@ -52694,15 +52707,15 @@
 Food Service
 </x:v>
       </x:c>
-      <x:c r="C207" s="2" t="str">
+      <x:c r="C208" s="2" t="str">
         <x:v>The type of communication number listed for an organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="208">
-      <x:c r="A208" s="2" t="str">
+    <x:row r="209">
+      <x:c r="A209" s="2" t="str">
         <x:v>IntegratedTechnologyStatusType</x:v>
       </x:c>
-      <x:c r="B208" s="2" t="str">
+      <x:c r="B209" s="2" t="str">
         <x:v>Developing
 Approaching
 Meets
@@ -52710,59 +52723,59 @@
 Not required to report
 </x:v>
       </x:c>
-      <x:c r="C208" s="2" t="str">
+      <x:c r="C209" s="2" t="str">
         <x:v>An indication of the extent to which the district has effectively and fully integrated technology, as defined by the state.</x:v>
       </x:c>
     </x:row>
-    <x:row r="209">
-      <x:c r="A209" s="2" t="str">
+    <x:row r="210">
+      <x:c r="A210" s="2" t="str">
         <x:v>InteractivityStyleType</x:v>
       </x:c>
-      <x:c r="B209" s="2" t="str">
+      <x:c r="B210" s="2" t="str">
         <x:v>Active
 Expositive
 Mixed
 Other
 </x:v>
       </x:c>
-      <x:c r="C209" s="2" t="str">
+      <x:c r="C210" s="2" t="str">
         <x:v>The predominate mode of learning supported by the learning resource. Acceptable values are active, expositive, or mixed.</x:v>
       </x:c>
     </x:row>
-    <x:row r="210">
-      <x:c r="A210" s="2" t="str">
+    <x:row r="211">
+      <x:c r="A211" s="2" t="str">
         <x:v>InternetAccessType</x:v>
       </x:c>
-      <x:c r="B210" s="2" t="str">
+      <x:c r="B211" s="2" t="str">
         <x:v>High Speed
 Less Than High Speed
 None
 </x:v>
       </x:c>
-      <x:c r="C210" s="2" t="str">
+      <x:c r="C211" s="2" t="str">
         <x:v>The type of Internet access available.</x:v>
       </x:c>
     </x:row>
-    <x:row r="211">
-      <x:c r="A211" s="2" t="str">
+    <x:row r="212">
+      <x:c r="A212" s="2" t="str">
         <x:v>InterventionClassType</x:v>
       </x:c>
-      <x:c r="B211" s="2" t="str">
+      <x:c r="B212" s="2" t="str">
         <x:v>Curriculum
 Other
 Practice
 Supplement
 </x:v>
       </x:c>
-      <x:c r="C211" s="2" t="str">
+      <x:c r="C212" s="2" t="str">
         <x:v>The way in which an intervention is used: curriculum, supplement, or practice.</x:v>
       </x:c>
     </x:row>
-    <x:row r="212">
-      <x:c r="A212" s="2" t="str">
+    <x:row r="213">
+      <x:c r="A213" s="2" t="str">
         <x:v>InterventionEffectivenessRatingType</x:v>
       </x:c>
-      <x:c r="B212" s="2" t="str">
+      <x:c r="B213" s="2" t="str">
         <x:v>Positive Effects
 Potentially Positive Effects
 Mixed Effects
@@ -52772,42 +52785,42 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C212" s="2" t="str">
+      <x:c r="C213" s="2" t="str">
         <x:v>An intervention demonstrates effectiveness if the research has shown that the program caused an improvement in outcomes. Rating Values: positive effects, potentially positive effects, mixed effects, potentially negative effects, negative effects, and no discernible effects.</x:v>
       </x:c>
     </x:row>
-    <x:row r="213">
-      <x:c r="A213" s="2" t="str">
+    <x:row r="214">
+      <x:c r="A214" s="2" t="str">
         <x:v>IssuerName</x:v>
       </x:c>
-      <x:c r="B213" s="2" t="str">
+      <x:c r="B214" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C213" s="2" t="str">
+      <x:c r="C214" s="2" t="str">
         <x:v>The name of the agent issuing the award.</x:v>
       </x:c>
     </x:row>
-    <x:row r="214">
-      <x:c r="A214" s="2" t="str">
+    <x:row r="215">
+      <x:c r="A215" s="2" t="str">
         <x:v>LanguageMapType</x:v>
       </x:c>
-      <x:c r="B214" s="2" t="str">
+      <x:c r="B215" s="2" t="str">
         <x:v>Spanish
 English
 Other
 </x:v>
       </x:c>
-      <x:c r="C214" s="2" t="str">
+      <x:c r="C215" s="2" t="str">
         <x:v>The category denoting language(s) spoken or written.</x:v>
       </x:c>
     </x:row>
-    <x:row r="215">
-      <x:c r="A215" s="2" t="str">
+    <x:row r="216">
+      <x:c r="A216" s="2" t="str">
         <x:v>LanguageUseType</x:v>
       </x:c>
-      <x:c r="B215" s="2" t="str">
+      <x:c r="B216" s="2" t="str">
         <x:v>Home language
 Spoken language
 Written language
@@ -52818,67 +52831,67 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C215" s="2" t="str">
+      <x:c r="C216" s="2" t="str">
         <x:v>The category denoting how a language is used.</x:v>
       </x:c>
     </x:row>
-    <x:row r="216">
-      <x:c r="A216" s="2" t="str">
+    <x:row r="217">
+      <x:c r="A217" s="2" t="str">
         <x:v>LastSurname</x:v>
       </x:c>
-      <x:c r="B216" s="2" t="str">
+      <x:c r="B217" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C216" s="2" t="str">
+      <x:c r="C217" s="2" t="str">
         <x:v>The name borne in common by members of a family.</x:v>
       </x:c>
     </x:row>
-    <x:row r="217">
-      <x:c r="A217" s="2" t="str">
+    <x:row r="218">
+      <x:c r="A218" s="2" t="str">
         <x:v>Learning</x:v>
       </x:c>
-      <x:c r="B217" s="2" t="str">
+      <x:c r="B218" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C217" s="2" t="str">
+      <x:c r="C218" s="2" t="str">
         <x:v>Student's learning method preference (ex. auditory, visual, and "kinesthetic or tactile") expressed as a normalized percentage.</x:v>
       </x:c>
     </x:row>
-    <x:row r="218">
-      <x:c r="A218" s="2" t="str">
+    <x:row r="219">
+      <x:c r="A219" s="2" t="str">
         <x:v>LearningResourceMetadataURI</x:v>
       </x:c>
-      <x:c r="B218" s="2" t="str">
+      <x:c r="B219" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C218" s="2" t="str">
+      <x:c r="C219" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="219">
-      <x:c r="A219" s="2" t="str">
+    <x:row r="220">
+      <x:c r="A220" s="2" t="str">
         <x:v>LearningStandardId</x:v>
       </x:c>
-      <x:c r="B219" s="2" t="str">
+      <x:c r="B220" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C219" s="2" t="str">
+      <x:c r="C220" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a Learning Standard.</x:v>
       </x:c>
     </x:row>
-    <x:row r="220">
-      <x:c r="A220" s="2" t="str">
+    <x:row r="221">
+      <x:c r="A221" s="2" t="str">
         <x:v>LeaveEventCategoryType</x:v>
       </x:c>
-      <x:c r="B220" s="2" t="str">
+      <x:c r="B221" s="2" t="str">
         <x:v>Vacation
 Jury duty
 Professional development
@@ -52899,28 +52912,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C220" s="2" t="str">
+      <x:c r="C221" s="2" t="str">
         <x:v>A code describing the type of the leave event.</x:v>
       </x:c>
     </x:row>
-    <x:row r="221">
-      <x:c r="A221" s="2" t="str">
+    <x:row r="222">
+      <x:c r="A222" s="2" t="str">
         <x:v>LeaveEventReason</x:v>
       </x:c>
-      <x:c r="B221" s="2" t="str">
+      <x:c r="B222" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C221" s="2" t="str">
+      <x:c r="C222" s="2" t="str">
         <x:v>Expanded reason for the staff leave.</x:v>
       </x:c>
     </x:row>
-    <x:row r="222">
-      <x:c r="A222" s="2" t="str">
+    <x:row r="223">
+      <x:c r="A223" s="2" t="str">
         <x:v>LevelOfEducationMapType</x:v>
       </x:c>
-      <x:c r="B222" s="2" t="str">
+      <x:c r="B223" s="2" t="str">
         <x:v>Did Not Graduate High School
 High School Diploma
 Some College No Degree
@@ -52930,70 +52943,70 @@
 Associate's Degree (two years or more)
 </x:v>
       </x:c>
-      <x:c r="C222" s="2" t="str">
+      <x:c r="C223" s="2" t="str">
         <x:v>The enumeration of the different levels of education achievable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="223">
-      <x:c r="A223" s="2" t="str">
+    <x:row r="224">
+      <x:c r="A224" s="2" t="str">
         <x:v>LimitedEnglishProficiencyMapType</x:v>
       </x:c>
-      <x:c r="B223" s="2" t="str">
+      <x:c r="B224" s="2" t="str">
         <x:v>NotLimited
 Limited
 Limited Monitored 1
 Limited Monitored 2
 </x:v>
       </x:c>
-      <x:c r="C223" s="2" t="str">
+      <x:c r="C224" s="2" t="str">
         <x:v>An indication that the student has been identified as Limited English Proficient or English Proficient by the Language Proficiency Assessment Committee (LPAC).</x:v>
       </x:c>
     </x:row>
-    <x:row r="224">
-      <x:c r="A224" s="2" t="str">
+    <x:row r="225">
+      <x:c r="A225" s="2" t="str">
         <x:v>LocalCourseCode</x:v>
       </x:c>
-      <x:c r="B224" s="2" t="str">
+      <x:c r="B225" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C224" s="2" t="str">
+      <x:c r="C225" s="2" t="str">
         <x:v>The local code assigned by the LEA that identifies the organization of subject matter and related learning experiences provided for the instruction of students.</x:v>
       </x:c>
     </x:row>
-    <x:row r="225">
-      <x:c r="A225" s="2" t="str">
+    <x:row r="226">
+      <x:c r="A226" s="2" t="str">
         <x:v>LocalEducationAgencyCategoryType</x:v>
       </x:c>
-      <x:c r="B225" s="2" t="str">
+      <x:c r="B226" s="2" t="str">
         <x:v>Independent
 Charter
 </x:v>
       </x:c>
-      <x:c r="C225" s="2" t="str">
+      <x:c r="C226" s="2" t="str">
         <x:v>The category of local education agency/district. For example: Independent or Charter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="226">
-      <x:c r="A226" s="2" t="str">
+    <x:row r="227">
+      <x:c r="A227" s="2" t="str">
         <x:v>MagnetSpecialProgramEmphasisSchoolType</x:v>
       </x:c>
-      <x:c r="B226" s="2" t="str">
+      <x:c r="B227" s="2" t="str">
         <x:v>All students participate
 No students participate
 Some, but not all, students participate
 </x:v>
       </x:c>
-      <x:c r="C226" s="2" t="str">
+      <x:c r="C227" s="2" t="str">
         <x:v>A school that has been designed to attract students of different racial/ethnic backgrounds for the purpose of reducing, preventing or eliminating racial isolation; and/or to provide an academic or social focus on a particular theme (e.g., science/math, performing arts, gifted/talented, or foreign language).</x:v>
       </x:c>
     </x:row>
-    <x:row r="227">
-      <x:c r="A227" s="2" t="str">
+    <x:row r="228">
+      <x:c r="A228" s="2" t="str">
         <x:v>MediumOfInstructionType</x:v>
       </x:c>
-      <x:c r="B227" s="2" t="str">
+      <x:c r="B228" s="2" t="str">
         <x:v>Center-based instruction
 Correspondence instruction
 Distance Learning (other than online)
@@ -53009,15 +53022,15 @@
 Virtual/On-line Distance learning
 </x:v>
       </x:c>
-      <x:c r="C227" s="2" t="str">
+      <x:c r="C228" s="2" t="str">
         <x:v>The media through which teachers provide instruction to students and students and teachers communicate about instructional matters.</x:v>
       </x:c>
     </x:row>
-    <x:row r="228">
-      <x:c r="A228" s="2" t="str">
+    <x:row r="229">
+      <x:c r="A229" s="2" t="str">
         <x:v>MeetingDayType</x:v>
       </x:c>
-      <x:c r="B228" s="2" t="str">
+      <x:c r="B229" s="2" t="str">
         <x:v>Monday
 Tuesday
 Wednesday
@@ -53027,15 +53040,15 @@
 Sunday
 </x:v>
       </x:c>
-      <x:c r="C228" s="2" t="str">
+      <x:c r="C229" s="2" t="str">
         <x:v>The enumeration items for the day(s) of the week (e.g., Monday, Wednesday) that the class meets or an indication that a class meets "out-of-school" or "self-paced".</x:v>
       </x:c>
     </x:row>
-    <x:row r="229">
-      <x:c r="A229" s="2" t="str">
+    <x:row r="230">
+      <x:c r="A230" s="2" t="str">
         <x:v>MethodCreditEarnedType</x:v>
       </x:c>
-      <x:c r="B229" s="2" t="str">
+      <x:c r="B230" s="2" t="str">
         <x:v>Classroom credit
 Converted occupational experience credit
 Correspondence credit
@@ -53046,92 +53059,78 @@
 Transfer credit
 </x:v>
       </x:c>
-      <x:c r="C229" s="2" t="str">
+      <x:c r="C230" s="2" t="str">
         <x:v>The method the credits were earned, for example:  Classroom, Examination, Transfer.</x:v>
       </x:c>
     </x:row>
-    <x:row r="230">
-      <x:c r="A230" s="2" t="str">
+    <x:row r="231">
+      <x:c r="A231" s="2" t="str">
         <x:v>MiddleName</x:v>
       </x:c>
-      <x:c r="B230" s="2" t="str">
+      <x:c r="B231" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C230" s="2" t="str">
+      <x:c r="C231" s="2" t="str">
         <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
       </x:c>
     </x:row>
-    <x:row r="231">
-      <x:c r="A231" s="2" t="str">
+    <x:row r="232">
+      <x:c r="A232" s="2" t="str">
         <x:v>NameOfCounty</x:v>
       </x:c>
-      <x:c r="B231" s="2" t="str">
+      <x:c r="B232" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C231" s="2" t="str">
+      <x:c r="C232" s="2" t="str">
         <x:v>The name of the county, parish, borough, or comparable unit (within a state) in which an address is located.</x:v>
       </x:c>
     </x:row>
-    <x:row r="232">
-      <x:c r="A232" s="2" t="str">
+    <x:row r="233">
+      <x:c r="A233" s="2" t="str">
         <x:v>NameOfInstitution</x:v>
       </x:c>
-      <x:c r="B232" s="2" t="str">
+      <x:c r="B233" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C232" s="2" t="str">
+      <x:c r="C233" s="2" t="str">
         <x:v>The full, legally accepted name of the institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="233">
-      <x:c r="A233" s="2" t="str">
+    <x:row r="234">
+      <x:c r="A234" s="2" t="str">
         <x:v>NetworkPurposeType</x:v>
       </x:c>
-      <x:c r="B233" s="2" t="str">
+      <x:c r="B234" s="2" t="str">
         <x:v>Shared Services
 Collective Procurement
 </x:v>
       </x:c>
-      <x:c r="C233" s="2" t="str">
+      <x:c r="C234" s="2" t="str">
         <x:v>The purpose(s) of the network, e.g. shared services, collective procurement, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="234">
-      <x:c r="A234" s="2" t="str">
+    <x:row r="235">
+      <x:c r="A235" s="2" t="str">
         <x:v>Nomenclature</x:v>
       </x:c>
-      <x:c r="B234" s="2" t="str">
+      <x:c r="B235" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C234" s="2" t="str">
+      <x:c r="C235" s="2" t="str">
         <x:v>Reflects the common nomenclature for an element.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="235">
-      <x:c r="A235" s="2" t="str">
-        <x:v>NumberOfDaysAbsent</x:v>
-      </x:c>
-      <x:c r="B235" s="2" t="str">
-        <x:v>minInclusive: 0
-totalDigits: 18
-fractionDigits: 4
-</x:v>
-      </x:c>
-      <x:c r="C235" s="2" t="str">
-        <x:v>The number of days an individual is absent when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" s="2" t="str">
-        <x:v>NumberOfDaysInAttendance</x:v>
+        <x:v>NumberOfDaysAbsent</x:v>
       </x:c>
       <x:c r="B236" s="2" t="str">
         <x:v>minInclusive: 0
@@ -53140,78 +53139,92 @@
 </x:v>
       </x:c>
       <x:c r="C236" s="2" t="str">
-        <x:v>The number of days an individual is present when school is in session during a given reporting period.</x:v>
+        <x:v>The number of days an individual is absent when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" s="2" t="str">
-        <x:v>NumberOfDaysTardy</x:v>
+        <x:v>NumberOfDaysInAttendance</x:v>
       </x:c>
       <x:c r="B237" s="2" t="str">
         <x:v>minInclusive: 0
+totalDigits: 18
+fractionDigits: 4
 </x:v>
       </x:c>
       <x:c r="C237" s="2" t="str">
-        <x:v>The number of days an individual is tardy during a given reporting period.</x:v>
+        <x:v>The number of days an individual is present when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="238">
       <x:c r="A238" s="2" t="str">
+        <x:v>NumberOfDaysTardy</x:v>
+      </x:c>
+      <x:c r="B238" s="2" t="str">
+        <x:v>minInclusive: 0
+</x:v>
+      </x:c>
+      <x:c r="C238" s="2" t="str">
+        <x:v>The number of days an individual is tardy during a given reporting period.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239">
+      <x:c r="A239" s="2" t="str">
         <x:v>NumberOfParts</x:v>
       </x:c>
-      <x:c r="B238" s="2" t="str">
+      <x:c r="B239" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C238" s="2" t="str">
+      <x:c r="C239" s="2" t="str">
         <x:v>The number of parts identified for a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="239">
-      <x:c r="A239" s="2" t="str">
+    <x:row r="240">
+      <x:c r="A240" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
-      <x:c r="B239" s="2" t="str">
+      <x:c r="B240" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C239" s="2" t="str">
+      <x:c r="C240" s="2" t="str">
         <x:v>The number of years expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="240">
-      <x:c r="A240" s="2" t="str">
+    <x:row r="241">
+      <x:c r="A241" s="2" t="str">
         <x:v>NumericGrade</x:v>
       </x:c>
-      <x:c r="B240" s="2" t="str">
+      <x:c r="B241" s="2" t="str">
         <x:v>totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C240" s="2" t="str">
+      <x:c r="C241" s="2" t="str">
         <x:v>The numeric grade expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="241">
-      <x:c r="A241" s="2" t="str">
+    <x:row r="242">
+      <x:c r="A242" s="2" t="str">
         <x:v>Objective</x:v>
       </x:c>
-      <x:c r="B241" s="2" t="str">
+      <x:c r="B242" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C241" s="2" t="str">
+      <x:c r="C242" s="2" t="str">
         <x:v>The designated title of the learning objective.</x:v>
       </x:c>
     </x:row>
-    <x:row r="242">
-      <x:c r="A242" s="2" t="str">
+    <x:row r="243">
+      <x:c r="A243" s="2" t="str">
         <x:v>OldEthnicityType</x:v>
       </x:c>
-      <x:c r="B242" s="2" t="str">
+      <x:c r="B243" s="2" t="str">
         <x:v>American Indian Or Alaskan Native
 Asian Or Pacific Islander
 Black, Not Of Hispanic Origin
@@ -53219,15 +53232,15 @@
 White, Not Of Hispanic Origin
 </x:v>
       </x:c>
-      <x:c r="C242" s="2" t="str">
+      <x:c r="C243" s="2" t="str">
         <x:v>Previous definition of Ethnicity combining Hispanic/Latino and Race.</x:v>
       </x:c>
     </x:row>
-    <x:row r="243">
-      <x:c r="A243" s="2" t="str">
+    <x:row r="244">
+      <x:c r="A244" s="2" t="str">
         <x:v>OperationalStatusType</x:v>
       </x:c>
-      <x:c r="B243" s="2" t="str">
+      <x:c r="B244" s="2" t="str">
         <x:v>Active
 Added
 Changed Agency
@@ -53239,45 +53252,45 @@
 Reopened
 </x:v>
       </x:c>
-      <x:c r="C243" s="2" t="str">
+      <x:c r="C244" s="2" t="str">
         <x:v>The current operational status of the education organization (e.g., active, inactive).</x:v>
       </x:c>
     </x:row>
-    <x:row r="244">
-      <x:c r="A244" s="2" t="str">
+    <x:row r="245">
+      <x:c r="A245" s="2" t="str">
         <x:v>OtherNameType</x:v>
       </x:c>
-      <x:c r="B244" s="2" t="str">
+      <x:c r="B245" s="2" t="str">
         <x:v>Alias
 Nickname
 Other Name
 Previous Legal Name
 </x:v>
       </x:c>
-      <x:c r="C244" s="2" t="str">
+      <x:c r="C245" s="2" t="str">
         <x:v>The types of alternate names for a person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="245">
-      <x:c r="A245" s="2" t="str">
+    <x:row r="246">
+      <x:c r="A246" s="2" t="str">
         <x:v>Percent</x:v>
       </x:c>
-      <x:c r="B245" s="2" t="str">
+      <x:c r="B246" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 1
 totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C245" s="2" t="str">
+      <x:c r="C246" s="2" t="str">
         <x:v>A proportion in relation to the whole (as measured in parts per one hundred).</x:v>
       </x:c>
     </x:row>
-    <x:row r="246">
-      <x:c r="A246" s="2" t="str">
+    <x:row r="247">
+      <x:c r="A247" s="2" t="str">
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
-      <x:c r="B246" s="2" t="str">
+      <x:c r="B247" s="2" t="str">
         <x:v>Advanced
 Proficient
 Basic
@@ -53287,15 +53300,15 @@
 Fail
 </x:v>
       </x:c>
-      <x:c r="C246" s="2" t="str">
+      <x:c r="C247" s="2" t="str">
         <x:v>Defines standard levels of competency or performance that can be used for dashboard visualizations: advanced, proficient, basic, and below basic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="247">
-      <x:c r="A247" s="2" t="str">
+    <x:row r="248">
+      <x:c r="A248" s="2" t="str">
         <x:v>PersonalInformationVerificationType</x:v>
       </x:c>
-      <x:c r="B247" s="2" t="str">
+      <x:c r="B248" s="2" t="str">
         <x:v>Baptismal or church certificate
 Birth certificate
 Drivers license
@@ -53313,28 +53326,28 @@
 State-issued ID
 </x:v>
       </x:c>
-      <x:c r="C247" s="2" t="str">
+      <x:c r="C248" s="2" t="str">
         <x:v>The evidence presented to verify one's personal identity; for example: driver's license, passport, birth certificate, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="248">
-      <x:c r="A248" s="2" t="str">
+    <x:row r="249">
+      <x:c r="A249" s="2" t="str">
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
-      <x:c r="B248" s="2" t="str">
+      <x:c r="B249" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C248" s="2" t="str">
+      <x:c r="C249" s="2" t="str">
         <x:v>A prefix used to denote the title, degree, position, or seniority of the person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="249">
-      <x:c r="A249" s="2" t="str">
+    <x:row r="250">
+      <x:c r="A250" s="2" t="str">
         <x:v>PopulationServedType</x:v>
       </x:c>
-      <x:c r="B249" s="2" t="str">
+      <x:c r="B250" s="2" t="str">
         <x:v>Regular Students
 Bilingual Students
 Compensatory/Remedial Education Students
@@ -53348,54 +53361,54 @@
 Economic Disadvantaged
 </x:v>
       </x:c>
-      <x:c r="C249" s="2" t="str">
+      <x:c r="C250" s="2" t="str">
         <x:v>The type of students the Section is offered and tailored to.</x:v>
       </x:c>
     </x:row>
-    <x:row r="250">
-      <x:c r="A250" s="2" t="str">
+    <x:row r="251">
+      <x:c r="A251" s="2" t="str">
         <x:v>PositionTitle</x:v>
       </x:c>
-      <x:c r="B250" s="2" t="str">
+      <x:c r="B251" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 100
 </x:v>
       </x:c>
-      <x:c r="C250" s="2" t="str">
+      <x:c r="C251" s="2" t="str">
         <x:v>The descriptive name of an individual's position.</x:v>
       </x:c>
     </x:row>
-    <x:row r="251">
-      <x:c r="A251" s="2" t="str">
+    <x:row r="252">
+      <x:c r="A252" s="2" t="str">
         <x:v>PostalCode</x:v>
       </x:c>
-      <x:c r="B251" s="2" t="str">
+      <x:c r="B252" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 17
 </x:v>
       </x:c>
-      <x:c r="C251" s="2" t="str">
+      <x:c r="C252" s="2" t="str">
         <x:v>The five or nine digit zip code or overseas postal code portion of an address.</x:v>
       </x:c>
     </x:row>
-    <x:row r="252">
-      <x:c r="A252" s="2" t="str">
+    <x:row r="253">
+      <x:c r="A253" s="2" t="str">
         <x:v>PostingResultType</x:v>
       </x:c>
-      <x:c r="B252" s="2" t="str">
+      <x:c r="B253" s="2" t="str">
         <x:v>Position Filled
 Posting Cancelled
 </x:v>
       </x:c>
-      <x:c r="C252" s="2" t="str">
+      <x:c r="C253" s="2" t="str">
         <x:v>Indication of whether the position was filled or retired without filling.</x:v>
       </x:c>
     </x:row>
-    <x:row r="253">
-      <x:c r="A253" s="2" t="str">
+    <x:row r="254">
+      <x:c r="A254" s="2" t="str">
         <x:v>PostSecondaryEventCategoryType</x:v>
       </x:c>
-      <x:c r="B253" s="2" t="str">
+      <x:c r="B254" s="2" t="str">
         <x:v>Certification Received
 College Application
 College Acceptance
@@ -53409,55 +53422,55 @@
 College Exit Date
 </x:v>
       </x:c>
-      <x:c r="C253" s="2" t="str">
+      <x:c r="C254" s="2" t="str">
         <x:v>A code describing the type of post-secondary event (e.g., college application or acceptance).</x:v>
       </x:c>
     </x:row>
-    <x:row r="254">
-      <x:c r="A254" s="2" t="str">
+    <x:row r="255">
+      <x:c r="A255" s="2" t="str">
         <x:v>PostSecondaryInstitutionId</x:v>
       </x:c>
-      <x:c r="B254" s="2" t="str">
+      <x:c r="B255" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C254" s="2" t="str">
+      <x:c r="C255" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to the postsecondary organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="255">
-      <x:c r="A255" s="2" t="str">
+    <x:row r="256">
+      <x:c r="A256" s="2" t="str">
         <x:v>PostSecondaryInstitutionLevelType</x:v>
       </x:c>
-      <x:c r="B255" s="2" t="str">
+      <x:c r="B256" s="2" t="str">
         <x:v>Four or more years
 At least 2 but less than 4 years
 Less than 2 years (below associate)
 </x:v>
       </x:c>
-      <x:c r="C255" s="2" t="str">
+      <x:c r="C256" s="2" t="str">
         <x:v>A classification of whether a post-secondary institution's highest level of offering is a program of 4 years or higher (4 year), 2 but less than 4 years (2 year) or less than 2 years.</x:v>
       </x:c>
     </x:row>
-    <x:row r="256">
-      <x:c r="A256" s="2" t="str">
+    <x:row r="257">
+      <x:c r="A257" s="2" t="str">
         <x:v>ProfileThumbnail</x:v>
       </x:c>
-      <x:c r="B256" s="2" t="str">
+      <x:c r="B257" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 59
 </x:v>
       </x:c>
-      <x:c r="C256" s="2" t="str">
+      <x:c r="C257" s="2" t="str">
         <x:v>ProfileThumbnail.</x:v>
       </x:c>
     </x:row>
-    <x:row r="257">
-      <x:c r="A257" s="2" t="str">
+    <x:row r="258">
+      <x:c r="A258" s="2" t="str">
         <x:v>ProgramAssignmentMapType</x:v>
       </x:c>
-      <x:c r="B257" s="2" t="str">
+      <x:c r="B258" s="2" t="str">
         <x:v>Regular Education
 Title I-Academic
 Title I-Non-Academic
@@ -53466,53 +53479,53 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C257" s="2" t="str">
+      <x:c r="C258" s="2" t="str">
         <x:v>The name of the education program for which a teacher is assigned to a school.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258">
-      <x:c r="A258" s="2" t="str">
-        <x:v>ProgramCharacteristicMapType</x:v>
-      </x:c>
-      <x:c r="B258" s="2" t="str">
-        <x:v>A McKinney-Vento Program for Homelessness
-</x:v>
-      </x:c>
-      <x:c r="C258" s="2" t="str">
-        <x:v>Reflects important characteristics of the Program, such as categories or particular indications.</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" s="2" t="str">
+        <x:v>ProgramCharacteristicMapType</x:v>
+      </x:c>
+      <x:c r="B259" s="2" t="str">
+        <x:v>A McKinney-Vento Program for Homelessness
+</x:v>
+      </x:c>
+      <x:c r="C259" s="2" t="str">
+        <x:v>Reflects important characteristics of the Program, such as categories or particular indications.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260">
+      <x:c r="A260" s="2" t="str">
         <x:v>ProgramId</x:v>
       </x:c>
-      <x:c r="B259" s="2" t="str">
+      <x:c r="B260" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C259" s="2" t="str">
+      <x:c r="C260" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a program by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="260">
-      <x:c r="A260" s="2" t="str">
+    <x:row r="261">
+      <x:c r="A261" s="2" t="str">
         <x:v>ProgramName</x:v>
       </x:c>
-      <x:c r="B260" s="2" t="str">
+      <x:c r="B261" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C260" s="2" t="str">
+      <x:c r="C261" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="261">
-      <x:c r="A261" s="2" t="str">
+    <x:row r="262">
+      <x:c r="A262" s="2" t="str">
         <x:v>ProgramSponsorType</x:v>
       </x:c>
-      <x:c r="B261" s="2" t="str">
+      <x:c r="B262" s="2" t="str">
         <x:v>Business
 Federal government
 State Education Agency
@@ -53527,15 +53540,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C261" s="2" t="str">
+      <x:c r="C262" s="2" t="str">
         <x:v>Ultimate and intermediate providers of funds for a particular educational or service program or activity or for an individual's participation in the program or activity (e.g., Federal, State, ESC, District, School, Private Org).</x:v>
       </x:c>
     </x:row>
-    <x:row r="262">
-      <x:c r="A262" s="2" t="str">
+    <x:row r="263">
+      <x:c r="A263" s="2" t="str">
         <x:v>ProgramType</x:v>
       </x:c>
-      <x:c r="B262" s="2" t="str">
+      <x:c r="B263" s="2" t="str">
         <x:v>Adult/Continuing Education
 Alternative Education
 Athletics
@@ -53596,15 +53609,15 @@
 Vocational Education
 </x:v>
       </x:c>
-      <x:c r="C262" s="2" t="str">
+      <x:c r="C263" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="263">
-      <x:c r="A263" s="2" t="str">
+    <x:row r="264">
+      <x:c r="A264" s="2" t="str">
         <x:v>PublicationStatusType</x:v>
       </x:c>
-      <x:c r="B263" s="2" t="str">
+      <x:c r="B264" s="2" t="str">
         <x:v>Adopted
 Draft
 Published
@@ -53612,28 +53625,28 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C263" s="2" t="str">
+      <x:c r="C264" s="2" t="str">
         <x:v>The publication status of the document (i.e., Adopted, Draft, Published, Deprecated, Unknown).</x:v>
       </x:c>
     </x:row>
-    <x:row r="264">
-      <x:c r="A264" s="2" t="str">
+    <x:row r="265">
+      <x:c r="A265" s="2" t="str">
         <x:v>Publisher</x:v>
       </x:c>
-      <x:c r="B264" s="2" t="str">
+      <x:c r="B265" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C264" s="2" t="str">
+      <x:c r="C265" s="2" t="str">
         <x:v>The organization credited with publishing the resource.</x:v>
       </x:c>
     </x:row>
-    <x:row r="265">
-      <x:c r="A265" s="2" t="str">
+    <x:row r="266">
+      <x:c r="A266" s="2" t="str">
         <x:v>RaceType</x:v>
       </x:c>
-      <x:c r="B265" s="2" t="str">
+      <x:c r="B266" s="2" t="str">
         <x:v>American Indian - Alaskan Native
 Asian
 Black - African American
@@ -53643,26 +53656,13 @@
 White
 </x:v>
       </x:c>
-      <x:c r="C265" s="2" t="str">
+      <x:c r="C266" s="2" t="str">
         <x:v>The enumeration items defining the racial categories which most clearly reflects the individual's recognition of his or her community or with which the individual most identifies.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="266">
-      <x:c r="A266" s="2" t="str">
-        <x:v>Rating</x:v>
-      </x:c>
-      <x:c r="B266" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 35
-</x:v>
-      </x:c>
-      <x:c r="C266" s="2" t="str">
-        <x:v>An accountability rating level, designation, or assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
       <x:c r="A267" s="2" t="str">
-        <x:v>RatingOrganization</x:v>
+        <x:v>Rating</x:v>
       </x:c>
       <x:c r="B267" s="2" t="str">
         <x:v>minLength: 1
@@ -53670,40 +53670,53 @@
 </x:v>
       </x:c>
       <x:c r="C267" s="2" t="str">
-        <x:v>The organization assigning the accountability rating.</x:v>
+        <x:v>An accountability rating level, designation, or assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="268">
       <x:c r="A268" s="2" t="str">
-        <x:v>RatingProgram</x:v>
+        <x:v>RatingOrganization</x:v>
       </x:c>
       <x:c r="B268" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 30
+maxLength: 35
 </x:v>
       </x:c>
       <x:c r="C268" s="2" t="str">
-        <x:v>The rating program (e.g., NCLB).</x:v>
+        <x:v>The organization assigning the accountability rating.</x:v>
       </x:c>
     </x:row>
     <x:row r="269">
       <x:c r="A269" s="2" t="str">
-        <x:v>RatingTitleType</x:v>
+        <x:v>RatingProgram</x:v>
       </x:c>
       <x:c r="B269" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 60
+maxLength: 30
 </x:v>
       </x:c>
       <x:c r="C269" s="2" t="str">
-        <x:v>The title of the rating (e.g., School Rating, Safety Score).</x:v>
+        <x:v>The rating program (e.g., NCLB).</x:v>
       </x:c>
     </x:row>
     <x:row r="270">
       <x:c r="A270" s="2" t="str">
+        <x:v>RatingTitleType</x:v>
+      </x:c>
+      <x:c r="B270" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 60
+</x:v>
+      </x:c>
+      <x:c r="C270" s="2" t="str">
+        <x:v>The title of the rating (e.g., School Rating, Safety Score).</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271">
+      <x:c r="A271" s="2" t="str">
         <x:v>ReasonExitedMapType</x:v>
       </x:c>
-      <x:c r="B270" s="2" t="str">
+      <x:c r="B271" s="2" t="str">
         <x:v>Died or is permanently incapacitated
 Reached maximum age
 Discontinued schooling
@@ -53717,15 +53730,15 @@
 Unknown reason
 </x:v>
       </x:c>
-      <x:c r="C270" s="2" t="str">
+      <x:c r="C271" s="2" t="str">
         <x:v>The reason the child left the program within a school or district.</x:v>
       </x:c>
     </x:row>
-    <x:row r="271">
-      <x:c r="A271" s="2" t="str">
+    <x:row r="272">
+      <x:c r="A272" s="2" t="str">
         <x:v>ReasonNotTestedType</x:v>
       </x:c>
-      <x:c r="B271" s="2" t="str">
+      <x:c r="B272" s="2" t="str">
         <x:v>Absent
 LEP exempt
 LEP postponement
@@ -53742,7 +53755,7 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C271" s="2" t="str">
+      <x:c r="C272" s="2" t="str">
         <x:v>The primary reason student is not tested. For example:
     Absent
     Refusal by parent
@@ -53754,24 +53767,24 @@
     '...</x:v>
       </x:c>
     </x:row>
-    <x:row r="272">
-      <x:c r="A272" s="2" t="str">
+    <x:row r="273">
+      <x:c r="A273" s="2" t="str">
         <x:v>RecognitionDescription</x:v>
       </x:c>
-      <x:c r="B272" s="2" t="str">
+      <x:c r="B273" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C272" s="2" t="str">
+      <x:c r="C273" s="2" t="str">
         <x:v>The description of recognition given to the student for accomplishments in a co-curricular or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="273">
-      <x:c r="A273" s="2" t="str">
+    <x:row r="274">
+      <x:c r="A274" s="2" t="str">
         <x:v>RecognitionType</x:v>
       </x:c>
-      <x:c r="B273" s="2" t="str">
+      <x:c r="B274" s="2" t="str">
         <x:v>Athletic awards
 Awarding of units of value
 Citizenship award/recognition
@@ -53786,15 +53799,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C273" s="2" t="str">
+      <x:c r="C274" s="2" t="str">
         <x:v>The nature of recognition given to the student for accomplishments in a co-curricular, or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="274">
-      <x:c r="A274" s="2" t="str">
+    <x:row r="275">
+      <x:c r="A275" s="2" t="str">
         <x:v>RelationType</x:v>
       </x:c>
-      <x:c r="B274" s="2" t="str">
+      <x:c r="B275" s="2" t="str">
         <x:v>Aunt
 Brother
 BrotherInLaw
@@ -53834,15 +53847,15 @@
 Wife
 </x:v>
       </x:c>
-      <x:c r="C274" s="2" t="str">
+      <x:c r="C275" s="2" t="str">
         <x:v>The nature of an individual's relationship to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="275">
-      <x:c r="A275" s="2" t="str">
+    <x:row r="276">
+      <x:c r="A276" s="2" t="str">
         <x:v>RepeatIdentifierType</x:v>
       </x:c>
-      <x:c r="B275" s="2" t="str">
+      <x:c r="B276" s="2" t="str">
         <x:v>Repeated, counted in grade point average
 Repeated, not counted in grade point average
 Replacement counted
@@ -53853,15 +53866,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C275" s="2" t="str">
+      <x:c r="C276" s="2" t="str">
         <x:v>An indication as to whether a student has previously taken a given course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="276">
-      <x:c r="A276" s="2" t="str">
+    <x:row r="277">
+      <x:c r="A277" s="2" t="str">
         <x:v>ReporterDescriptionMapType</x:v>
       </x:c>
-      <x:c r="B276" s="2" t="str">
+      <x:c r="B277" s="2" t="str">
         <x:v>Parent/guardian
 Staff
 Student
@@ -53870,41 +53883,41 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C276" s="2" t="str">
+      <x:c r="C277" s="2" t="str">
         <x:v>Information on the type of individual who reported the incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="277">
-      <x:c r="A277" s="2" t="str">
+    <x:row r="278">
+      <x:c r="A278" s="2" t="str">
         <x:v>ReporterName</x:v>
       </x:c>
-      <x:c r="B277" s="2" t="str">
+      <x:c r="B278" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C277" s="2" t="str">
+      <x:c r="C278" s="2" t="str">
         <x:v>Identifies the reporter of the incident by name.</x:v>
       </x:c>
     </x:row>
-    <x:row r="278">
-      <x:c r="A278" s="2" t="str">
+    <x:row r="279">
+      <x:c r="A279" s="2" t="str">
         <x:v>RequisitionNumber</x:v>
       </x:c>
-      <x:c r="B278" s="2" t="str">
+      <x:c r="B279" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C278" s="2" t="str">
+      <x:c r="C279" s="2" t="str">
         <x:v>The number or identifier assigned to an open staff position, typically a requisition number assigned by Human Resources.</x:v>
       </x:c>
     </x:row>
-    <x:row r="279">
-      <x:c r="A279" s="2" t="str">
+    <x:row r="280">
+      <x:c r="A280" s="2" t="str">
         <x:v>ResidencyStatusMapType</x:v>
       </x:c>
-      <x:c r="B279" s="2" t="str">
+      <x:c r="B280" s="2" t="str">
         <x:v>Resident of administrative unit and usual school attendance area
 Resident of administrative unit, but of other school attendance area
 Resident of this state, but not of this administrative unit
@@ -53912,22 +53925,22 @@
 Resident of another state
 </x:v>
       </x:c>
-      <x:c r="C279" s="2" t="str">
+      <x:c r="C280" s="2" t="str">
         <x:v>An indication of the location of a persons legal residence relative to (within or outside of) the boundaries of the public school attended and its administrative unit.</x:v>
       </x:c>
     </x:row>
-    <x:row r="280">
-      <x:c r="A280" s="2" t="str">
+    <x:row r="281">
+      <x:c r="A281" s="2" t="str">
         <x:v>ResponseIndicatorType</x:v>
       </x:c>
-      <x:c r="B280" s="2" t="str">
+      <x:c r="B281" s="2" t="str">
         <x:v>Nonscorable response
 Ineffective response
 Effective response
 Partial response
 </x:v>
       </x:c>
-      <x:c r="C280" s="2" t="str">
+      <x:c r="C281" s="2" t="str">
         <x:v>Indicator of the response.  For example:
     Nonscorable response
     Ineffective response
@@ -53936,11 +53949,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="281">
-      <x:c r="A281" s="2" t="str">
+    <x:row r="282">
+      <x:c r="A282" s="2" t="str">
         <x:v>ResponsibilityMapType</x:v>
       </x:c>
-      <x:c r="B281" s="2" t="str">
+      <x:c r="B282" s="2" t="str">
         <x:v>Accountability
 Attendance
 Discipline
@@ -53950,55 +53963,55 @@
 Transportation
 </x:v>
       </x:c>
-      <x:c r="C281" s="2" t="str">
+      <x:c r="C282" s="2" t="str">
         <x:v>Indications of an education organization's responsibility for a student, such as accountability, attendance, funding, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="282">
-      <x:c r="A282" s="2" t="str">
+    <x:row r="283">
+      <x:c r="A283" s="2" t="str">
         <x:v>RestraintEventIdentifier</x:v>
       </x:c>
-      <x:c r="B282" s="2" t="str">
+      <x:c r="B283" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C282" s="2" t="str">
+      <x:c r="C283" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a restraint event by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="283">
-      <x:c r="A283" s="2" t="str">
+    <x:row r="284">
+      <x:c r="A284" s="2" t="str">
         <x:v>RestraintEventReasonType</x:v>
       </x:c>
-      <x:c r="B283" s="2" t="str">
+      <x:c r="B284" s="2" t="str">
         <x:v>Imminent Serious Physical Harm To Themselves
 Imminent Serious Physical Harm To Others
 Imminent Serious Property Destruction
 </x:v>
       </x:c>
-      <x:c r="C283" s="2" t="str">
+      <x:c r="C284" s="2" t="str">
         <x:v>The items of categorization of the circumstances or reason for the restraint.</x:v>
       </x:c>
     </x:row>
-    <x:row r="284">
-      <x:c r="A284" s="2" t="str">
+    <x:row r="285">
+      <x:c r="A285" s="2" t="str">
         <x:v>Result</x:v>
       </x:c>
-      <x:c r="B284" s="2" t="str">
+      <x:c r="B285" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C284" s="2" t="str">
+      <x:c r="C285" s="2" t="str">
         <x:v>A meaningful raw score or statistical expression of the performance of an individual. The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="285">
-      <x:c r="A285" s="2" t="str">
+    <x:row r="286">
+      <x:c r="A286" s="2" t="str">
         <x:v>ResultDatatypeType</x:v>
       </x:c>
-      <x:c r="B285" s="2" t="str">
+      <x:c r="B286" s="2" t="str">
         <x:v>Integer
 Decimal
 Percentage
@@ -54007,22 +54020,22 @@
 Level
 </x:v>
       </x:c>
-      <x:c r="C285" s="2" t="str">
+      <x:c r="C286" s="2" t="str">
         <x:v>The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="286">
-      <x:c r="A286" s="2" t="str">
+    <x:row r="287">
+      <x:c r="A287" s="2" t="str">
         <x:v>RetestIndicatorType</x:v>
       </x:c>
-      <x:c r="B286" s="2" t="str">
+      <x:c r="B287" s="2" t="str">
         <x:v>Primary Administration
 1st Retest
 2nd Retest
 3nd or more Retest
 </x:v>
       </x:c>
-      <x:c r="C286" s="2" t="str">
+      <x:c r="C287" s="2" t="str">
         <x:v>Indicator if the test was retaken.  For example:
     Primary administration
     First retest
@@ -54030,11 +54043,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="287">
-      <x:c r="A287" s="2" t="str">
+    <x:row r="288">
+      <x:c r="A288" s="2" t="str">
         <x:v>SchoolCategoryType</x:v>
       </x:c>
-      <x:c r="B287" s="2" t="str">
+      <x:c r="B288" s="2" t="str">
         <x:v>All Levels
 Adult School
 Elementary/Secondary School
@@ -54056,60 +54069,60 @@
 Workforce
 </x:v>
       </x:c>
-      <x:c r="C287" s="2" t="str">
+      <x:c r="C288" s="2" t="str">
         <x:v>The category of school. For example: High School, Middle School, Elementary School.</x:v>
       </x:c>
     </x:row>
-    <x:row r="288">
-      <x:c r="A288" s="2" t="str">
+    <x:row r="289">
+      <x:c r="A289" s="2" t="str">
         <x:v>SchoolChoiceImplementStatusType</x:v>
       </x:c>
-      <x:c r="B288" s="2" t="str">
+      <x:c r="B289" s="2" t="str">
         <x:v>Implemented at all grade levels
 Implemented at some but not all grade levels
 Unable to implement at any grades levels
 Not required to implement public school choice
 </x:v>
       </x:c>
-      <x:c r="C288" s="2" t="str">
+      <x:c r="C289" s="2" t="str">
         <x:v>An indication of whether the LEA was able to implement the provisions for public school choice under Title I, Part A, Section 1116 of ESEA, as amended.</x:v>
       </x:c>
     </x:row>
-    <x:row r="289">
-      <x:c r="A289" s="2" t="str">
+    <x:row r="290">
+      <x:c r="A290" s="2" t="str">
         <x:v>SchoolFoodServicesEligibilityMapType</x:v>
       </x:c>
-      <x:c r="B289" s="2" t="str">
+      <x:c r="B290" s="2" t="str">
         <x:v>Free
 Full price
 Reduced price
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C289" s="2" t="str">
+      <x:c r="C290" s="2" t="str">
         <x:v>An indication of a student's level of eligibility for breakfast, lunch, snack, supper, and milk programs.</x:v>
       </x:c>
     </x:row>
-    <x:row r="290">
-      <x:c r="A290" s="2" t="str">
+    <x:row r="291">
+      <x:c r="A291" s="2" t="str">
         <x:v>SchoolType</x:v>
       </x:c>
-      <x:c r="B290" s="2" t="str">
+      <x:c r="B291" s="2" t="str">
         <x:v>Alternative
 Regular
 Special Education
 Career and Technical Education
 </x:v>
       </x:c>
-      <x:c r="C290" s="2" t="str">
+      <x:c r="C291" s="2" t="str">
         <x:v>The type of education institution as classified by its primary focus.</x:v>
       </x:c>
     </x:row>
-    <x:row r="291">
-      <x:c r="A291" s="2" t="str">
+    <x:row r="292">
+      <x:c r="A292" s="2" t="str">
         <x:v>SchoolYearType</x:v>
       </x:c>
-      <x:c r="B291" s="2" t="str">
+      <x:c r="B292" s="2" t="str">
         <x:v>1990-1991
 1991-1992
 1992-1993
@@ -54152,28 +54165,28 @@
 2029-2030
 </x:v>
       </x:c>
-      <x:c r="C291" s="2" t="str">
+      <x:c r="C292" s="2" t="str">
         <x:v>Identifier for a school year.</x:v>
       </x:c>
     </x:row>
-    <x:row r="292">
-      <x:c r="A292" s="2" t="str">
+    <x:row r="293">
+      <x:c r="A293" s="2" t="str">
         <x:v>SectionCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B292" s="2" t="str">
+      <x:c r="B293" s="2" t="str">
         <x:v>Attendance Tracked
 Graded Credit Available
 </x:v>
       </x:c>
-      <x:c r="C292" s="2" t="str">
+      <x:c r="C293" s="2" t="str">
         <x:v>Enumeration items for Section Characteristic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="293">
-      <x:c r="A293" s="2" t="str">
+    <x:row r="294">
+      <x:c r="A294" s="2" t="str">
         <x:v>SeparationReasonMapType</x:v>
       </x:c>
-      <x:c r="B293" s="2" t="str">
+      <x:c r="B294" s="2" t="str">
         <x:v>Employment elsewhere
 Retirement
 Family/personal relocation
@@ -54187,83 +54200,83 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C293" s="2" t="str">
+      <x:c r="C294" s="2" t="str">
         <x:v>Reason for terminating the employment; for example:  Employment in education, Employment outside of education, Retirement, Family/personal relocation, Change of assignment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="294">
-      <x:c r="A294" s="2" t="str">
+    <x:row r="295">
+      <x:c r="A295" s="2" t="str">
         <x:v>SeparationType</x:v>
       </x:c>
-      <x:c r="B294" s="2" t="str">
+      <x:c r="B295" s="2" t="str">
         <x:v>Voluntary separation
 Involuntary separation
 Mutual agreement
 Other
 </x:v>
       </x:c>
-      <x:c r="C294" s="2" t="str">
+      <x:c r="C295" s="2" t="str">
         <x:v>Type of employment separation; for example:  Voluntary separation, Involuntary separation, Mutual agreement. Other, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="295">
-      <x:c r="A295" s="2" t="str">
+    <x:row r="296">
+      <x:c r="A296" s="2" t="str">
         <x:v>SequenceOfCourse</x:v>
       </x:c>
-      <x:c r="B295" s="2" t="str">
+      <x:c r="B296" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C295" s="2" t="str">
+      <x:c r="C296" s="2" t="str">
         <x:v>When a Section is part of a sequence of parts for a course, the number if the sequence. If the course has only one part, the value of this Section attribute should be 1.</x:v>
       </x:c>
     </x:row>
-    <x:row r="296">
-      <x:c r="A296" s="2" t="str">
+    <x:row r="297">
+      <x:c r="A297" s="2" t="str">
         <x:v>ServiceCategory</x:v>
       </x:c>
-      <x:c r="B296" s="2" t="str">
+      <x:c r="B297" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C296" s="2" t="str">
+      <x:c r="C297" s="2" t="str">
         <x:v>The category of service provided by a program.</x:v>
       </x:c>
     </x:row>
-    <x:row r="297">
-      <x:c r="A297" s="2" t="str">
+    <x:row r="298">
+      <x:c r="A298" s="2" t="str">
         <x:v>SexType</x:v>
       </x:c>
-      <x:c r="B297" s="2" t="str">
+      <x:c r="B298" s="2" t="str">
         <x:v>Female
 Male
 Not Selected
 </x:v>
       </x:c>
-      <x:c r="C297" s="2" t="str">
+      <x:c r="C298" s="2" t="str">
         <x:v>A person's gender.</x:v>
       </x:c>
     </x:row>
-    <x:row r="298">
-      <x:c r="A298" s="2" t="str">
+    <x:row r="299">
+      <x:c r="A299" s="2" t="str">
         <x:v>ShortDescription</x:v>
       </x:c>
-      <x:c r="B298" s="2" t="str">
+      <x:c r="B299" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C298" s="2" t="str">
+      <x:c r="C299" s="2" t="str">
         <x:v>A shortened description for reference.</x:v>
       </x:c>
     </x:row>
-    <x:row r="299">
-      <x:c r="A299" s="2" t="str">
+    <x:row r="300">
+      <x:c r="A300" s="2" t="str">
         <x:v>SpecialEducationSettingMapType</x:v>
       </x:c>
-      <x:c r="B299" s="2" t="str">
+      <x:c r="B300" s="2" t="str">
         <x:v>Inside regular class 80% or more of the day
 Inside regular class no more than 79% of day and no less than 40% of the day
 Inside regular class less than 40% of the day
@@ -54274,15 +54287,15 @@
 Parentally-placed in Private Schools
 </x:v>
       </x:c>
-      <x:c r="C299" s="2" t="str">
+      <x:c r="C300" s="2" t="str">
         <x:v>The major instructional setting (more than 50 percent of a student's special education program).</x:v>
       </x:c>
     </x:row>
-    <x:row r="300">
-      <x:c r="A300" s="2" t="str">
+    <x:row r="301">
+      <x:c r="A301" s="2" t="str">
         <x:v>StaffClassificationMapType</x:v>
       </x:c>
-      <x:c r="B300" s="2" t="str">
+      <x:c r="B301" s="2" t="str">
         <x:v>Assistant Principal
 Assistant Superintendent
 Counselor
@@ -54317,15 +54330,15 @@
 Mentor Teacher
 </x:v>
       </x:c>
-      <x:c r="C300" s="2" t="str">
+      <x:c r="C301" s="2" t="str">
         <x:v>An individual's title of employment, official status or rank.</x:v>
       </x:c>
     </x:row>
-    <x:row r="301">
-      <x:c r="A301" s="2" t="str">
+    <x:row r="302">
+      <x:c r="A302" s="2" t="str">
         <x:v>StaffIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B301" s="2" t="str">
+      <x:c r="B302" s="2" t="str">
         <x:v>Canadian SIN
 District
 Drivers License
@@ -54343,15 +54356,15 @@
 Other Federal
 </x:v>
       </x:c>
-      <x:c r="C301" s="2" t="str">
+      <x:c r="C302" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a staff member.</x:v>
       </x:c>
     </x:row>
-    <x:row r="302">
-      <x:c r="A302" s="2" t="str">
+    <x:row r="303">
+      <x:c r="A303" s="2" t="str">
         <x:v>StateAbbreviationType</x:v>
       </x:c>
-      <x:c r="B302" s="2" t="str">
+      <x:c r="B303" s="2" t="str">
         <x:v>AA
 AE
 AK
@@ -54416,26 +54429,13 @@
 WY
 </x:v>
       </x:c>
-      <x:c r="C302" s="2" t="str">
+      <x:c r="C303" s="2" t="str">
         <x:v>The abbreviation for the state (within the United States) or outlying area in which an address is located.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="303">
-      <x:c r="A303" s="2" t="str">
-        <x:v>Statement</x:v>
-      </x:c>
-      <x:c r="B303" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 150
-</x:v>
-      </x:c>
-      <x:c r="C303" s="2" t="str">
-        <x:v>A statement or reference describing the evidence that the learner met the criteria for attainment of the achievement.</x:v>
       </x:c>
     </x:row>
     <x:row r="304">
       <x:c r="A304" s="2" t="str">
-        <x:v>StreetNumberName</x:v>
+        <x:v>Statement</x:v>
       </x:c>
       <x:c r="B304" s="2" t="str">
         <x:v>minLength: 1
@@ -54443,14 +54443,27 @@
 </x:v>
       </x:c>
       <x:c r="C304" s="2" t="str">
-        <x:v>The street number and street name or post office box number of an address.</x:v>
+        <x:v>A statement or reference describing the evidence that the learner met the criteria for attainment of the achievement.</x:v>
       </x:c>
     </x:row>
     <x:row r="305">
       <x:c r="A305" s="2" t="str">
+        <x:v>StreetNumberName</x:v>
+      </x:c>
+      <x:c r="B305" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 150
+</x:v>
+      </x:c>
+      <x:c r="C305" s="2" t="str">
+        <x:v>The street number and street name or post office box number of an address.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306">
+      <x:c r="A306" s="2" t="str">
         <x:v>StudentCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B305" s="2" t="str">
+      <x:c r="B306" s="2" t="str">
         <x:v>Asylee
 Displaced Homemaker
 Foster Care
@@ -54468,15 +54481,15 @@
 Unaccompanied Youth
 </x:v>
       </x:c>
-      <x:c r="C305" s="2" t="str">
+      <x:c r="C306" s="2" t="str">
         <x:v>Enumeration items for the important characteristics of the student's home situation: Displaced Homemaker, Homeless, Immigrant, Migratory, Military Parent, Pregnant Teen, Single Parent, and Unaccompanied Youth.</x:v>
       </x:c>
     </x:row>
-    <x:row r="306">
-      <x:c r="A306" s="2" t="str">
+    <x:row r="307">
+      <x:c r="A307" s="2" t="str">
         <x:v>StudentIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B306" s="2" t="str">
+      <x:c r="B307" s="2" t="str">
         <x:v>Canadian SIN
 District
 Family
@@ -54490,30 +54503,30 @@
 State Migrant
 </x:v>
       </x:c>
-      <x:c r="C306" s="2" t="str">
+      <x:c r="C307" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="307">
-      <x:c r="A307" s="2" t="str">
+    <x:row r="308">
+      <x:c r="A308" s="2" t="str">
         <x:v>StudentParticipationCodeType</x:v>
       </x:c>
-      <x:c r="B307" s="2" t="str">
+      <x:c r="B308" s="2" t="str">
         <x:v>Victim
 Perpetrator
 Witness
 Reporter
 </x:v>
       </x:c>
-      <x:c r="C307" s="2" t="str">
+      <x:c r="C308" s="2" t="str">
         <x:v>The role or type of participation of a student in a discipline incident; for example: Victim, Perpetrator, Witness, Reporter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="308">
-      <x:c r="A308" s="2" t="str">
+    <x:row r="309">
+      <x:c r="A309" s="2" t="str">
         <x:v>TeachingCredentialBasisType</x:v>
       </x:c>
-      <x:c r="B308" s="2" t="str">
+      <x:c r="B309" s="2" t="str">
         <x:v>4-year bachelor's degree
 5-year bachelor's degree
 Master's degree
@@ -54524,15 +54537,15 @@
 Credentials based on reciprocation with another state
 </x:v>
       </x:c>
-      <x:c r="C308" s="2" t="str">
+      <x:c r="C309" s="2" t="str">
         <x:v>An indication of the pre-determined criteria for granting the teaching credential that an individual holds.</x:v>
       </x:c>
     </x:row>
-    <x:row r="309">
-      <x:c r="A309" s="2" t="str">
+    <x:row r="310">
+      <x:c r="A310" s="2" t="str">
         <x:v>TeachingCredentialMapType</x:v>
       </x:c>
-      <x:c r="B309" s="2" t="str">
+      <x:c r="B310" s="2" t="str">
         <x:v>Emergency
 Intern
 Master
@@ -54550,28 +54563,28 @@
 Temporary
 </x:v>
       </x:c>
-      <x:c r="C309" s="2" t="str">
+      <x:c r="C310" s="2" t="str">
         <x:v>An indication of the category of a legal document giving authorization to perform teaching assignment services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="310">
-      <x:c r="A310" s="2" t="str">
+    <x:row r="311">
+      <x:c r="A311" s="2" t="str">
         <x:v>TelephoneNumber</x:v>
       </x:c>
-      <x:c r="B310" s="2" t="str">
+      <x:c r="B311" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 24
 </x:v>
       </x:c>
-      <x:c r="C310" s="2" t="str">
+      <x:c r="C311" s="2" t="str">
         <x:v>The telephone number including the area code, and extension, if applicable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="311">
-      <x:c r="A311" s="2" t="str">
+    <x:row r="312">
+      <x:c r="A312" s="2" t="str">
         <x:v>TelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B311" s="2" t="str">
+      <x:c r="B312" s="2" t="str">
         <x:v>Fax
 Emergency 1
 Emergency 2
@@ -54582,15 +54595,15 @@
 Work
 </x:v>
       </x:c>
-      <x:c r="C311" s="2" t="str">
+      <x:c r="C312" s="2" t="str">
         <x:v>The type of communication number listed for an individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="312">
-      <x:c r="A312" s="2" t="str">
+    <x:row r="313">
+      <x:c r="A313" s="2" t="str">
         <x:v>TermMapType</x:v>
       </x:c>
-      <x:c r="B312" s="2" t="str">
+      <x:c r="B313" s="2" t="str">
         <x:v>Semester
 Trimester
 Year Round
@@ -54599,26 +54612,26 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C312" s="2" t="str">
+      <x:c r="C313" s="2" t="str">
         <x:v>The type of the session during the school year (e.g., Fall Semester).</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="313">
-      <x:c r="A313" s="2" t="str">
-        <x:v>TimeInterval</x:v>
-      </x:c>
-      <x:c r="B313" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C313" s="2" t="str">
-        <x:v>A period of time with fixed, well-defined limits.</x:v>
       </x:c>
     </x:row>
     <x:row r="314">
       <x:c r="A314" s="2" t="str">
+        <x:v>TimeInterval</x:v>
+      </x:c>
+      <x:c r="B314" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C314" s="2" t="str">
+        <x:v>A period of time with fixed, well-defined limits.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315">
+      <x:c r="A315" s="2" t="str">
         <x:v>TitleIPartAParticipantType</x:v>
       </x:c>
-      <x:c r="B314" s="2" t="str">
+      <x:c r="B315" s="2" t="str">
         <x:v>Public Targeted Assistance Program
 Public Schoolwide Program
 Private school students participating
@@ -54626,15 +54639,15 @@
 Was not served
 </x:v>
       </x:c>
-      <x:c r="C314" s="2" t="str">
+      <x:c r="C315" s="2" t="str">
         <x:v>An indication of the type of Title I program, if any, in which the student is participating and served.</x:v>
       </x:c>
     </x:row>
-    <x:row r="315">
-      <x:c r="A315" s="2" t="str">
+    <x:row r="316">
+      <x:c r="A316" s="2" t="str">
         <x:v>TitleIPartASchoolDesignationType</x:v>
       </x:c>
-      <x:c r="B315" s="2" t="str">
+      <x:c r="B316" s="2" t="str">
         <x:v>Not designated as a Title I Part A school
 Title I Part A Schoolwide Assistance Program School
 Title I Part A Targeted Assistance School
@@ -54644,77 +54657,77 @@
 Title I school wide eligible school - no program
 </x:v>
       </x:c>
-      <x:c r="C315" s="2" t="str">
+      <x:c r="C316" s="2" t="str">
         <x:v>Denotes the Title I Part A designation for the school.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="316">
-      <x:c r="A316" s="2" t="str">
-        <x:v>TotalInstructionalDays</x:v>
-      </x:c>
-      <x:c r="B316" s="2" t="str">
-        <x:v>minInclusive: 0
-</x:v>
-      </x:c>
-      <x:c r="C316" s="2" t="str">
-        <x:v>Total days available for educational instruction during the grading period.</x:v>
       </x:c>
     </x:row>
     <x:row r="317">
       <x:c r="A317" s="2" t="str">
+        <x:v>TotalInstructionalDays</x:v>
+      </x:c>
+      <x:c r="B317" s="2" t="str">
+        <x:v>minInclusive: 0
+</x:v>
+      </x:c>
+      <x:c r="C317" s="2" t="str">
+        <x:v>Total days available for educational instruction during the grading period.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318">
+      <x:c r="A318" s="2" t="str">
         <x:v>UniqueId</x:v>
       </x:c>
-      <x:c r="B317" s="2" t="str">
+      <x:c r="B318" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C317" s="2" t="str">
+      <x:c r="C318" s="2" t="str">
         <x:v>A unique alphanumeric code assigned to a person by a system managing unique identifiers.</x:v>
       </x:c>
     </x:row>
-    <x:row r="318">
-      <x:c r="A318" s="2" t="str">
+    <x:row r="319">
+      <x:c r="A319" s="2" t="str">
         <x:v>UniqueSectionCode</x:v>
       </x:c>
-      <x:c r="B318" s="2" t="str">
+      <x:c r="B319" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C318" s="2" t="str">
+      <x:c r="C319" s="2" t="str">
         <x:v>A unique identifier for the Section, that is defined by the classroom, the subjects taught, and the instructors that are assigned.</x:v>
       </x:c>
     </x:row>
-    <x:row r="319">
-      <x:c r="A319" s="2" t="str">
+    <x:row r="320">
+      <x:c r="A320" s="2" t="str">
         <x:v>URI</x:v>
       </x:c>
-      <x:c r="B319" s="2" t="str">
+      <x:c r="B320" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C319" s="2" t="str">
+      <x:c r="C320" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="320">
-      <x:c r="A320" s="2" t="str">
-        <x:v>Version</x:v>
-      </x:c>
-      <x:c r="B320" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C320" s="2" t="str">
-        <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="321">
       <x:c r="A321" s="2" t="str">
+        <x:v>Version</x:v>
+      </x:c>
+      <x:c r="B321" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C321" s="2" t="str">
+        <x:v>The version identifier for the assessment.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322">
+      <x:c r="A322" s="2" t="str">
         <x:v>VisaType</x:v>
       </x:c>
-      <x:c r="B321" s="2" t="str">
+      <x:c r="B322" s="2" t="str">
         <x:v>F1 - Foreign Student Visa
 M1 - Foreign Student pursuing vocational or non-academic studies Visa
 H1 - Employment Visa
@@ -54724,15 +54737,15 @@
 Other Visa
 </x:v>
       </x:c>
-      <x:c r="C321" s="2" t="str">
+      <x:c r="C322" s="2" t="str">
         <x:v>An indicator of a non-U.S. citizen's Visa type.</x:v>
       </x:c>
     </x:row>
-    <x:row r="322">
-      <x:c r="A322" s="2" t="str">
+    <x:row r="323">
+      <x:c r="A323" s="2" t="str">
         <x:v>WeaponMapType</x:v>
       </x:c>
-      <x:c r="B322" s="2" t="str">
+      <x:c r="B323" s="2" t="str">
         <x:v>Handgun
 Rifle/Shotgun
 Other Firearm
@@ -54745,20 +54758,20 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C322" s="2" t="str">
+      <x:c r="C323" s="2" t="str">
         <x:v>The category for the types of weapon used during an incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="323">
-      <x:c r="A323" s="2" t="str">
+    <x:row r="324">
+      <x:c r="A324" s="2" t="str">
         <x:v>WeekIdentifier</x:v>
       </x:c>
-      <x:c r="B323" s="2" t="str">
+      <x:c r="B324" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C323" s="2" t="str">
+      <x:c r="C324" s="2" t="str">
         <x:v>The school label for the academic week.</x:v>
       </x:c>
     </x:row>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -41528,91 +41528,91 @@
     </x:row>
     <x:row r="2334">
       <x:c r="A2334" s="2" t="str">
-        <x:v>TeacherCandidateIdentity</x:v>
+        <x:v>TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="B2334" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="C2334" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2334" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2334" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
+        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2335">
       <x:c r="A2335" s="2" t="str">
-        <x:v>TeacherCandidateIndicator</x:v>
+        <x:v>TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="B2335" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIndicator</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
       <x:c r="C2335" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
       </x:c>
       <x:c r="D2335" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2335" s="2" t="str">
-        <x:v>Indicator(s) or metric(s) computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
+        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2336">
       <x:c r="A2336" s="2" t="str">
-        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
+        <x:v>TeacherCandidateIdentity</x:v>
       </x:c>
       <x:c r="B2336" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
       </x:c>
       <x:c r="C2336" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="D2336" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2336" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2337">
       <x:c r="A2337" s="2" t="str">
-        <x:v>TeacherCandidateReference</x:v>
+        <x:v>TeacherCandidateIndicator</x:v>
       </x:c>
       <x:c r="B2337" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIndicator</x:v>
       </x:c>
       <x:c r="C2337" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2337" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E2337" s="2" t="str">
-        <x:v>Identifies the teacher candidate who is associated with the TeacherCandidateAcademicRecord.</x:v>
+        <x:v>Indicator(s) or metric(s) computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2338">
       <x:c r="A2338" s="2" t="str">
-        <x:v>TeacherCandidateReference</x:v>
+        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
       </x:c>
       <x:c r="B2338" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="C2338" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
       </x:c>
       <x:c r="D2338" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2338" s="2" t="str">
-        <x:v>The staff associated with this absence event</x:v>
+        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
       </x:c>
     </x:row>
     <x:row r="2339">
@@ -41623,13 +41623,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2339" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
       </x:c>
       <x:c r="D2339" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2339" s="2" t="str">
-        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
+        <x:v>The staff associated with this absence event</x:v>
       </x:c>
     </x:row>
     <x:row r="2340">
@@ -41640,13 +41640,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2340" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="D2340" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2340" s="2" t="str">
-        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
+        <x:v>Identifies the teacher candidate who is associated with the TeacherCandidateAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2341">
@@ -41778,7 +41778,7 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2348" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2348" s="2" t="str">
         <x:v/>
@@ -41795,7 +41795,7 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2349" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="D2349" s="2" t="str">
         <x:v/>
@@ -41897,7 +41897,7 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2355" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociation</x:v>
       </x:c>
       <x:c r="D2355" s="2" t="str">
         <x:v/>
@@ -41925,108 +41925,108 @@
     </x:row>
     <x:row r="2357">
       <x:c r="A2357" s="2" t="str">
-        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
+        <x:v>TeacherCandidateReference</x:v>
       </x:c>
       <x:c r="B2357" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2357" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
       </x:c>
       <x:c r="D2357" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2357" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
+        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2358">
       <x:c r="A2358" s="2" t="str">
-        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
+        <x:v>TeacherCandidateReference</x:v>
       </x:c>
       <x:c r="B2358" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2358" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="D2358" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2358" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
+        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
       </x:c>
     </x:row>
     <x:row r="2359">
       <x:c r="A2359" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
+        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2359" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2359" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2359" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2359" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2360">
       <x:c r="A2360" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
+        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
       </x:c>
       <x:c r="B2360" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
       </x:c>
       <x:c r="C2360" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
       </x:c>
       <x:c r="D2360" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2360" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
       </x:c>
     </x:row>
     <x:row r="2361">
       <x:c r="A2361" s="2" t="str">
-        <x:v>TeacherCandidateUniqueId</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2361" s="2" t="str">
-        <x:v>UniqueId</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2361" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2361" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2361" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2362">
       <x:c r="A2362" s="2" t="str">
-        <x:v>TeacherCandidateUniqueId</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2362" s="2" t="str">
-        <x:v>UniqueId</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2362" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2362" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2362" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2363">
@@ -42055,7 +42055,7 @@
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="C2364" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>EXTENSION-StaffExtension</x:v>
       </x:c>
       <x:c r="D2364" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42074,7 +42074,7 @@
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="C2365" s="2" t="str">
-        <x:v>EXTENSION-StaffExtension</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2365" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42233,13 +42233,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2374" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2374" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2374" s="2" t="str">
-        <x:v>The Program associated to the Staff.</x:v>
+        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
       </x:c>
     </x:row>
     <x:row r="2375">
@@ -42250,13 +42250,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2375" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2375" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2375" s="2" t="str">
-        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
+        <x:v>The Program associated to the Staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2376">
@@ -42267,13 +42267,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2376" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2376" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2376" s="2" t="str">
-        <x:v>The Program associated to the Staff.</x:v>
+        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
       </x:c>
     </x:row>
     <x:row r="2377">
@@ -42284,13 +42284,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2377" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2377" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2377" s="2" t="str">
-        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
+        <x:v>The Program associated to the Staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2378">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -38813,13 +38813,13 @@
         <x:v>StudentProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2177" s="2" t="str">
-        <x:v>StudentLearningObjective</x:v>
+        <x:v>StudentCompetencyObjective</x:v>
       </x:c>
       <x:c r="D2177" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2177" s="2" t="str">
-        <x:v>Relates the Student and Program associated with the LearningObjective.</x:v>
+        <x:v>Relates the Student and Program associated with the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2178">
@@ -38830,13 +38830,13 @@
         <x:v>StudentProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2178" s="2" t="str">
-        <x:v>StudentCompetencyObjective</x:v>
+        <x:v>StudentLearningObjective</x:v>
       </x:c>
       <x:c r="D2178" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2178" s="2" t="str">
-        <x:v>Relates the Student and Program associated with the CompetencyObjective.</x:v>
+        <x:v>Relates the Student and Program associated with the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2179">
@@ -38865,14 +38865,14 @@
         <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2180" s="2" t="str">
-        <x:v>StaffProgramAssociation</x:v>
+        <x:v>StaffCohortAssociation</x:v>
       </x:c>
       <x:c r="D2180" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2180" s="2" t="str">
-        <x:v>Indicator of whether the staff has access to the student records of the program per district interpretation of FERPA and other privacy laws, regulations, and policies.</x:v>
+        <x:v>Indicator of whether the staff has access to the student records of the cohort per district interpretation of FERPA and other privacy laws, regulations, and policies.</x:v>
       </x:c>
     </x:row>
     <x:row r="2181">
@@ -38883,14 +38883,14 @@
         <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2181" s="2" t="str">
-        <x:v>StaffCohortAssociation</x:v>
+        <x:v>StaffProgramAssociation</x:v>
       </x:c>
       <x:c r="D2181" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2181" s="2" t="str">
-        <x:v>Indicator of whether the staff has access to the student records of the cohort per district interpretation of FERPA and other privacy laws, regulations, and policies.</x:v>
+        <x:v>Indicator of whether the staff has access to the student records of the program per district interpretation of FERPA and other privacy laws, regulations, and policies.</x:v>
       </x:c>
     </x:row>
     <x:row r="2182">
@@ -38919,13 +38919,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2183" s="2" t="str">
-        <x:v>DisciplineAction</x:v>
+        <x:v>StudentProgramAttendanceEventIdentityType</x:v>
       </x:c>
       <x:c r="D2183" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2183" s="2" t="str">
-        <x:v>The student(s) disciplined by the DisciplineAction.</x:v>
+        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2184">
@@ -39038,7 +39038,7 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2190" s="2" t="str">
-        <x:v>StudentSectionAttendanceEvent</x:v>
+        <x:v>StudentSchoolAttendanceEvent</x:v>
       </x:c>
       <x:c r="D2190" s="2" t="str">
         <x:v/>
@@ -39055,13 +39055,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2191" s="2" t="str">
-        <x:v>StudentSchoolAttendanceEvent</x:v>
+        <x:v>StudentLearningObjective</x:v>
       </x:c>
       <x:c r="D2191" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2191" s="2" t="str">
-        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
+        <x:v>Relates the Student associated with the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2192">
@@ -39072,13 +39072,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2192" s="2" t="str">
-        <x:v>StudentProgramAttendanceEvent</x:v>
+        <x:v>StudentProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2192" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2192" s="2" t="str">
-        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
+        <x:v>The Student associated with the Program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2193">
@@ -39089,13 +39089,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2193" s="2" t="str">
-        <x:v>StudentProgramAttendanceEventIdentityType</x:v>
+        <x:v>StudentCompetencyObjective</x:v>
       </x:c>
       <x:c r="D2193" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2193" s="2" t="str">
-        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
+        <x:v>Relates the student associated with the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2194">
@@ -39106,13 +39106,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2194" s="2" t="str">
-        <x:v>StudentCompetencyObjective</x:v>
+        <x:v>StudentAssessment</x:v>
       </x:c>
       <x:c r="D2194" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2194" s="2" t="str">
-        <x:v>Relates the student associated with the CompetencyObjective.</x:v>
+        <x:v>Reference to the Student associated with the Assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="2195">
@@ -39123,13 +39123,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2195" s="2" t="str">
-        <x:v>StudentAssessment</x:v>
+        <x:v>StudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2195" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2195" s="2" t="str">
-        <x:v>Reference to the Student associated with the Assessment.</x:v>
+        <x:v>Identifies the student who is associated with the StudentAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2196">
@@ -39140,13 +39140,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2196" s="2" t="str">
-        <x:v>StudentAcademicRecord</x:v>
+        <x:v>RestraintEvent</x:v>
       </x:c>
       <x:c r="D2196" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2196" s="2" t="str">
-        <x:v>Identifies the student who is associated with the StudentAcademicRecord.</x:v>
+        <x:v>Reference to student that was restrained.</x:v>
       </x:c>
     </x:row>
     <x:row r="2197">
@@ -39157,13 +39157,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2197" s="2" t="str">
-        <x:v>RestraintEvent</x:v>
+        <x:v>ReportCard</x:v>
       </x:c>
       <x:c r="D2197" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2197" s="2" t="str">
-        <x:v>Reference to student that was restrained.</x:v>
+        <x:v>Identifies the student that is associated with the ReportCard.</x:v>
       </x:c>
     </x:row>
     <x:row r="2198">
@@ -39174,13 +39174,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2198" s="2" t="str">
-        <x:v>ReportCard</x:v>
+        <x:v>PostSecondaryEvent</x:v>
       </x:c>
       <x:c r="D2198" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2198" s="2" t="str">
-        <x:v>Identifies the student that is associated with the ReportCard.</x:v>
+        <x:v>The student associated with the PostSecondaryEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2199">
@@ -39191,13 +39191,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2199" s="2" t="str">
-        <x:v>PostSecondaryEvent</x:v>
+        <x:v>DisciplineAction</x:v>
       </x:c>
       <x:c r="D2199" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2199" s="2" t="str">
-        <x:v>The student associated with the PostSecondaryEvent.</x:v>
+        <x:v>The student(s) disciplined by the DisciplineAction.</x:v>
       </x:c>
     </x:row>
     <x:row r="2200">
@@ -39208,13 +39208,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2200" s="2" t="str">
-        <x:v>StudentLearningObjective</x:v>
+        <x:v>StudentProgramAttendanceEvent</x:v>
       </x:c>
       <x:c r="D2200" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2200" s="2" t="str">
-        <x:v>Relates the Student associated with the LearningObjective.</x:v>
+        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2201">
@@ -39225,13 +39225,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2201" s="2" t="str">
-        <x:v>StudentDisciplineIncidentAssociation</x:v>
+        <x:v>StudentCohortAssociation</x:v>
       </x:c>
       <x:c r="D2201" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2201" s="2" t="str">
-        <x:v>Relates the Student associated with the DisciplineIncident.</x:v>
+        <x:v>The Student associated with the Cohort.</x:v>
       </x:c>
     </x:row>
     <x:row r="2202">
@@ -39242,13 +39242,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2202" s="2" t="str">
-        <x:v>StudentProgramAssociationIdentityType</x:v>
+        <x:v>StudentParentAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2202" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2202" s="2" t="str">
-        <x:v>The Student associated with the Program.</x:v>
+        <x:v>The Student associated with the Parent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2203">
@@ -39259,13 +39259,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2203" s="2" t="str">
-        <x:v>StudentMigrantEducationProgramAssociationIdentityType</x:v>
+        <x:v>StudentLearningObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D2203" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2203" s="2" t="str">
-        <x:v>The Student associated with the Program.</x:v>
+        <x:v>Relates the Student associated with the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2204">
@@ -39276,13 +39276,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2204" s="2" t="str">
-        <x:v>StudentEducationOrganizationAssociation</x:v>
+        <x:v>StudentDisciplineIncidentAssociation</x:v>
       </x:c>
       <x:c r="D2204" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2204" s="2" t="str">
-        <x:v>A reference to the Student.</x:v>
+        <x:v>Relates the Student associated with the DisciplineIncident.</x:v>
       </x:c>
     </x:row>
     <x:row r="2205">
@@ -39293,13 +39293,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2205" s="2" t="str">
-        <x:v>StudentInterventionAssociation</x:v>
+        <x:v>StudentEducationOrganizationAssociation</x:v>
       </x:c>
       <x:c r="D2205" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2205" s="2" t="str">
-        <x:v>Relates the Student associated with the Intervention.</x:v>
+        <x:v>A reference to the Student.</x:v>
       </x:c>
     </x:row>
     <x:row r="2206">
@@ -39310,13 +39310,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2206" s="2" t="str">
-        <x:v>StudentParentAssociation</x:v>
+        <x:v>StudentInterventionAssociation</x:v>
       </x:c>
       <x:c r="D2206" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2206" s="2" t="str">
-        <x:v>The Student associated with the Parent.</x:v>
+        <x:v>Relates the Student associated with the Intervention.</x:v>
       </x:c>
     </x:row>
     <x:row r="2207">
@@ -39327,13 +39327,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2207" s="2" t="str">
-        <x:v>StudentProgramAssociation</x:v>
+        <x:v>StudentParentAssociation</x:v>
       </x:c>
       <x:c r="D2207" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2207" s="2" t="str">
-        <x:v>The Student associated with the Program.</x:v>
+        <x:v>The Student associated with the Parent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2208">
@@ -39344,13 +39344,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2208" s="2" t="str">
-        <x:v>StudentSchoolAssociation</x:v>
+        <x:v>StudentProgramAssociation</x:v>
       </x:c>
       <x:c r="D2208" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2208" s="2" t="str">
-        <x:v>Student enrolled in the School.</x:v>
+        <x:v>The Student associated with the Program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2209">
@@ -39361,13 +39361,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2209" s="2" t="str">
-        <x:v>StudentSectionAssociation</x:v>
+        <x:v>StudentSchoolAssociation</x:v>
       </x:c>
       <x:c r="D2209" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2209" s="2" t="str">
-        <x:v>The Student enrolled in the Section.</x:v>
+        <x:v>Student enrolled in the School.</x:v>
       </x:c>
     </x:row>
     <x:row r="2210">
@@ -39378,13 +39378,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2210" s="2" t="str">
-        <x:v>DisciplineActionIdentityType</x:v>
+        <x:v>StudentSectionAssociation</x:v>
       </x:c>
       <x:c r="D2210" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2210" s="2" t="str">
-        <x:v>The student(s) disciplined by the DisciplineAction.</x:v>
+        <x:v>The Student enrolled in the Section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2211">
@@ -39395,13 +39395,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2211" s="2" t="str">
-        <x:v>PostSecondaryEventIdentityType</x:v>
+        <x:v>DisciplineActionIdentityType</x:v>
       </x:c>
       <x:c r="D2211" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2211" s="2" t="str">
-        <x:v>The student associated with the PostSecondaryEvent.</x:v>
+        <x:v>The student(s) disciplined by the DisciplineAction.</x:v>
       </x:c>
     </x:row>
     <x:row r="2212">
@@ -39412,13 +39412,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2212" s="2" t="str">
-        <x:v>ReportCardIdentityType</x:v>
+        <x:v>PostSecondaryEventIdentityType</x:v>
       </x:c>
       <x:c r="D2212" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2212" s="2" t="str">
-        <x:v>Identifies the student that is associated with the ReportCard.</x:v>
+        <x:v>The student associated with the PostSecondaryEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2213">
@@ -39429,13 +39429,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2213" s="2" t="str">
-        <x:v>StudentParentAssociationIdentityType</x:v>
+        <x:v>StudentMigrantEducationProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2213" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2213" s="2" t="str">
-        <x:v>The Student associated with the Parent.</x:v>
+        <x:v>The Student associated with the Program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2214">
@@ -39446,13 +39446,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2214" s="2" t="str">
-        <x:v>RestraintEventIdentityType</x:v>
+        <x:v>ReportCardIdentityType</x:v>
       </x:c>
       <x:c r="D2214" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2214" s="2" t="str">
-        <x:v>Reference to student that was restrained.</x:v>
+        <x:v>Identifies the student that is associated with the ReportCard.</x:v>
       </x:c>
     </x:row>
     <x:row r="2215">
@@ -39463,13 +39463,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2215" s="2" t="str">
-        <x:v>StudentAssessmentIdentityType</x:v>
+        <x:v>StudentAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2215" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2215" s="2" t="str">
-        <x:v>Reference to the Student associated with the Assessment.</x:v>
+        <x:v>Identifies the student who is associated with the StudentAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2216">
@@ -39480,13 +39480,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2216" s="2" t="str">
-        <x:v>StudentCohortAssociationIdentityType</x:v>
+        <x:v>StudentAssessmentIdentityType</x:v>
       </x:c>
       <x:c r="D2216" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2216" s="2" t="str">
-        <x:v>The Student associated with the Cohort.</x:v>
+        <x:v>Reference to the Student associated with the Assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="2217">
@@ -39497,13 +39497,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2217" s="2" t="str">
-        <x:v>StudentCompetencyObjectiveIdentityType</x:v>
+        <x:v>StudentCohortAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2217" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2217" s="2" t="str">
-        <x:v>Relates the student associated with the CompetencyObjective.</x:v>
+        <x:v>The Student associated with the Cohort.</x:v>
       </x:c>
     </x:row>
     <x:row r="2218">
@@ -39514,13 +39514,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2218" s="2" t="str">
-        <x:v>StudentCTEProgramAssociationIdentityType</x:v>
+        <x:v>StudentCompetencyObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D2218" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2218" s="2" t="str">
-        <x:v>The Student associated with the Program.</x:v>
+        <x:v>Relates the student associated with the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2219">
@@ -39531,13 +39531,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2219" s="2" t="str">
-        <x:v>StudentDisciplineIncidentAssociationIdentityType</x:v>
+        <x:v>StudentCTEProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2219" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2219" s="2" t="str">
-        <x:v>Relates the Student associated with the DisciplineIncident.</x:v>
+        <x:v>The Student associated with the Program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2220">
@@ -39548,13 +39548,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2220" s="2" t="str">
-        <x:v>StudentEducationOrganizationAssociationIdentityType</x:v>
+        <x:v>StudentDisciplineIncidentAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2220" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2220" s="2" t="str">
-        <x:v>A reference to the Student.</x:v>
+        <x:v>Relates the Student associated with the DisciplineIncident.</x:v>
       </x:c>
     </x:row>
     <x:row r="2221">
@@ -39565,13 +39565,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2221" s="2" t="str">
-        <x:v>StudentInterventionAssociationIdentityType</x:v>
+        <x:v>StudentEducationOrganizationAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2221" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2221" s="2" t="str">
-        <x:v>Relates the Student associated with the Intervention.</x:v>
+        <x:v>A reference to the Student.</x:v>
       </x:c>
     </x:row>
     <x:row r="2222">
@@ -39582,13 +39582,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2222" s="2" t="str">
-        <x:v>StudentInterventionAttendanceEventIdentityType</x:v>
+        <x:v>StudentInterventionAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2222" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2222" s="2" t="str">
-        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
+        <x:v>Relates the Student associated with the Intervention.</x:v>
       </x:c>
     </x:row>
     <x:row r="2223">
@@ -39599,13 +39599,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2223" s="2" t="str">
-        <x:v>StudentLearningObjectiveIdentityType</x:v>
+        <x:v>StudentInterventionAttendanceEventIdentityType</x:v>
       </x:c>
       <x:c r="D2223" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2223" s="2" t="str">
-        <x:v>Relates the Student associated with the LearningObjective.</x:v>
+        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2224">
@@ -39616,13 +39616,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2224" s="2" t="str">
-        <x:v>StudentAcademicRecordIdentityType</x:v>
+        <x:v>RestraintEventIdentityType</x:v>
       </x:c>
       <x:c r="D2224" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2224" s="2" t="str">
-        <x:v>Identifies the student who is associated with the StudentAcademicRecord.</x:v>
+        <x:v>Reference to student that was restrained.</x:v>
       </x:c>
     </x:row>
     <x:row r="2225">
@@ -39650,13 +39650,13 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2226" s="2" t="str">
-        <x:v>StudentCohortAssociation</x:v>
+        <x:v>StudentSectionAttendanceEvent</x:v>
       </x:c>
       <x:c r="D2226" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2226" s="2" t="str">
-        <x:v>The Student associated with the Cohort.</x:v>
+        <x:v>Relates the Student associated with the AttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2227">
@@ -39718,75 +39718,74 @@
         <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2230" s="2" t="str">
-        <x:v>EXTENSION-ExternalStudentAcademicRecord</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
       </x:c>
       <x:c r="D2230" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2230" s="2" t="str">
-        <x:v>Identifies the student who is associated with the ExternalStudentAcademicRecord.</x:v>
+        <x:v>The student associated.</x:v>
       </x:c>
     </x:row>
     <x:row r="2231">
       <x:c r="A2231" s="2" t="str">
-        <x:v>StudentSchoolAssociationIdentity</x:v>
+        <x:v>StudentReference</x:v>
       </x:c>
       <x:c r="B2231" s="2" t="str">
-        <x:v>StudentSchoolAssociationIdentityType</x:v>
+        <x:v>StudentReferenceType</x:v>
       </x:c>
       <x:c r="C2231" s="2" t="str">
-        <x:v>StudentSchoolAssociationReferenceType</x:v>
+        <x:v>EXTENSION-ExternalStudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2231" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2231" s="2" t="str">
-        <x:v>Identity of a StudentSchoolAssociation.</x:v>
+        <x:v>Identifies the student who is associated with the ExternalStudentAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2232">
       <x:c r="A2232" s="2" t="str">
-        <x:v>StudentSchoolAttendanceEventIdentity</x:v>
+        <x:v>StudentSchoolAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2232" s="2" t="str">
-        <x:v>StudentSchoolAttendanceEventIdentityType</x:v>
+        <x:v>StudentSchoolAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2232" s="2" t="str">
-        <x:v>StudentSchoolAttendanceEventReferenceType</x:v>
+        <x:v>StudentSchoolAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2232" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2232" s="2" t="str">
-        <x:v>Identity of a StudentSchoolAttendanceEvent.</x:v>
+        <x:v>Identity of a StudentSchoolAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2233">
       <x:c r="A2233" s="2" t="str">
-        <x:v>StudentsDisabledNumber</x:v>
+        <x:v>StudentSchoolAttendanceEventIdentity</x:v>
       </x:c>
       <x:c r="B2233" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>StudentSchoolAttendanceEventIdentityType</x:v>
       </x:c>
       <x:c r="C2233" s="2" t="str">
-        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
+        <x:v>StudentSchoolAttendanceEventReferenceType</x:v>
       </x:c>
       <x:c r="D2233" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2233" s="2" t="str">
-        <x:v>The number of student who have a disability</x:v>
+        <x:v>Identity of a StudentSchoolAttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2234">
       <x:c r="A2234" s="2" t="str">
-        <x:v>StudentsDisabledPercentage</x:v>
+        <x:v>StudentsDisabledNumber</x:v>
       </x:c>
       <x:c r="B2234" s="2" t="str">
-        <x:v>Percent</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2234" s="2" t="str">
         <x:v>EXTENSION-TotalStudentsDisabled</x:v>
@@ -39796,42 +39795,43 @@
 </x:v>
       </x:c>
       <x:c r="E2234" s="2" t="str">
-        <x:v>Percentage of students who have a disability</x:v>
+        <x:v>The number of student who have a disability</x:v>
       </x:c>
     </x:row>
     <x:row r="2235">
       <x:c r="A2235" s="2" t="str">
-        <x:v>StudentSectionAssociationIdentity</x:v>
+        <x:v>StudentsDisabledPercentage</x:v>
       </x:c>
       <x:c r="B2235" s="2" t="str">
-        <x:v>StudentSectionAssociationIdentityType</x:v>
+        <x:v>Percent</x:v>
       </x:c>
       <x:c r="C2235" s="2" t="str">
-        <x:v>StudentSectionAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
       </x:c>
       <x:c r="D2235" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2235" s="2" t="str">
-        <x:v>Identity of a StudentSectionAssociation.</x:v>
+        <x:v>Percentage of students who have a disability</x:v>
       </x:c>
     </x:row>
     <x:row r="2236">
       <x:c r="A2236" s="2" t="str">
-        <x:v>StudentSectionAssociationReference</x:v>
+        <x:v>StudentSectionAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2236" s="2" t="str">
+        <x:v>StudentSectionAssociationIdentityType</x:v>
+      </x:c>
+      <x:c r="C2236" s="2" t="str">
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
-      <x:c r="C2236" s="2" t="str">
-        <x:v>Grade</x:v>
-      </x:c>
       <x:c r="D2236" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2236" s="2" t="str">
-        <x:v>Relates the student and Section associated with the Grade.</x:v>
+        <x:v>Identity of a StudentSectionAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2237">
@@ -39842,13 +39842,13 @@
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2237" s="2" t="str">
-        <x:v>StudentCompetencyObjective</x:v>
+        <x:v>GradeIdentityType</x:v>
       </x:c>
       <x:c r="D2237" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2237" s="2" t="str">
-        <x:v>Relates the Student and Section associated with the CompetencyObjective.</x:v>
+        <x:v>Relates the student and Section associated with the Grade.</x:v>
       </x:c>
     </x:row>
     <x:row r="2238">
@@ -39859,13 +39859,13 @@
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2238" s="2" t="str">
-        <x:v>StudentGradebookEntry</x:v>
+        <x:v>StudentLearningObjective</x:v>
       </x:c>
       <x:c r="D2238" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2238" s="2" t="str">
-        <x:v>Relates the student associated with the GradebookEntry.</x:v>
+        <x:v>Relates the Student and Section associated with the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2239">
@@ -39876,13 +39876,13 @@
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2239" s="2" t="str">
-        <x:v>StudentLearningObjective</x:v>
+        <x:v>StudentGradebookEntry</x:v>
       </x:c>
       <x:c r="D2239" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2239" s="2" t="str">
-        <x:v>Relates the Student and Section associated with the LearningObjective.</x:v>
+        <x:v>Relates the student associated with the GradebookEntry.</x:v>
       </x:c>
     </x:row>
     <x:row r="2240">
@@ -39893,13 +39893,13 @@
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2240" s="2" t="str">
-        <x:v>GradeIdentityType</x:v>
+        <x:v>StudentCompetencyObjective</x:v>
       </x:c>
       <x:c r="D2240" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2240" s="2" t="str">
-        <x:v>Relates the student and Section associated with the Grade.</x:v>
+        <x:v>Relates the Student and Section associated with the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2241">
@@ -39910,49 +39910,48 @@
         <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2241" s="2" t="str">
-        <x:v>StudentGradebookEntryIdentityType</x:v>
+        <x:v>Grade</x:v>
       </x:c>
       <x:c r="D2241" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2241" s="2" t="str">
-        <x:v>Relates the student associated with the GradebookEntry.</x:v>
+        <x:v>Relates the student and Section associated with the Grade.</x:v>
       </x:c>
     </x:row>
     <x:row r="2242">
       <x:c r="A2242" s="2" t="str">
-        <x:v>StudentSectionAttendanceEventIdentity</x:v>
+        <x:v>StudentSectionAssociationReference</x:v>
       </x:c>
       <x:c r="B2242" s="2" t="str">
-        <x:v>StudentSectionAttendanceEventIdentityType</x:v>
+        <x:v>StudentSectionAssociationReferenceType</x:v>
       </x:c>
       <x:c r="C2242" s="2" t="str">
-        <x:v>StudentSectionAttendanceEventReferenceType</x:v>
+        <x:v>StudentGradebookEntryIdentityType</x:v>
       </x:c>
       <x:c r="D2242" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2242" s="2" t="str">
-        <x:v>Identity of a StudentSectionAttendanceEvent.</x:v>
+        <x:v>Relates the student associated with the GradebookEntry.</x:v>
       </x:c>
     </x:row>
     <x:row r="2243">
       <x:c r="A2243" s="2" t="str">
-        <x:v>StudentsEnrolled</x:v>
+        <x:v>StudentSectionAttendanceEventIdentity</x:v>
       </x:c>
       <x:c r="B2243" s="2" t="str">
-        <x:v>EXTENSION-StudentsEnrolled</x:v>
+        <x:v>StudentSectionAttendanceEventIdentityType</x:v>
       </x:c>
       <x:c r="C2243" s="2" t="str">
-        <x:v>EXTENSION-CourseCourseTranscriptFacts</x:v>
+        <x:v>StudentSectionAttendanceEventReferenceType</x:v>
       </x:c>
       <x:c r="D2243" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2243" s="2" t="str">
-        <x:v>The information about the number of students enrolled</x:v>
+        <x:v>Identity of a StudentSectionAttendanceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2244">
@@ -39963,7 +39962,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2244" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentFacts</x:v>
       </x:c>
       <x:c r="D2244" s="2" t="str">
         <x:v>minOccurs: 0
@@ -39981,7 +39980,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2245" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-SectionStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2245" s="2" t="str">
         <x:v>minOccurs: 0
@@ -39999,7 +39998,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2246" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-SectionStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2246" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40017,7 +40016,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2247" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentFacts</x:v>
+        <x:v>EXTENSION-SectionStudentFacts</x:v>
       </x:c>
       <x:c r="D2247" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40035,7 +40034,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2248" s="2" t="str">
-        <x:v>EXTENSION-SectionCourseTranscriptFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2248" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40053,7 +40052,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2249" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-CourseCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="D2249" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40071,7 +40070,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2250" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-SectionCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="D2250" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40089,7 +40088,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2251" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2251" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40107,7 +40106,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2252" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2252" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40125,7 +40124,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2253" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationCourseTranscriptFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2253" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40143,7 +40142,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2254" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-CourseStudentFacts</x:v>
       </x:c>
       <x:c r="D2254" s="2" t="str">
         <x:v>minOccurs: 0
@@ -40155,56 +40154,56 @@
     </x:row>
     <x:row r="2255">
       <x:c r="A2255" s="2" t="str">
-        <x:v>StudentSpecialEducationProgramAssociationIdentity</x:v>
+        <x:v>StudentsEnrolled</x:v>
       </x:c>
       <x:c r="B2255" s="2" t="str">
-        <x:v>StudentSpecialEducationProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="C2255" s="2" t="str">
-        <x:v>StudentSpecialEducationProgramAssociationReferenceType</x:v>
+        <x:v>EXTENSION-EducationOrganizationCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="D2255" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2255" s="2" t="str">
-        <x:v>Identity of a StudentSpecialEducationProgramAssociation.</x:v>
+        <x:v>The information about the number of students enrolled</x:v>
       </x:c>
     </x:row>
     <x:row r="2256">
       <x:c r="A2256" s="2" t="str">
-        <x:v>StudentTitleIPartAProgramAssociationIdentity</x:v>
+        <x:v>StudentSpecialEducationProgramAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2256" s="2" t="str">
-        <x:v>StudentTitleIPartAProgramAssociationIdentityType</x:v>
+        <x:v>StudentSpecialEducationProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2256" s="2" t="str">
-        <x:v>StudentTitleIPartAProgramAssociationReferenceType</x:v>
+        <x:v>StudentSpecialEducationProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2256" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2256" s="2" t="str">
-        <x:v>Identity of a StudentTitleIPartAProgramAssociation.</x:v>
+        <x:v>Identity of a StudentSpecialEducationProgramAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2257">
       <x:c r="A2257" s="2" t="str">
-        <x:v>StudentUniqueId</x:v>
+        <x:v>StudentTitleIPartAProgramAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2257" s="2" t="str">
-        <x:v>UniqueId</x:v>
+        <x:v>StudentTitleIPartAProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2257" s="2" t="str">
-        <x:v>StudentLookupType</x:v>
+        <x:v>StudentTitleIPartAProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2257" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2257" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a student.</x:v>
+        <x:v>Identity of a StudentTitleIPartAProgramAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2258">
@@ -40215,10 +40214,11 @@
         <x:v>UniqueId</x:v>
       </x:c>
       <x:c r="C2258" s="2" t="str">
-        <x:v>StudentIdentityType</x:v>
+        <x:v>StudentLookupType</x:v>
       </x:c>
       <x:c r="D2258" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2258" s="2" t="str">
         <x:v>A unique alphanumeric code assigned to a student.</x:v>
@@ -40232,7 +40232,7 @@
         <x:v>UniqueId</x:v>
       </x:c>
       <x:c r="C2259" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>StudentIdentityType</x:v>
       </x:c>
       <x:c r="D2259" s="2" t="str">
         <x:v/>
@@ -40243,38 +40243,37 @@
     </x:row>
     <x:row r="2260">
       <x:c r="A2260" s="2" t="str">
-        <x:v>SubstituteAssigned</x:v>
+        <x:v>StudentUniqueId</x:v>
       </x:c>
       <x:c r="B2260" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>UniqueId</x:v>
       </x:c>
       <x:c r="C2260" s="2" t="str">
-        <x:v>LeaveEvent</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D2260" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2260" s="2" t="str">
-        <x:v>Indicator of whether a substitute was assigned during the period of staff leave.</x:v>
+        <x:v>A unique alphanumeric code assigned to a student.</x:v>
       </x:c>
     </x:row>
     <x:row r="2261">
       <x:c r="A2261" s="2" t="str">
-        <x:v>SuccessCriteria</x:v>
+        <x:v>SubstituteAssigned</x:v>
       </x:c>
       <x:c r="B2261" s="2" t="str">
-        <x:v>Criteria</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2261" s="2" t="str">
-        <x:v>LearningStandard</x:v>
+        <x:v>LeaveEvent</x:v>
       </x:c>
       <x:c r="D2261" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2261" s="2" t="str">
-        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a learning standard. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the LearningStandard.</x:v>
+        <x:v>Indicator of whether a substitute was assigned during the period of staff leave.</x:v>
       </x:c>
     </x:row>
     <x:row r="2262">
@@ -40285,14 +40284,14 @@
         <x:v>Criteria</x:v>
       </x:c>
       <x:c r="C2262" s="2" t="str">
-        <x:v>CompetencyObjective</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D2262" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2262" s="2" t="str">
-        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a competency objective. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the CompetencyObjective.</x:v>
+        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a learning objective. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2263">
@@ -40303,37 +40302,37 @@
         <x:v>Criteria</x:v>
       </x:c>
       <x:c r="C2263" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>LearningStandard</x:v>
       </x:c>
       <x:c r="D2263" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2263" s="2" t="str">
-        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a learning objective. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the LearningObjective.</x:v>
+        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a learning standard. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the LearningStandard.</x:v>
       </x:c>
     </x:row>
     <x:row r="2264">
       <x:c r="A2264" s="2" t="str">
-        <x:v>SupplementalEducationalServicesFundsSpent</x:v>
+        <x:v>SuccessCriteria</x:v>
       </x:c>
       <x:c r="B2264" s="2" t="str">
-        <x:v>Currency</x:v>
+        <x:v>Criteria</x:v>
       </x:c>
       <x:c r="C2264" s="2" t="str">
-        <x:v>LocalEducationAgencyFederalFunds</x:v>
+        <x:v>CompetencyObjective</x:v>
       </x:c>
       <x:c r="D2264" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2264" s="2" t="str">
-        <x:v>The dollar amount spent on supplemental educational services during the school year under Title I, Part A, Section 1116 of ESEA as amended.</x:v>
+        <x:v>One or more statements that describes the criteria used by teachers and students to check for attainment of a competency objective. This criteria gives clear indications as to the degree to which learning is moving through the Zone or Proximal Development toward independent achievement of the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="2265">
       <x:c r="A2265" s="2" t="str">
-        <x:v>SupplementalEducationalServicesPerPupilExpenditure</x:v>
+        <x:v>SupplementalEducationalServicesFundsSpent</x:v>
       </x:c>
       <x:c r="B2265" s="2" t="str">
         <x:v>Currency</x:v>
@@ -40346,60 +40345,61 @@
 </x:v>
       </x:c>
       <x:c r="E2265" s="2" t="str">
-        <x:v>The maximum dollar amount that may be spent per child for expenditures related to supplemental educational services under Title I of the ESEA.</x:v>
+        <x:v>The dollar amount spent on supplemental educational services during the school year under Title I, Part A, Section 1116 of ESEA as amended.</x:v>
       </x:c>
     </x:row>
     <x:row r="2266">
       <x:c r="A2266" s="2" t="str">
-        <x:v>SurveyCategory</x:v>
+        <x:v>SupplementalEducationalServicesPerPupilExpenditure</x:v>
       </x:c>
       <x:c r="B2266" s="2" t="str">
-        <x:v>EXTENSION-SurveyCategoryDescriptorReferenceType</x:v>
+        <x:v>Currency</x:v>
       </x:c>
       <x:c r="C2266" s="2" t="str">
-        <x:v>EXTENSION-Survey</x:v>
+        <x:v>LocalEducationAgencyFederalFunds</x:v>
       </x:c>
       <x:c r="D2266" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2266" s="2" t="str">
-        <x:v>The Category or Type of Survey.</x:v>
+        <x:v>The maximum dollar amount that may be spent per child for expenditures related to supplemental educational services under Title I of the ESEA.</x:v>
       </x:c>
     </x:row>
     <x:row r="2267">
       <x:c r="A2267" s="2" t="str">
-        <x:v>SurveyCategoryMap</x:v>
+        <x:v>SurveyCategory</x:v>
       </x:c>
       <x:c r="B2267" s="2" t="str">
-        <x:v>EXTENSION-SurveyCategoryMapType</x:v>
+        <x:v>EXTENSION-SurveyCategoryDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2267" s="2" t="str">
-        <x:v>EXTENSION-SurveyCategoryDescriptor</x:v>
+        <x:v>EXTENSION-Survey</x:v>
       </x:c>
       <x:c r="D2267" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2267" s="2" t="str">
-        <x:v>The mapping to a known SurveyCategory enumeration type.</x:v>
+        <x:v>The Category or Type of Survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2268">
       <x:c r="A2268" s="2" t="str">
-        <x:v>SurveyIdentifier</x:v>
+        <x:v>SurveyCategoryMap</x:v>
       </x:c>
       <x:c r="B2268" s="2" t="str">
-        <x:v>EXTENSION-SurveyIdentifier</x:v>
+        <x:v>EXTENSION-SurveyCategoryMapType</x:v>
       </x:c>
       <x:c r="C2268" s="2" t="str">
-        <x:v>EXTENSION-Survey</x:v>
+        <x:v>EXTENSION-SurveyCategoryDescriptor</x:v>
       </x:c>
       <x:c r="D2268" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2268" s="2" t="str">
-        <x:v>The unique survey identifier from the survey tool.</x:v>
+        <x:v>The mapping to a known SurveyCategory enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2269">
@@ -40410,7 +40410,7 @@
         <x:v>EXTENSION-SurveyIdentifier</x:v>
       </x:c>
       <x:c r="C2269" s="2" t="str">
-        <x:v>EXTENSION-SurveyIdentityType</x:v>
+        <x:v>EXTENSION-Survey</x:v>
       </x:c>
       <x:c r="D2269" s="2" t="str">
         <x:v/>
@@ -40421,74 +40421,74 @@
     </x:row>
     <x:row r="2270">
       <x:c r="A2270" s="2" t="str">
-        <x:v>SurveyIdentity</x:v>
+        <x:v>SurveyIdentifier</x:v>
       </x:c>
       <x:c r="B2270" s="2" t="str">
+        <x:v>EXTENSION-SurveyIdentifier</x:v>
+      </x:c>
+      <x:c r="C2270" s="2" t="str">
         <x:v>EXTENSION-SurveyIdentityType</x:v>
       </x:c>
-      <x:c r="C2270" s="2" t="str">
-        <x:v>EXTENSION-SurveyReferenceType</x:v>
-      </x:c>
       <x:c r="D2270" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2270" s="2" t="str">
-        <x:v>Identity of a Survey.</x:v>
+        <x:v>The unique survey identifier from the survey tool.</x:v>
       </x:c>
     </x:row>
     <x:row r="2271">
       <x:c r="A2271" s="2" t="str">
-        <x:v>SurveyQuestionIdentity</x:v>
+        <x:v>SurveyIdentity</x:v>
       </x:c>
       <x:c r="B2271" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionIdentityType</x:v>
+        <x:v>EXTENSION-SurveyIdentityType</x:v>
       </x:c>
       <x:c r="C2271" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
+        <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="D2271" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2271" s="2" t="str">
-        <x:v>Identity of a SurveyQuestion.</x:v>
+        <x:v>Identity of a Survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2272">
       <x:c r="A2272" s="2" t="str">
-        <x:v>SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>SurveyQuestionIdentity</x:v>
       </x:c>
       <x:c r="B2272" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionIdentityType</x:v>
       </x:c>
       <x:c r="C2272" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="D2272" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2272" s="2" t="str">
-        <x:v>For matrix questions, the response for each row of the matrix.</x:v>
+        <x:v>Identity of a SurveyQuestion.</x:v>
       </x:c>
     </x:row>
     <x:row r="2273">
       <x:c r="A2273" s="2" t="str">
-        <x:v>SurveyQuestionReference</x:v>
+        <x:v>SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="B2273" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="C2273" s="2" t="str">
-        <x:v>EXTENSION-CourseSurveyQuestionResponseFacts</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D2273" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E2273" s="2" t="str">
-        <x:v>Reference to the associated Survey Question.</x:v>
+        <x:v>For matrix questions, the response for each row of the matrix.</x:v>
       </x:c>
     </x:row>
     <x:row r="2274">
@@ -40499,7 +40499,7 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2274" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveyQuestionResponseFacts</x:v>
+        <x:v>EXTENSION-CourseSurveyQuestionResponseFacts</x:v>
       </x:c>
       <x:c r="D2274" s="2" t="str">
         <x:v/>
@@ -40516,7 +40516,7 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2275" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveyQuestionResponseFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveyQuestionResponseFacts</x:v>
       </x:c>
       <x:c r="D2275" s="2" t="str">
         <x:v/>
@@ -40533,13 +40533,13 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2276" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-SectionSurveyQuestionResponseFacts</x:v>
       </x:c>
       <x:c r="D2276" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2276" s="2" t="str">
-        <x:v>The identifying code for the question, unique for the survey.</x:v>
+        <x:v>Reference to the associated Survey Question.</x:v>
       </x:c>
     </x:row>
     <x:row r="2277">
@@ -40550,13 +40550,13 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2277" s="2" t="str">
-        <x:v>EXTENSION-CourseSurveyQuestionResponseFactsIdentityType</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D2277" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2277" s="2" t="str">
-        <x:v>Reference to the associated Survey Question.</x:v>
+        <x:v>The identifying code for the question, unique for the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2278">
@@ -40567,7 +40567,7 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2278" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveyQuestionResponseFactsIdentityType</x:v>
+        <x:v>EXTENSION-CourseSurveyQuestionResponseFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2278" s="2" t="str">
         <x:v/>
@@ -40584,7 +40584,7 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2279" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveyQuestionResponseFactsIdentityType</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveyQuestionResponseFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2279" s="2" t="str">
         <x:v/>
@@ -40601,48 +40601,48 @@
         <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
       </x:c>
       <x:c r="C2280" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
+        <x:v>EXTENSION-SectionSurveyQuestionResponseFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2280" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2280" s="2" t="str">
-        <x:v>The identifying code for the question, unique for the survey.</x:v>
+        <x:v>Reference to the associated Survey Question.</x:v>
       </x:c>
     </x:row>
     <x:row r="2281">
       <x:c r="A2281" s="2" t="str">
-        <x:v>SurveyQuestionResponseIdentity</x:v>
+        <x:v>SurveyQuestionReference</x:v>
       </x:c>
       <x:c r="B2281" s="2" t="str">
+        <x:v>EXTENSION-SurveyQuestionReferenceType</x:v>
+      </x:c>
+      <x:c r="C2281" s="2" t="str">
         <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
       </x:c>
-      <x:c r="C2281" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponseReferenceType</x:v>
-      </x:c>
       <x:c r="D2281" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2281" s="2" t="str">
-        <x:v>Identity of a SurveyQuestionResponse.</x:v>
+        <x:v>The identifying code for the question, unique for the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2282">
       <x:c r="A2282" s="2" t="str">
-        <x:v>SurveyReference</x:v>
+        <x:v>SurveyQuestionResponseIdentity</x:v>
       </x:c>
       <x:c r="B2282" s="2" t="str">
-        <x:v>EXTENSION-SurveyReferenceType</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
       </x:c>
       <x:c r="C2282" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponseReferenceType</x:v>
       </x:c>
       <x:c r="D2282" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2282" s="2" t="str">
-        <x:v>Reference to the Survey.</x:v>
+        <x:v>Identity of a SurveyQuestionResponse.</x:v>
       </x:c>
     </x:row>
     <x:row r="2283">
@@ -40653,13 +40653,13 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2283" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponseIdentityType</x:v>
+        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
       </x:c>
       <x:c r="D2283" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2283" s="2" t="str">
-        <x:v>The survey associated with the response.</x:v>
+        <x:v>Reference to the Survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2284">
@@ -40670,13 +40670,13 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2284" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionIdentityType</x:v>
+        <x:v>EXTENSION-SurveyResponseIdentityType</x:v>
       </x:c>
       <x:c r="D2284" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2284" s="2" t="str">
-        <x:v>Reference to the Survey.</x:v>
+        <x:v>The survey associated with the response.</x:v>
       </x:c>
     </x:row>
     <x:row r="2285">
@@ -40687,7 +40687,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2285" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveyResponseFactsIdentityType</x:v>
+        <x:v>EXTENSION-SurveyQuestionIdentityType</x:v>
       </x:c>
       <x:c r="D2285" s="2" t="str">
         <x:v/>
@@ -40704,7 +40704,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2286" s="2" t="str">
-        <x:v>EXTENSION-CourseSurveyResponseFacts</x:v>
+        <x:v>EXTENSION-SectionSurveyResponseFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2286" s="2" t="str">
         <x:v/>
@@ -40721,7 +40721,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2287" s="2" t="str">
-        <x:v>EXTENSION-SurveySection</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveyResponseFacts</x:v>
       </x:c>
       <x:c r="D2287" s="2" t="str">
         <x:v/>
@@ -40738,7 +40738,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2288" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>EXTENSION-SurveySection</x:v>
       </x:c>
       <x:c r="D2288" s="2" t="str">
         <x:v/>
@@ -40755,13 +40755,13 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2289" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveyResponseFacts</x:v>
+        <x:v>EXTENSION-SurveyResponse</x:v>
       </x:c>
       <x:c r="D2289" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2289" s="2" t="str">
-        <x:v>Reference to the Survey.</x:v>
+        <x:v>The survey associated with the response.</x:v>
       </x:c>
     </x:row>
     <x:row r="2290">
@@ -40772,7 +40772,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2290" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveyResponseFactsIdentityType</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D2290" s="2" t="str">
         <x:v/>
@@ -40789,13 +40789,13 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2291" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponse</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveyResponseFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2291" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2291" s="2" t="str">
-        <x:v>The survey associated with the response.</x:v>
+        <x:v>Reference to the Survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2292">
@@ -40806,7 +40806,7 @@
         <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2292" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveyResponseFacts</x:v>
+        <x:v>EXTENSION-SectionSurveyResponseFacts</x:v>
       </x:c>
       <x:c r="D2292" s="2" t="str">
         <x:v/>
@@ -40817,19 +40817,19 @@
     </x:row>
     <x:row r="2293">
       <x:c r="A2293" s="2" t="str">
-        <x:v>SurveyResponseIdentifier</x:v>
+        <x:v>SurveyReference</x:v>
       </x:c>
       <x:c r="B2293" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponseIdentifier</x:v>
+        <x:v>EXTENSION-SurveyReferenceType</x:v>
       </x:c>
       <x:c r="C2293" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponseIdentityType</x:v>
+        <x:v>EXTENSION-CourseSurveyResponseFacts</x:v>
       </x:c>
       <x:c r="D2293" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2293" s="2" t="str">
-        <x:v>The identifier of the survey typically from the survey application.</x:v>
+        <x:v>Reference to the Survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2294">
@@ -40851,37 +40851,37 @@
     </x:row>
     <x:row r="2295">
       <x:c r="A2295" s="2" t="str">
-        <x:v>SurveyResponseIdentity</x:v>
+        <x:v>SurveyResponseIdentifier</x:v>
       </x:c>
       <x:c r="B2295" s="2" t="str">
+        <x:v>EXTENSION-SurveyResponseIdentifier</x:v>
+      </x:c>
+      <x:c r="C2295" s="2" t="str">
         <x:v>EXTENSION-SurveyResponseIdentityType</x:v>
       </x:c>
-      <x:c r="C2295" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
-      </x:c>
       <x:c r="D2295" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2295" s="2" t="str">
-        <x:v>Identity of a SurveyResponse.</x:v>
+        <x:v>The identifier of the survey typically from the survey application.</x:v>
       </x:c>
     </x:row>
     <x:row r="2296">
       <x:c r="A2296" s="2" t="str">
-        <x:v>SurveyResponseReference</x:v>
+        <x:v>SurveyResponseIdentity</x:v>
       </x:c>
       <x:c r="B2296" s="2" t="str">
+        <x:v>EXTENSION-SurveyResponseIdentityType</x:v>
+      </x:c>
+      <x:c r="C2296" s="2" t="str">
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
-      <x:c r="C2296" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
-      </x:c>
       <x:c r="D2296" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2296" s="2" t="str">
-        <x:v>Reference to the Survey Response.</x:v>
+        <x:v>Identity of a SurveyResponse.</x:v>
       </x:c>
     </x:row>
     <x:row r="2297">
@@ -40892,7 +40892,7 @@
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2297" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D2297" s="2" t="str">
         <x:v/>
@@ -40909,7 +40909,7 @@
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2298" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
       </x:c>
       <x:c r="D2298" s="2" t="str">
         <x:v/>
@@ -40926,7 +40926,7 @@
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2299" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
       </x:c>
       <x:c r="D2299" s="2" t="str">
         <x:v/>
@@ -40937,37 +40937,37 @@
     </x:row>
     <x:row r="2300">
       <x:c r="A2300" s="2" t="str">
-        <x:v>SurveySectionIdentity</x:v>
+        <x:v>SurveyResponseReference</x:v>
       </x:c>
       <x:c r="B2300" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
+        <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2300" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionReferenceType</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
       </x:c>
       <x:c r="D2300" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2300" s="2" t="str">
-        <x:v>Identity of a SurveySection.</x:v>
+        <x:v>Reference to the Survey Response.</x:v>
       </x:c>
     </x:row>
     <x:row r="2301">
       <x:c r="A2301" s="2" t="str">
-        <x:v>SurveySectionReference</x:v>
+        <x:v>SurveySectionIdentity</x:v>
       </x:c>
       <x:c r="B2301" s="2" t="str">
+        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
+      </x:c>
+      <x:c r="C2301" s="2" t="str">
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
-      <x:c r="C2301" s="2" t="str">
-        <x:v>EXTENSION-CourseSurveySectionResponseRatingFacts</x:v>
-      </x:c>
       <x:c r="D2301" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2301" s="2" t="str">
-        <x:v>Reference to the Survey Section.</x:v>
+        <x:v>Identity of a SurveySection.</x:v>
       </x:c>
     </x:row>
     <x:row r="2302">
@@ -40978,7 +40978,7 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2302" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveySectionResponseRatingFacts</x:v>
+        <x:v>EXTENSION-CourseSurveySectionResponseRatingFacts</x:v>
       </x:c>
       <x:c r="D2302" s="2" t="str">
         <x:v/>
@@ -40995,7 +40995,7 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2303" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveySectionResponseRatingFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveySectionResponseRatingFacts</x:v>
       </x:c>
       <x:c r="D2303" s="2" t="str">
         <x:v/>
@@ -41029,13 +41029,13 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2305" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
+        <x:v>EXTENSION-SectionSurveySectionResponseRatingFacts</x:v>
       </x:c>
       <x:c r="D2305" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2305" s="2" t="str">
-        <x:v>Reference to the survey section.</x:v>
+        <x:v>Reference to the Survey Section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2306">
@@ -41046,7 +41046,7 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2306" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationSurveySectionResponseRatingFactsIdentityType</x:v>
+        <x:v>EXTENSION-CourseSurveySectionResponseRatingFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2306" s="2" t="str">
         <x:v/>
@@ -41063,7 +41063,7 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2307" s="2" t="str">
-        <x:v>EXTENSION-SectionSurveySectionResponseRatingFactsIdentityType</x:v>
+        <x:v>EXTENSION-EducationOrganizationSurveySectionResponseRatingFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2307" s="2" t="str">
         <x:v/>
@@ -41080,13 +41080,13 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2308" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
+        <x:v>EXTENSION-SectionSurveySectionResponseRatingFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2308" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2308" s="2" t="str">
-        <x:v>Reference to the survey section.</x:v>
+        <x:v>Reference to the Survey Section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2309">
@@ -41097,48 +41097,48 @@
         <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2309" s="2" t="str">
-        <x:v>EXTENSION-CourseSurveySectionResponseRatingFactsIdentityType</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
       </x:c>
       <x:c r="D2309" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2309" s="2" t="str">
-        <x:v>Reference to the Survey Section.</x:v>
+        <x:v>Reference to the survey section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2310">
       <x:c r="A2310" s="2" t="str">
-        <x:v>SurveySectionResponseRatingIdentity</x:v>
+        <x:v>SurveySectionReference</x:v>
       </x:c>
       <x:c r="B2310" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
+        <x:v>EXTENSION-SurveySectionReferenceType</x:v>
       </x:c>
       <x:c r="C2310" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRatingReferenceType</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
       </x:c>
       <x:c r="D2310" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2310" s="2" t="str">
-        <x:v>Identity of a SurveySectionResponseRating.</x:v>
+        <x:v>Reference to the survey section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2311">
       <x:c r="A2311" s="2" t="str">
-        <x:v>SurveySectionTitle</x:v>
+        <x:v>SurveySectionResponseRatingIdentity</x:v>
       </x:c>
       <x:c r="B2311" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionTitle</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRatingIdentityType</x:v>
       </x:c>
       <x:c r="C2311" s="2" t="str">
-        <x:v>EXTENSION-SurveySection</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRatingReferenceType</x:v>
       </x:c>
       <x:c r="D2311" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2311" s="2" t="str">
-        <x:v>The title or label for the survey section.</x:v>
+        <x:v>Identity of a SurveySectionResponseRating.</x:v>
       </x:c>
     </x:row>
     <x:row r="2312">
@@ -41149,7 +41149,7 @@
         <x:v>EXTENSION-SurveySectionTitle</x:v>
       </x:c>
       <x:c r="C2312" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
+        <x:v>EXTENSION-SurveySection</x:v>
       </x:c>
       <x:c r="D2312" s="2" t="str">
         <x:v/>
@@ -41160,45 +41160,44 @@
     </x:row>
     <x:row r="2313">
       <x:c r="A2313" s="2" t="str">
-        <x:v>SurveyTitle</x:v>
+        <x:v>SurveySectionTitle</x:v>
       </x:c>
       <x:c r="B2313" s="2" t="str">
-        <x:v>EXTENSION-SurveyTitle</x:v>
+        <x:v>EXTENSION-SurveySectionTitle</x:v>
       </x:c>
       <x:c r="C2313" s="2" t="str">
-        <x:v>EXTENSION-Survey</x:v>
+        <x:v>EXTENSION-SurveySectionIdentityType</x:v>
       </x:c>
       <x:c r="D2313" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2313" s="2" t="str">
-        <x:v>The title of the survey.</x:v>
+        <x:v>The title or label for the survey section.</x:v>
       </x:c>
     </x:row>
     <x:row r="2314">
       <x:c r="A2314" s="2" t="str">
-        <x:v>SuspensionDate</x:v>
+        <x:v>SurveyTitle</x:v>
       </x:c>
       <x:c r="B2314" s="2" t="str">
-        <x:v>xs:date</x:v>
+        <x:v>EXTENSION-SurveyTitle</x:v>
       </x:c>
       <x:c r="C2314" s="2" t="str">
-        <x:v>EXTENSION-CredentialExtension</x:v>
+        <x:v>EXTENSION-Survey</x:v>
       </x:c>
       <x:c r="D2314" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2314" s="2" t="str">
-        <x:v>The month, day, and year on which an active credential held by an individual was suspended.</x:v>
+        <x:v>The title of the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="2315">
       <x:c r="A2315" s="2" t="str">
-        <x:v>SuspensionReason</x:v>
+        <x:v>SuspensionDate</x:v>
       </x:c>
       <x:c r="B2315" s="2" t="str">
-        <x:v>EXTENSION-SuspensionReason</x:v>
+        <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C2315" s="2" t="str">
         <x:v>EXTENSION-CredentialExtension</x:v>
@@ -41208,41 +41207,42 @@
 </x:v>
       </x:c>
       <x:c r="E2315" s="2" t="str">
-        <x:v>Expanded reason for the suspension of credential.</x:v>
+        <x:v>The month, day, and year on which an active credential held by an individual was suspended.</x:v>
       </x:c>
     </x:row>
     <x:row r="2316">
       <x:c r="A2316" s="2" t="str">
-        <x:v>TactileLearning</x:v>
+        <x:v>SuspensionReason</x:v>
       </x:c>
       <x:c r="B2316" s="2" t="str">
-        <x:v>Learning</x:v>
+        <x:v>EXTENSION-SuspensionReason</x:v>
       </x:c>
       <x:c r="C2316" s="2" t="str">
-        <x:v>LearningStyle</x:v>
+        <x:v>EXTENSION-CredentialExtension</x:v>
       </x:c>
       <x:c r="D2316" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2316" s="2" t="str">
-        <x:v>The student's relative preference expressed as a percent to kinesthetic or tactile learning.</x:v>
+        <x:v>Expanded reason for the suspension of credential.</x:v>
       </x:c>
     </x:row>
     <x:row r="2317">
       <x:c r="A2317" s="2" t="str">
-        <x:v>TakenSchoolYear</x:v>
+        <x:v>TactileLearning</x:v>
       </x:c>
       <x:c r="B2317" s="2" t="str">
-        <x:v>SchoolYearType</x:v>
+        <x:v>Learning</x:v>
       </x:c>
       <x:c r="C2317" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFactsIdentityType</x:v>
+        <x:v>LearningStyle</x:v>
       </x:c>
       <x:c r="D2317" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2317" s="2" t="str">
-        <x:v>The school year the assessment was taken</x:v>
+        <x:v>The student's relative preference expressed as a percent to kinesthetic or tactile learning.</x:v>
       </x:c>
     </x:row>
     <x:row r="2318">
@@ -41253,7 +41253,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2318" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentAssessmentFactsIdentityType</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2318" s="2" t="str">
         <x:v/>
@@ -41270,7 +41270,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2319" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAssessmentFactsIdentityType</x:v>
+        <x:v>EXTENSION-SectionStudentAssessmentFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2319" s="2" t="str">
         <x:v/>
@@ -41287,7 +41287,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2320" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAssessmentFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2320" s="2" t="str">
         <x:v/>
@@ -41304,7 +41304,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2321" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2321" s="2" t="str">
         <x:v/>
@@ -41321,7 +41321,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2322" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
+        <x:v>EXTENSION-SectionStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2322" s="2" t="str">
         <x:v/>
@@ -41338,7 +41338,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2323" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessmentIdentityType</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2323" s="2" t="str">
         <x:v/>
@@ -41355,7 +41355,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2324" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessmentIdentityType</x:v>
       </x:c>
       <x:c r="D2324" s="2" t="str">
         <x:v/>
@@ -41366,37 +41366,37 @@
     </x:row>
     <x:row r="2325">
       <x:c r="A2325" s="2" t="str">
-        <x:v>TeacherCandidateAcademicRecordIdentity</x:v>
+        <x:v>TakenSchoolYear</x:v>
       </x:c>
       <x:c r="B2325" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
+        <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C2325" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecordReferenceType</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
       </x:c>
       <x:c r="D2325" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2325" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateAcademicRecord.</x:v>
+        <x:v>The school year the assessment was taken</x:v>
       </x:c>
     </x:row>
     <x:row r="2326">
       <x:c r="A2326" s="2" t="str">
-        <x:v>TeacherCandidateAcademicRecordReference</x:v>
+        <x:v>TeacherCandidateAcademicRecordIdentity</x:v>
       </x:c>
       <x:c r="B2326" s="2" t="str">
+        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
+      </x:c>
+      <x:c r="C2326" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidateAcademicRecordReferenceType</x:v>
       </x:c>
-      <x:c r="C2326" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCourseTranscript</x:v>
-      </x:c>
       <x:c r="D2326" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2326" s="2" t="str">
-        <x:v>Link to the student's academic record for a semester/school year.</x:v>
+        <x:v>Identity of a TeacherCandidateAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2327">
@@ -41407,7 +41407,7 @@
         <x:v>EXTENSION-TeacherCandidateAcademicRecordReferenceType</x:v>
       </x:c>
       <x:c r="C2327" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCourseTranscriptIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateCourseTranscript</x:v>
       </x:c>
       <x:c r="D2327" s="2" t="str">
         <x:v/>
@@ -41418,201 +41418,201 @@
     </x:row>
     <x:row r="2328">
       <x:c r="A2328" s="2" t="str">
+        <x:v>TeacherCandidateAcademicRecordReference</x:v>
+      </x:c>
+      <x:c r="B2328" s="2" t="str">
+        <x:v>EXTENSION-TeacherCandidateAcademicRecordReferenceType</x:v>
+      </x:c>
+      <x:c r="C2328" s="2" t="str">
+        <x:v>EXTENSION-TeacherCandidateCourseTranscriptIdentityType</x:v>
+      </x:c>
+      <x:c r="D2328" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E2328" s="2" t="str">
+        <x:v>Link to the student's academic record for a semester/school year.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2329">
+      <x:c r="A2329" s="2" t="str">
         <x:v>TeacherCandidateCharacteristic</x:v>
       </x:c>
-      <x:c r="B2328" s="2" t="str">
+      <x:c r="B2329" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidateCharacteristic</x:v>
       </x:c>
-      <x:c r="C2328" s="2" t="str">
+      <x:c r="C2329" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
-      <x:c r="D2328" s="2" t="str">
+      <x:c r="D2329" s="2" t="str">
         <x:v>minOccurs: 0
 maxOccurs: unbounded
 </x:v>
       </x:c>
-      <x:c r="E2328" s="2" t="str">
+      <x:c r="E2329" s="2" t="str">
         <x:v>Reflects important characteristics of the teacher candidate's home situation:
       Displaced Homemaker, Immigrant, Migratory, Military Parent, Pregnant Teen, Single Parent, and Unaccompanied Youth.</x:v>
       </x:c>
     </x:row>
-    <x:row r="2329">
-      <x:c r="A2329" s="2" t="str">
-        <x:v>TeacherCandidateCharacteristicMap</x:v>
-      </x:c>
-      <x:c r="B2329" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCharacteristicMapType</x:v>
-      </x:c>
-      <x:c r="C2329" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCharacteristicDescriptor</x:v>
-      </x:c>
-      <x:c r="D2329" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E2329" s="2" t="str">
-        <x:v>The mapping to a known TeacherCandidateCharacteristic enumeration type.</x:v>
-      </x:c>
-    </x:row>
     <x:row r="2330">
       <x:c r="A2330" s="2" t="str">
-        <x:v>TeacherCandidateCourseTranscriptIdentity</x:v>
+        <x:v>TeacherCandidateCharacteristicMap</x:v>
       </x:c>
       <x:c r="B2330" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCourseTranscriptIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateCharacteristicMapType</x:v>
       </x:c>
       <x:c r="C2330" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCourseTranscriptReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateCharacteristicDescriptor</x:v>
       </x:c>
       <x:c r="D2330" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2330" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateCourseTranscript.</x:v>
+        <x:v>The mapping to a known TeacherCandidateCharacteristic enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2331">
       <x:c r="A2331" s="2" t="str">
-        <x:v>TeacherCandidateFieldworkAbsenceEventIdentity</x:v>
+        <x:v>TeacherCandidateCourseTranscriptIdentity</x:v>
       </x:c>
       <x:c r="B2331" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateCourseTranscriptIdentityType</x:v>
       </x:c>
       <x:c r="C2331" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateCourseTranscriptReferenceType</x:v>
       </x:c>
       <x:c r="D2331" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2331" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateFieldworkAbsenceEvent.</x:v>
+        <x:v>Identity of a TeacherCandidateCourseTranscript.</x:v>
       </x:c>
     </x:row>
     <x:row r="2332">
       <x:c r="A2332" s="2" t="str">
-        <x:v>TeacherCandidateFieldworkExperienceIdentity</x:v>
+        <x:v>TeacherCandidateFieldworkAbsenceEventIdentity</x:v>
       </x:c>
       <x:c r="B2332" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventIdentityType</x:v>
       </x:c>
       <x:c r="C2332" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEventReferenceType</x:v>
       </x:c>
       <x:c r="D2332" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2332" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidateFieldworkExperience.</x:v>
+        <x:v>Identity of a TeacherCandidateFieldworkAbsenceEvent.</x:v>
       </x:c>
     </x:row>
     <x:row r="2333">
       <x:c r="A2333" s="2" t="str">
-        <x:v>TeacherCandidateIdentificationCode</x:v>
+        <x:v>TeacherCandidateFieldworkExperienceIdentity</x:v>
       </x:c>
       <x:c r="B2333" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentificationCode</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceIdentityType</x:v>
       </x:c>
       <x:c r="C2333" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperienceReferenceType</x:v>
       </x:c>
       <x:c r="D2333" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2333" s="2" t="str">
-        <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services, or other agencies to refer to a teacher candidate.</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidateFieldworkExperience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2334">
       <x:c r="A2334" s="2" t="str">
-        <x:v>TeacherCandidateIdentifier</x:v>
+        <x:v>TeacherCandidateIdentificationCode</x:v>
       </x:c>
       <x:c r="B2334" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentificationCode</x:v>
       </x:c>
       <x:c r="C2334" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2334" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E2334" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services, or other agencies to refer to a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2335">
       <x:c r="A2335" s="2" t="str">
-        <x:v>TeacherCandidateIdentifier</x:v>
+        <x:v>TeacherCandidateIdentity</x:v>
       </x:c>
       <x:c r="B2335" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
+        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
       </x:c>
       <x:c r="C2335" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="D2335" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2335" s="2" t="str">
-        <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="2336">
       <x:c r="A2336" s="2" t="str">
-        <x:v>TeacherCandidateIdentity</x:v>
+        <x:v>TeacherCandidateIndicator</x:v>
       </x:c>
       <x:c r="B2336" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateIndicator</x:v>
       </x:c>
       <x:c r="C2336" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2336" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2336" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherCandidate.</x:v>
+        <x:v>Indicator(s) or metric(s) computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2337">
       <x:c r="A2337" s="2" t="str">
-        <x:v>TeacherCandidateIndicator</x:v>
+        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
       </x:c>
       <x:c r="B2337" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateIndicator</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="C2337" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
       </x:c>
       <x:c r="D2337" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2337" s="2" t="str">
-        <x:v>Indicator(s) or metric(s) computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
+        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
       </x:c>
     </x:row>
     <x:row r="2338">
       <x:c r="A2338" s="2" t="str">
-        <x:v>TeacherCandidateProfessionalDevelopmentEventAttendanceIdentity</x:v>
+        <x:v>TeacherCandidateReference</x:v>
       </x:c>
       <x:c r="B2338" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2338" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="D2338" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2338" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateProfessionalDevelopmentEventAttendance.</x:v>
+        <x:v>Identifies the teacher candidate who is associated with the TeacherCandidateAcademicRecord.</x:v>
       </x:c>
     </x:row>
     <x:row r="2339">
@@ -41623,13 +41623,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2339" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
       </x:c>
       <x:c r="D2339" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2339" s="2" t="str">
-        <x:v>The staff associated with this absence event</x:v>
+        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2340">
@@ -41640,13 +41640,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2340" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
+        <x:v>EXTENSION-TeacherCandidateFieldworkAbsenceEvent</x:v>
       </x:c>
       <x:c r="D2340" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2340" s="2" t="str">
-        <x:v>Identifies the teacher candidate who is associated with the TeacherCandidateAcademicRecord.</x:v>
+        <x:v>The staff associated with this absence event</x:v>
       </x:c>
     </x:row>
     <x:row r="2341">
@@ -41778,13 +41778,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2348" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasure</x:v>
       </x:c>
       <x:c r="D2348" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2348" s="2" t="str">
-        <x:v>The teacher candidate associated with the staff.</x:v>
+        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
       </x:c>
     </x:row>
     <x:row r="2349">
@@ -41795,7 +41795,7 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2349" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
       </x:c>
       <x:c r="D2349" s="2" t="str">
         <x:v/>
@@ -41914,13 +41914,13 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2356" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasure</x:v>
+        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="D2356" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2356" s="2" t="str">
-        <x:v>The teacher candidate associated with aggregated student growth data</x:v>
+        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
       </x:c>
     </x:row>
     <x:row r="2357">
@@ -41931,120 +41931,122 @@
         <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
       </x:c>
       <x:c r="C2357" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateFieldworkExperience</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2357" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2357" s="2" t="str">
-        <x:v>The teacher candidate associated with the fieldwork experience.</x:v>
+        <x:v>The teacher candidate associated with the staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2358">
       <x:c r="A2358" s="2" t="str">
-        <x:v>TeacherCandidateReference</x:v>
+        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2358" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2358" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendanceIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2358" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2358" s="2" t="str">
-        <x:v>The teacher candidate associated with the professional development attendance event.</x:v>
+        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2359">
       <x:c r="A2359" s="2" t="str">
-        <x:v>TeacherCandidateStaffAssociationIdentity</x:v>
+        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
       </x:c>
       <x:c r="B2359" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
       </x:c>
       <x:c r="C2359" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStaffAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
       </x:c>
       <x:c r="D2359" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2359" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStaffAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
       </x:c>
     </x:row>
     <x:row r="2360">
       <x:c r="A2360" s="2" t="str">
-        <x:v>TeacherCandidateStudentGrowthMeasureIdentity</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2360" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2360" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateStudentGrowthMeasureReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2360" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2360" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateStudentGrowthMeasure.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2361">
       <x:c r="A2361" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderAssociationIdentity</x:v>
+        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
       </x:c>
       <x:c r="B2361" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="C2361" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
       </x:c>
       <x:c r="D2361" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2361" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderAssociation.</x:v>
+        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2362">
       <x:c r="A2362" s="2" t="str">
-        <x:v>TeacherCandidateTeacherPreparationProviderProgramAssociationIdentity</x:v>
+        <x:v>TeacherEducatorResearch</x:v>
       </x:c>
       <x:c r="B2362" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherEducatorResearch</x:v>
       </x:c>
       <x:c r="C2362" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationReferenceType</x:v>
+        <x:v>EXTENSION-StaffExtension</x:v>
       </x:c>
       <x:c r="D2362" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2362" s="2" t="str">
-        <x:v>Identity of a TeacherCandidateTeacherPreparationProviderProgramAssociation.</x:v>
+        <x:v>Teacher preparation provider faculty that instruct teacher candidates in content area or pedagogy.</x:v>
       </x:c>
     </x:row>
     <x:row r="2363">
       <x:c r="A2363" s="2" t="str">
-        <x:v>TeacherEducatorResearch</x:v>
+        <x:v>TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="B2363" s="2" t="str">
-        <x:v>EXTENSION-TeacherEducatorResearch</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="C2363" s="2" t="str">
         <x:v>EXTENSION-StaffExtension</x:v>
       </x:c>
       <x:c r="D2363" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2363" s="2" t="str">
-        <x:v>Teacher preparation provider faculty that instruct teacher candidates in content area or pedagogy.</x:v>
+        <x:v>The Teacher Preparation Program(s) completed by the teacher.</x:v>
       </x:c>
     </x:row>
     <x:row r="2364">
@@ -42055,7 +42057,7 @@
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="C2364" s="2" t="str">
-        <x:v>EXTENSION-StaffExtension</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2364" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42068,47 +42070,45 @@
     </x:row>
     <x:row r="2365">
       <x:c r="A2365" s="2" t="str">
-        <x:v>TeacherPreparationProgram</x:v>
+        <x:v>TeacherPreparationProgramIdentifier</x:v>
       </x:c>
       <x:c r="B2365" s="2" t="str">
+        <x:v>EXTENSION-TeacherPreparationProgramIdentifier</x:v>
+      </x:c>
+      <x:c r="C2365" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
-      <x:c r="C2365" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
-      </x:c>
       <x:c r="D2365" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2365" s="2" t="str">
-        <x:v>The Teacher Preparation Program(s) completed by the teacher.</x:v>
+        <x:v>An identifier assigned to the teacher preparation program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2366">
       <x:c r="A2366" s="2" t="str">
-        <x:v>TeacherPreparationProgramIdentifier</x:v>
+        <x:v>TeacherPreparationProgramName</x:v>
       </x:c>
       <x:c r="B2366" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramIdentifier</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgramName</x:v>
       </x:c>
       <x:c r="C2366" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
       </x:c>
       <x:c r="D2366" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2366" s="2" t="str">
-        <x:v>An identifier assigned to the teacher preparation program.</x:v>
+        <x:v>The name of the Teacher Preparation Program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2367">
       <x:c r="A2367" s="2" t="str">
-        <x:v>TeacherPreparationProgramName</x:v>
+        <x:v>TeacherPreparationProgramType</x:v>
       </x:c>
       <x:c r="B2367" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramName</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgramTypeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2367" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgram</x:v>
@@ -42117,42 +42117,42 @@
         <x:v/>
       </x:c>
       <x:c r="E2367" s="2" t="str">
-        <x:v>The name of the Teacher Preparation Program.</x:v>
+        <x:v>The type of teacher prep program (e.g., college, alternative, TFA, etc.).</x:v>
       </x:c>
     </x:row>
     <x:row r="2368">
       <x:c r="A2368" s="2" t="str">
-        <x:v>TeacherPreparationProgramType</x:v>
+        <x:v>TeacherPreparationProgramTypeMap</x:v>
       </x:c>
       <x:c r="B2368" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramTypeDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgramTypeMapType</x:v>
       </x:c>
       <x:c r="C2368" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgram</x:v>
+        <x:v>EXTENSION-TeacherPreparationProgramTypeDescriptor</x:v>
       </x:c>
       <x:c r="D2368" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2368" s="2" t="str">
-        <x:v>The type of teacher prep program (e.g., college, alternative, TFA, etc.).</x:v>
+        <x:v>The mapping to a known TeacherPreparationProgramType enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2369">
       <x:c r="A2369" s="2" t="str">
-        <x:v>TeacherPreparationProgramTypeMap</x:v>
+        <x:v>TeacherPreparationProviderId</x:v>
       </x:c>
       <x:c r="B2369" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramTypeMapType</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2369" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProgramTypeDescriptor</x:v>
+        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
       </x:c>
       <x:c r="D2369" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2369" s="2" t="str">
-        <x:v>The mapping to a known TeacherPreparationProgramType enumeration type.</x:v>
+        <x:v>The unique identification code for the Teacher Preparation Provider</x:v>
       </x:c>
     </x:row>
     <x:row r="2370">
@@ -42163,7 +42163,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2370" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
       </x:c>
       <x:c r="D2370" s="2" t="str">
         <x:v/>
@@ -42174,55 +42174,55 @@
     </x:row>
     <x:row r="2371">
       <x:c r="A2371" s="2" t="str">
-        <x:v>TeacherPreparationProviderId</x:v>
+        <x:v>TeacherPreparationProviderIdentity</x:v>
       </x:c>
       <x:c r="B2371" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
       </x:c>
       <x:c r="C2371" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="D2371" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2371" s="2" t="str">
-        <x:v>The unique identification code for the Teacher Preparation Provider</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherPreparationProvider.</x:v>
       </x:c>
     </x:row>
     <x:row r="2372">
       <x:c r="A2372" s="2" t="str">
-        <x:v>TeacherPreparationProviderIdentity</x:v>
+        <x:v>TeacherPreparationProviderProgramIdentity</x:v>
       </x:c>
       <x:c r="B2372" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderProgramIdentityType</x:v>
       </x:c>
       <x:c r="C2372" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="D2372" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2372" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherPreparationProvider.</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherPreparationProviderProgram.</x:v>
       </x:c>
     </x:row>
     <x:row r="2373">
       <x:c r="A2373" s="2" t="str">
-        <x:v>TeacherPreparationProviderProgramIdentity</x:v>
+        <x:v>TeacherPreparationProviderProgramReference</x:v>
       </x:c>
       <x:c r="B2373" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderProgramIdentityType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2373" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2373" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2373" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of a TeacherPreparationProviderProgram.</x:v>
+        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
       </x:c>
     </x:row>
     <x:row r="2374">
@@ -42233,13 +42233,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2374" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2374" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2374" s="2" t="str">
-        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
+        <x:v>The Program associated to the Staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2375">
@@ -42250,13 +42250,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2375" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2375" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2375" s="2" t="str">
-        <x:v>The Program associated to the Staff.</x:v>
+        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
       </x:c>
     </x:row>
     <x:row r="2376">
@@ -42267,30 +42267,30 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2376" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociationIdentityType</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2376" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2376" s="2" t="str">
-        <x:v>Reference to the Teacher Preparation Provider Program</x:v>
+        <x:v>The Program associated to the Staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="2377">
       <x:c r="A2377" s="2" t="str">
-        <x:v>TeacherPreparationProviderProgramReference</x:v>
+        <x:v>TeacherPreparationProviderReference</x:v>
       </x:c>
       <x:c r="B2377" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2377" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociation</x:v>
       </x:c>
       <x:c r="D2377" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2377" s="2" t="str">
-        <x:v>The Program associated to the Staff.</x:v>
+        <x:v>The TeacherPreparationProvider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2378">
@@ -42301,13 +42301,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2378" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
       </x:c>
       <x:c r="D2378" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2378" s="2" t="str">
-        <x:v>The TeacherPreparationProvider for the association</x:v>
+        <x:v>Teacher Preparation Provider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2379">
@@ -42318,13 +42318,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2379" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2379" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2379" s="2" t="str">
-        <x:v>Teacher Preparation Provider for the association</x:v>
+        <x:v>The TeacherPreparationProvider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2380">
@@ -42335,30 +42335,31 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2380" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2380" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2380" s="2" t="str">
-        <x:v>The TeacherPreparationProvider for the association</x:v>
+        <x:v>Teacher Preparation Provider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2381">
       <x:c r="A2381" s="2" t="str">
-        <x:v>TeacherPreparationProviderReference</x:v>
+        <x:v>TeacherStudentDataLinkExclusion</x:v>
       </x:c>
       <x:c r="B2381" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2381" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>StaffSectionAssociation</x:v>
       </x:c>
       <x:c r="D2381" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2381" s="2" t="str">
-        <x:v>Teacher Preparation Provider for the association</x:v>
+        <x:v>Indicates that the entire section is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2382">
@@ -42369,32 +42370,31 @@
         <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2382" s="2" t="str">
-        <x:v>StaffSectionAssociation</x:v>
+        <x:v>StudentSectionAssociation</x:v>
       </x:c>
       <x:c r="D2382" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2382" s="2" t="str">
-        <x:v>Indicates that the entire section is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</x:v>
+        <x:v>Indicates that the student-section combination is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</x:v>
       </x:c>
     </x:row>
     <x:row r="2383">
       <x:c r="A2383" s="2" t="str">
-        <x:v>TeacherStudentDataLinkExclusion</x:v>
+        <x:v>TeachingCredential</x:v>
       </x:c>
       <x:c r="B2383" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>TeachingCredentialDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2383" s="2" t="str">
-        <x:v>StudentSectionAssociation</x:v>
+        <x:v>EXTENSION-Recommendation</x:v>
       </x:c>
       <x:c r="D2383" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2383" s="2" t="str">
-        <x:v>Indicates that the student-section combination is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</x:v>
+        <x:v>An indication of the category of a legal document giving authorization to perform teaching assignment services.</x:v>
       </x:c>
     </x:row>
     <x:row r="2384">
@@ -42405,7 +42405,7 @@
         <x:v>TeachingCredentialDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2384" s="2" t="str">
-        <x:v>EXTENSION-Recommendation</x:v>
+        <x:v>Credential</x:v>
       </x:c>
       <x:c r="D2384" s="2" t="str">
         <x:v/>
@@ -42416,55 +42416,56 @@
     </x:row>
     <x:row r="2385">
       <x:c r="A2385" s="2" t="str">
-        <x:v>TeachingCredential</x:v>
+        <x:v>TeachingCredentialBasis</x:v>
       </x:c>
       <x:c r="B2385" s="2" t="str">
-        <x:v>TeachingCredentialDescriptorReferenceType</x:v>
+        <x:v>TeachingCredentialBasisType</x:v>
       </x:c>
       <x:c r="C2385" s="2" t="str">
         <x:v>Credential</x:v>
       </x:c>
       <x:c r="D2385" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2385" s="2" t="str">
-        <x:v>An indication of the category of a legal document giving authorization to perform teaching assignment services.</x:v>
+        <x:v>An indication of the pre-determined criteria for granting the teaching credential that an individual holds.</x:v>
       </x:c>
     </x:row>
     <x:row r="2386">
       <x:c r="A2386" s="2" t="str">
-        <x:v>TeachingCredentialBasis</x:v>
+        <x:v>TeachingCredentialMap</x:v>
       </x:c>
       <x:c r="B2386" s="2" t="str">
-        <x:v>TeachingCredentialBasisType</x:v>
+        <x:v>TeachingCredentialMapType</x:v>
       </x:c>
       <x:c r="C2386" s="2" t="str">
-        <x:v>Credential</x:v>
+        <x:v>TeachingCredentialDescriptor</x:v>
       </x:c>
       <x:c r="D2386" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2386" s="2" t="str">
-        <x:v>An indication of the pre-determined criteria for granting the teaching credential that an individual holds.</x:v>
+        <x:v>The mapping to a known TeachingCredential enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2387">
       <x:c r="A2387" s="2" t="str">
-        <x:v>TeachingCredentialMap</x:v>
+        <x:v>Telephone</x:v>
       </x:c>
       <x:c r="B2387" s="2" t="str">
-        <x:v>TeachingCredentialMapType</x:v>
+        <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2387" s="2" t="str">
-        <x:v>TeachingCredentialDescriptor</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D2387" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2387" s="2" t="str">
-        <x:v>The mapping to a known TeachingCredential enumeration type.</x:v>
+        <x:v>The 10-digit telephone number, including the area code, for the person.</x:v>
       </x:c>
     </x:row>
     <x:row r="2388">
@@ -42475,7 +42476,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2388" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D2388" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42493,10 +42494,11 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2389" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D2389" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2389" s="2" t="str">
@@ -42511,7 +42513,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2390" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2390" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42530,7 +42532,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2391" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D2391" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42549,7 +42551,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2392" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2392" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42568,7 +42570,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2393" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2393" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42587,7 +42589,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2394" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D2394" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42600,21 +42602,19 @@
     </x:row>
     <x:row r="2395">
       <x:c r="A2395" s="2" t="str">
+        <x:v>TelephoneNumber</x:v>
+      </x:c>
+      <x:c r="B2395" s="2" t="str">
+        <x:v>TelephoneNumber</x:v>
+      </x:c>
+      <x:c r="C2395" s="2" t="str">
         <x:v>Telephone</x:v>
       </x:c>
-      <x:c r="B2395" s="2" t="str">
-        <x:v>Telephone</x:v>
-      </x:c>
-      <x:c r="C2395" s="2" t="str">
-        <x:v>Parent</x:v>
-      </x:c>
       <x:c r="D2395" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2395" s="2" t="str">
-        <x:v>The 10-digit telephone number, including the area code, for the person.</x:v>
+        <x:v>The telephone number including the area code, and extension, if applicable.</x:v>
       </x:c>
     </x:row>
     <x:row r="2396">
@@ -42625,7 +42625,7 @@
         <x:v>TelephoneNumber</x:v>
       </x:c>
       <x:c r="C2396" s="2" t="str">
-        <x:v>Telephone</x:v>
+        <x:v>InstitutionTelephone</x:v>
       </x:c>
       <x:c r="D2396" s="2" t="str">
         <x:v/>
@@ -42636,41 +42636,42 @@
     </x:row>
     <x:row r="2397">
       <x:c r="A2397" s="2" t="str">
-        <x:v>TelephoneNumber</x:v>
+        <x:v>TelephoneNumberType</x:v>
       </x:c>
       <x:c r="B2397" s="2" t="str">
-        <x:v>TelephoneNumber</x:v>
+        <x:v>TelephoneNumberType</x:v>
       </x:c>
       <x:c r="C2397" s="2" t="str">
-        <x:v>InstitutionTelephone</x:v>
+        <x:v>Telephone</x:v>
       </x:c>
       <x:c r="D2397" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2397" s="2" t="str">
-        <x:v>The telephone number including the area code, and extension, if applicable.</x:v>
+        <x:v>The type of communication number listed for an individual or organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="2398">
       <x:c r="A2398" s="2" t="str">
-        <x:v>TelephoneNumberType</x:v>
+        <x:v>Tenured</x:v>
       </x:c>
       <x:c r="B2398" s="2" t="str">
-        <x:v>TelephoneNumberType</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2398" s="2" t="str">
-        <x:v>Telephone</x:v>
+        <x:v>EXTENSION-StaffExtension</x:v>
       </x:c>
       <x:c r="D2398" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2398" s="2" t="str">
-        <x:v>The type of communication number listed for an individual or organization.</x:v>
+        <x:v>Indicator of whether the staff member is tenured.</x:v>
       </x:c>
     </x:row>
     <x:row r="2399">
       <x:c r="A2399" s="2" t="str">
-        <x:v>Tenured</x:v>
+        <x:v>TenureTrack</x:v>
       </x:c>
       <x:c r="B2399" s="2" t="str">
         <x:v>xs:boolean</x:v>
@@ -42683,25 +42684,25 @@
 </x:v>
       </x:c>
       <x:c r="E2399" s="2" t="str">
-        <x:v>Indicator of whether the staff member is tenured.</x:v>
+        <x:v>An indication that the staff is on track for tenure.</x:v>
       </x:c>
     </x:row>
     <x:row r="2400">
       <x:c r="A2400" s="2" t="str">
-        <x:v>TenureTrack</x:v>
+        <x:v>Term</x:v>
       </x:c>
       <x:c r="B2400" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2400" s="2" t="str">
-        <x:v>EXTENSION-StaffExtension</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2400" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2400" s="2" t="str">
-        <x:v>An indication that the staff is on track for tenure.</x:v>
+        <x:v>The term in which the assessment was administered</x:v>
       </x:c>
     </x:row>
     <x:row r="2401">
@@ -42712,7 +42713,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2401" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
       </x:c>
       <x:c r="D2401" s="2" t="str">
         <x:v>minOccurs: 0
@@ -42730,14 +42731,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2402" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
+        <x:v>Session</x:v>
       </x:c>
       <x:c r="D2402" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2402" s="2" t="str">
-        <x:v>The term in which the assessment was administered</x:v>
+        <x:v>The term for the Session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2403">
@@ -42748,13 +42748,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2403" s="2" t="str">
-        <x:v>Session</x:v>
+        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2403" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2403" s="2" t="str">
-        <x:v>The term for the Session during the school year.</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2404">
@@ -42765,7 +42765,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2404" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
+        <x:v>StudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2404" s="2" t="str">
         <x:v/>
@@ -42782,13 +42782,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2405" s="2" t="str">
-        <x:v>StudentAcademicRecord</x:v>
+        <x:v>SessionIdentityType</x:v>
       </x:c>
       <x:c r="D2405" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2405" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The term for the Session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2406">
@@ -42799,10 +42799,11 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2406" s="2" t="str">
-        <x:v>SessionIdentityType</x:v>
+        <x:v>SessionLookupType</x:v>
       </x:c>
       <x:c r="D2406" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2406" s="2" t="str">
         <x:v>The term for the Session during the school year.</x:v>
@@ -42816,14 +42817,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2407" s="2" t="str">
-        <x:v>SessionLookupType</x:v>
+        <x:v>StudentAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2407" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2407" s="2" t="str">
-        <x:v>The term for the Session during the school year.</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2408">
@@ -42834,13 +42834,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2408" s="2" t="str">
-        <x:v>StudentAcademicRecordIdentityType</x:v>
+        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2408" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2408" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The term in which the assessment was administered</x:v>
       </x:c>
     </x:row>
     <x:row r="2409">
@@ -42851,14 +42852,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2409" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2409" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2409" s="2" t="str">
-        <x:v>The term in which the assessment was administered</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2410">
@@ -42869,7 +42869,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2410" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAcademicRecord</x:v>
+        <x:v>EXTENSION-PerformanceMeasure</x:v>
       </x:c>
       <x:c r="D2410" s="2" t="str">
         <x:v/>
@@ -42886,13 +42886,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2411" s="2" t="str">
-        <x:v>EXTENSION-PerformanceMeasure</x:v>
+        <x:v>EXTENSION-Survey</x:v>
       </x:c>
       <x:c r="D2411" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2411" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The Term the survey was given.</x:v>
       </x:c>
     </x:row>
     <x:row r="2412">
@@ -42903,14 +42904,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2412" s="2" t="str">
-        <x:v>EXTENSION-Survey</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="D2412" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2412" s="2" t="str">
-        <x:v>The Term the survey was given.</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2413">
@@ -42921,7 +42921,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2413" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2413" s="2" t="str">
         <x:v/>
@@ -42938,7 +42938,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2414" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAcademicRecordFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2414" s="2" t="str">
         <x:v/>
@@ -42955,7 +42955,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2415" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAcademicRecordFactsIdentityType</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFactsIdentityType</x:v>
       </x:c>
       <x:c r="D2415" s="2" t="str">
         <x:v/>
@@ -42972,7 +42972,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2416" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFactsIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2416" s="2" t="str">
         <x:v/>
@@ -42989,7 +42989,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2417" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2417" s="2" t="str">
         <x:v/>
@@ -43000,74 +43000,75 @@
     </x:row>
     <x:row r="2418">
       <x:c r="A2418" s="2" t="str">
-        <x:v>Term</x:v>
+        <x:v>TermMap</x:v>
       </x:c>
       <x:c r="B2418" s="2" t="str">
-        <x:v>TermDescriptorReferenceType</x:v>
+        <x:v>TermMapType</x:v>
       </x:c>
       <x:c r="C2418" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAcademicRecordIdentityType</x:v>
+        <x:v>TermDescriptor</x:v>
       </x:c>
       <x:c r="D2418" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2418" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The mapping to a known Term enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2419">
       <x:c r="A2419" s="2" t="str">
-        <x:v>TermMap</x:v>
+        <x:v>TextChoice</x:v>
       </x:c>
       <x:c r="B2419" s="2" t="str">
-        <x:v>TermMapType</x:v>
+        <x:v>EXTENSION-TextChoice</x:v>
       </x:c>
       <x:c r="C2419" s="2" t="str">
-        <x:v>TermDescriptor</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D2419" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2419" s="2" t="str">
-        <x:v>The mapping to a known Term enumeration type.</x:v>
+        <x:v>For radio buttons, checkboxes, dropdowns, matrix of drop downs - the list of choices.</x:v>
       </x:c>
     </x:row>
     <x:row r="2420">
       <x:c r="A2420" s="2" t="str">
-        <x:v>TextChoice</x:v>
+        <x:v>TextMessageCapabilityIndicator</x:v>
       </x:c>
       <x:c r="B2420" s="2" t="str">
-        <x:v>EXTENSION-TextChoice</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2420" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>Telephone</x:v>
       </x:c>
       <x:c r="D2420" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2420" s="2" t="str">
-        <x:v>For radio buttons, checkboxes, dropdowns, matrix of drop downs - the list of choices.</x:v>
+        <x:v>An indication that the telephone number is technically capable of sending and receiving Short Message Service (SMS) text messages.</x:v>
       </x:c>
     </x:row>
     <x:row r="2421">
       <x:c r="A2421" s="2" t="str">
-        <x:v>TextMessageCapabilityIndicator</x:v>
+        <x:v>TextResponse</x:v>
       </x:c>
       <x:c r="B2421" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
       <x:c r="C2421" s="2" t="str">
-        <x:v>Telephone</x:v>
+        <x:v>EXTENSION-RubricLevelResponse</x:v>
       </x:c>
       <x:c r="D2421" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2421" s="2" t="str">
-        <x:v>An indication that the telephone number is technically capable of sending and receiving Short Message Service (SMS) text messages.</x:v>
+        <x:v>The text response(s) for the question.</x:v>
       </x:c>
     </x:row>
     <x:row r="2422">
@@ -43078,7 +43079,7 @@
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
       <x:c r="C2422" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D2422" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43096,7 +43097,7 @@
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
       <x:c r="C2423" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D2423" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43108,172 +43109,172 @@
     </x:row>
     <x:row r="2424">
       <x:c r="A2424" s="2" t="str">
-        <x:v>TextResponse</x:v>
+        <x:v>ThemeType</x:v>
       </x:c>
       <x:c r="B2424" s="2" t="str">
-        <x:v>EXTENSION-TextResponse</x:v>
+        <x:v>EXTENSION-ThemeTypeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2424" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-RubricLevel</x:v>
       </x:c>
       <x:c r="D2424" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2424" s="2" t="str">
-        <x:v>The text response(s) for the question.</x:v>
+        <x:v>The theme of the specified level of the rubric.</x:v>
       </x:c>
     </x:row>
     <x:row r="2425">
       <x:c r="A2425" s="2" t="str">
-        <x:v>ThemeType</x:v>
+        <x:v>ThemeTypeMap</x:v>
       </x:c>
       <x:c r="B2425" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-ThemeTypeMapType</x:v>
       </x:c>
       <x:c r="C2425" s="2" t="str">
-        <x:v>EXTENSION-RubricLevel</x:v>
+        <x:v>EXTENSION-ThemeTypeDescriptor</x:v>
       </x:c>
       <x:c r="D2425" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2425" s="2" t="str">
-        <x:v>The theme of the specified level of the rubric.</x:v>
+        <x:v>The mapping to a known ThemeType enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2426">
       <x:c r="A2426" s="2" t="str">
-        <x:v>ThemeTypeMap</x:v>
+        <x:v>TimeAssessed</x:v>
       </x:c>
       <x:c r="B2426" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeMapType</x:v>
+        <x:v>TimeInterval</x:v>
       </x:c>
       <x:c r="C2426" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptor</x:v>
+        <x:v>StudentAssessmentItem</x:v>
       </x:c>
       <x:c r="D2426" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2426" s="2" t="str">
-        <x:v>The mapping to a known ThemeType enumeration type.</x:v>
+        <x:v>The overall time a student actually spent during the AssessmentItem.</x:v>
       </x:c>
     </x:row>
     <x:row r="2427">
       <x:c r="A2427" s="2" t="str">
-        <x:v>TimeAssessed</x:v>
+        <x:v>TimeOfPerformanceMeasure</x:v>
       </x:c>
       <x:c r="B2427" s="2" t="str">
-        <x:v>TimeInterval</x:v>
+        <x:v>xs:time</x:v>
       </x:c>
       <x:c r="C2427" s="2" t="str">
-        <x:v>StudentAssessmentItem</x:v>
+        <x:v>EXTENSION-PerformanceMeasure</x:v>
       </x:c>
       <x:c r="D2427" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2427" s="2" t="str">
-        <x:v>The overall time a student actually spent during the AssessmentItem.</x:v>
+        <x:v>An indication of the the time at which the performance measure was conducted.</x:v>
       </x:c>
     </x:row>
     <x:row r="2428">
       <x:c r="A2428" s="2" t="str">
-        <x:v>TimeOfPerformanceMeasure</x:v>
+        <x:v>TimeRequired</x:v>
       </x:c>
       <x:c r="B2428" s="2" t="str">
-        <x:v>xs:time</x:v>
+        <x:v>TimeInterval</x:v>
       </x:c>
       <x:c r="C2428" s="2" t="str">
-        <x:v>EXTENSION-PerformanceMeasure</x:v>
+        <x:v>EducationContent</x:v>
       </x:c>
       <x:c r="D2428" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2428" s="2" t="str">
-        <x:v>An indication of the the time at which the performance measure was conducted.</x:v>
+        <x:v>Approximate or typical time it takes to work with or through this learning resource for the typical intended target audience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2429">
       <x:c r="A2429" s="2" t="str">
-        <x:v>TimeRequired</x:v>
+        <x:v>TimeRequiredForCompletion</x:v>
       </x:c>
       <x:c r="B2429" s="2" t="str">
-        <x:v>TimeInterval</x:v>
+        <x:v>Duration</x:v>
       </x:c>
       <x:c r="C2429" s="2" t="str">
-        <x:v>EducationContent</x:v>
+        <x:v>Course</x:v>
       </x:c>
       <x:c r="D2429" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2429" s="2" t="str">
-        <x:v>Approximate or typical time it takes to work with or through this learning resource for the typical intended target audience.</x:v>
+        <x:v>The actual or estimated number of clock minutes required for class completion.  This number is especially important for career and technical education classes and may represent (in minutes) the clock hour requirement of the class.</x:v>
       </x:c>
     </x:row>
     <x:row r="2430">
       <x:c r="A2430" s="2" t="str">
-        <x:v>TimeRequiredForCompletion</x:v>
+        <x:v>Title</x:v>
       </x:c>
       <x:c r="B2430" s="2" t="str">
-        <x:v>Duration</x:v>
+        <x:v>ContentStandardTitle</x:v>
       </x:c>
       <x:c r="C2430" s="2" t="str">
-        <x:v>Course</x:v>
+        <x:v>ContentStandard</x:v>
       </x:c>
       <x:c r="D2430" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2430" s="2" t="str">
-        <x:v>The actual or estimated number of clock minutes required for class completion.  This number is especially important for career and technical education classes and may represent (in minutes) the clock hour requirement of the class.</x:v>
+        <x:v>The name of the content standard, for example Common Core.</x:v>
       </x:c>
     </x:row>
     <x:row r="2431">
       <x:c r="A2431" s="2" t="str">
-        <x:v>Title</x:v>
+        <x:v>TitleIEnrollment</x:v>
       </x:c>
       <x:c r="B2431" s="2" t="str">
-        <x:v>ContentStandardTitle</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C2431" s="2" t="str">
-        <x:v>ContentStandard</x:v>
+        <x:v>EXTENSION-AnonymizedStudent</x:v>
       </x:c>
       <x:c r="D2431" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2431" s="2" t="str">
-        <x:v>The name of the content standard, for example Common Core.</x:v>
+        <x:v>Data about the enrollment in Title I of the student</x:v>
       </x:c>
     </x:row>
     <x:row r="2432">
       <x:c r="A2432" s="2" t="str">
-        <x:v>TitleIEnrollment</x:v>
+        <x:v>TitleIEnrollmentNumber</x:v>
       </x:c>
       <x:c r="B2432" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2432" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudent</x:v>
+        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
       </x:c>
       <x:c r="D2432" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2432" s="2" t="str">
-        <x:v>Data about the enrollment in Title I of the student</x:v>
+        <x:v>The number of students eligible for Title I</x:v>
       </x:c>
     </x:row>
     <x:row r="2433">
       <x:c r="A2433" s="2" t="str">
-        <x:v>TitleIEnrollmentNumber</x:v>
+        <x:v>TitleIEnrollmentPercentage</x:v>
       </x:c>
       <x:c r="B2433" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Percent</x:v>
       </x:c>
       <x:c r="C2433" s="2" t="str">
         <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
@@ -43283,41 +43284,23 @@
 </x:v>
       </x:c>
       <x:c r="E2433" s="2" t="str">
-        <x:v>The number of students eligible for Title I</x:v>
+        <x:v>The percentage of student who are Title I eligible</x:v>
       </x:c>
     </x:row>
     <x:row r="2434">
       <x:c r="A2434" s="2" t="str">
-        <x:v>TitleIEnrollmentPercentage</x:v>
+        <x:v>TitleIPartAParticipant</x:v>
       </x:c>
       <x:c r="B2434" s="2" t="str">
-        <x:v>Percent</x:v>
+        <x:v>TitleIPartAParticipantType</x:v>
       </x:c>
       <x:c r="C2434" s="2" t="str">
-        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
+        <x:v>StudentTitleIPartAProgramAssociation</x:v>
       </x:c>
       <x:c r="D2434" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2434" s="2" t="str">
-        <x:v>The percentage of student who are Title I eligible</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2435">
-      <x:c r="A2435" s="2" t="str">
-        <x:v>TitleIPartAParticipant</x:v>
-      </x:c>
-      <x:c r="B2435" s="2" t="str">
-        <x:v>TitleIPartAParticipantType</x:v>
-      </x:c>
-      <x:c r="C2435" s="2" t="str">
-        <x:v>StudentTitleIPartAProgramAssociation</x:v>
-      </x:c>
-      <x:c r="D2435" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E2435" s="2" t="str">
         <x:v>An indication of the type of Title I program, if any, in which the student is participating and by which the student is served:
         Public Targeted Assistance Program 
         Public Schoolwide Program
@@ -43325,22 +43308,40 @@
         Local Neglected Program.</x:v>
       </x:c>
     </x:row>
+    <x:row r="2435">
+      <x:c r="A2435" s="2" t="str">
+        <x:v>TitleIPartASchoolDesignation</x:v>
+      </x:c>
+      <x:c r="B2435" s="2" t="str">
+        <x:v>TitleIPartASchoolDesignationType</x:v>
+      </x:c>
+      <x:c r="C2435" s="2" t="str">
+        <x:v>School</x:v>
+      </x:c>
+      <x:c r="D2435" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E2435" s="2" t="str">
+        <x:v>Denotes the Title I Part A designation for the school.</x:v>
+      </x:c>
+    </x:row>
     <x:row r="2436">
       <x:c r="A2436" s="2" t="str">
-        <x:v>TitleIPartASchoolDesignation</x:v>
+        <x:v>TotalHours</x:v>
       </x:c>
       <x:c r="B2436" s="2" t="str">
-        <x:v>TitleIPartASchoolDesignationType</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2436" s="2" t="str">
-        <x:v>School</x:v>
+        <x:v>EXTENSION-ProfessionalDevelopmentAttendanceEvent</x:v>
       </x:c>
       <x:c r="D2436" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2436" s="2" t="str">
-        <x:v>Denotes the Title I Part A designation for the school.</x:v>
+        <x:v>The number of total hours the professional development contains.</x:v>
       </x:c>
     </x:row>
     <x:row r="2437">
@@ -43351,7 +43352,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2437" s="2" t="str">
-        <x:v>EXTENSION-ProfessionalDevelopmentAttendanceEvent</x:v>
+        <x:v>EXTENSION-ProfessionalDevelopmentEvent</x:v>
       </x:c>
       <x:c r="D2437" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43363,20 +43364,19 @@
     </x:row>
     <x:row r="2438">
       <x:c r="A2438" s="2" t="str">
-        <x:v>TotalHours</x:v>
+        <x:v>TotalInstructionalDays</x:v>
       </x:c>
       <x:c r="B2438" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2438" s="2" t="str">
-        <x:v>EXTENSION-ProfessionalDevelopmentEvent</x:v>
+        <x:v>AcademicWeek</x:v>
       </x:c>
       <x:c r="D2438" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2438" s="2" t="str">
-        <x:v>The number of total hours the professional development contains.</x:v>
+        <x:v>The total instructional days during the academic week.</x:v>
       </x:c>
     </x:row>
     <x:row r="2439">
@@ -43387,13 +43387,13 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2439" s="2" t="str">
-        <x:v>AcademicWeek</x:v>
+        <x:v>Session</x:v>
       </x:c>
       <x:c r="D2439" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2439" s="2" t="str">
-        <x:v>The total instructional days during the academic week.</x:v>
+        <x:v>The total number of instructional days in the school calendar.</x:v>
       </x:c>
     </x:row>
     <x:row r="2440">
@@ -43401,112 +43401,112 @@
         <x:v>TotalInstructionalDays</x:v>
       </x:c>
       <x:c r="B2440" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>TotalInstructionalDays</x:v>
       </x:c>
       <x:c r="C2440" s="2" t="str">
-        <x:v>Session</x:v>
+        <x:v>GradingPeriod</x:v>
       </x:c>
       <x:c r="D2440" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2440" s="2" t="str">
-        <x:v>The total number of instructional days in the school calendar.</x:v>
+        <x:v>Total days available for educational instruction during the GradingPeriod.</x:v>
       </x:c>
     </x:row>
     <x:row r="2441">
       <x:c r="A2441" s="2" t="str">
-        <x:v>TotalInstructionalDays</x:v>
+        <x:v>TotalNumberInClass</x:v>
       </x:c>
       <x:c r="B2441" s="2" t="str">
-        <x:v>TotalInstructionalDays</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2441" s="2" t="str">
-        <x:v>GradingPeriod</x:v>
+        <x:v>ClassRanking</x:v>
       </x:c>
       <x:c r="D2441" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2441" s="2" t="str">
-        <x:v>Total days available for educational instruction during the GradingPeriod.</x:v>
+        <x:v>The total number of students in the student's graduating class.</x:v>
       </x:c>
     </x:row>
     <x:row r="2442">
       <x:c r="A2442" s="2" t="str">
-        <x:v>TotalNumberInClass</x:v>
+        <x:v>TotalRequiredCredits</x:v>
       </x:c>
       <x:c r="B2442" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Credits</x:v>
       </x:c>
       <x:c r="C2442" s="2" t="str">
-        <x:v>ClassRanking</x:v>
+        <x:v>GraduationPlan</x:v>
       </x:c>
       <x:c r="D2442" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2442" s="2" t="str">
-        <x:v>The total number of students in the student's graduating class.</x:v>
+        <x:v>The total number of credits required for graduation under this plan.</x:v>
       </x:c>
     </x:row>
     <x:row r="2443">
       <x:c r="A2443" s="2" t="str">
-        <x:v>TotalRequiredCredits</x:v>
+        <x:v>TotalStudentsDisabled</x:v>
       </x:c>
       <x:c r="B2443" s="2" t="str">
-        <x:v>Credits</x:v>
+        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
       </x:c>
       <x:c r="C2443" s="2" t="str">
-        <x:v>GraduationPlan</x:v>
+        <x:v>EXTENSION-AggregatedDisability</x:v>
       </x:c>
       <x:c r="D2443" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2443" s="2" t="str">
-        <x:v>The total number of credits required for graduation under this plan.</x:v>
+        <x:v>Information about the total number of students with a disability.</x:v>
       </x:c>
     </x:row>
     <x:row r="2444">
       <x:c r="A2444" s="2" t="str">
-        <x:v>TotalStudentsDisabled</x:v>
+        <x:v>Touchpoint</x:v>
       </x:c>
       <x:c r="B2444" s="2" t="str">
-        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
+        <x:v>EXTENSION-Touchpoint</x:v>
       </x:c>
       <x:c r="C2444" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisability</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D2444" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2444" s="2" t="str">
-        <x:v>Information about the total number of students with a disability.</x:v>
+        <x:v>Content associated with different touchpoints with the prospect.</x:v>
       </x:c>
     </x:row>
     <x:row r="2445">
       <x:c r="A2445" s="2" t="str">
-        <x:v>Touchpoint</x:v>
+        <x:v>TouchpointContent</x:v>
       </x:c>
       <x:c r="B2445" s="2" t="str">
+        <x:v>EXTENSION-TouchpointContent</x:v>
+      </x:c>
+      <x:c r="C2445" s="2" t="str">
         <x:v>EXTENSION-Touchpoint</x:v>
       </x:c>
-      <x:c r="C2445" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
-      </x:c>
       <x:c r="D2445" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2445" s="2" t="str">
-        <x:v>Content associated with different touchpoints with the prospect.</x:v>
+        <x:v>The content associated with or an artifact from the touchpoint.</x:v>
       </x:c>
     </x:row>
     <x:row r="2446">
       <x:c r="A2446" s="2" t="str">
-        <x:v>TouchpointContent</x:v>
+        <x:v>TouchpointDate</x:v>
       </x:c>
       <x:c r="B2446" s="2" t="str">
-        <x:v>EXTENSION-TouchpointContent</x:v>
+        <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C2446" s="2" t="str">
         <x:v>EXTENSION-Touchpoint</x:v>
@@ -43515,24 +43515,24 @@
         <x:v/>
       </x:c>
       <x:c r="E2446" s="2" t="str">
-        <x:v>The content associated with or an artifact from the touchpoint.</x:v>
+        <x:v>The date of the touchpoint.</x:v>
       </x:c>
     </x:row>
     <x:row r="2447">
       <x:c r="A2447" s="2" t="str">
-        <x:v>TouchpointDate</x:v>
+        <x:v>TPPDegreeType</x:v>
       </x:c>
       <x:c r="B2447" s="2" t="str">
-        <x:v>xs:date</x:v>
+        <x:v>EXTENSION-TPPDegreeTypeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2447" s="2" t="str">
-        <x:v>EXTENSION-Touchpoint</x:v>
+        <x:v>EXTENSION-TPPProgramDegree</x:v>
       </x:c>
       <x:c r="D2447" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2447" s="2" t="str">
-        <x:v>The date of the touchpoint.</x:v>
+        <x:v>A code for describing the degree type that a teacher candidate accomplishes.</x:v>
       </x:c>
     </x:row>
     <x:row r="2448">
@@ -43543,119 +43543,120 @@
         <x:v>EXTENSION-TPPDegreeTypeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2448" s="2" t="str">
-        <x:v>EXTENSION-TPPProgramDegree</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="D2448" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2448" s="2" t="str">
-        <x:v>A code for describing the degree type that a teacher candidate accomplishes.</x:v>
+        <x:v>The degree type that a teacher candidate accomplishes.</x:v>
       </x:c>
     </x:row>
     <x:row r="2449">
       <x:c r="A2449" s="2" t="str">
-        <x:v>TPPDegreeType</x:v>
+        <x:v>TPPDegreeTypeMap</x:v>
       </x:c>
       <x:c r="B2449" s="2" t="str">
-        <x:v>EXTENSION-TPPDegreeTypeDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-TPPDegreeTypeMapType</x:v>
       </x:c>
       <x:c r="C2449" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
+        <x:v>EXTENSION-TPPDegreeTypeDescriptor</x:v>
       </x:c>
       <x:c r="D2449" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2449" s="2" t="str">
-        <x:v>The degree type that a teacher candidate accomplishes.</x:v>
+        <x:v>The mapping to a known TPPDegreeType enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2450">
       <x:c r="A2450" s="2" t="str">
-        <x:v>TPPDegreeTypeMap</x:v>
+        <x:v>TPPProgramDegree</x:v>
       </x:c>
       <x:c r="B2450" s="2" t="str">
-        <x:v>EXTENSION-TPPDegreeTypeMapType</x:v>
+        <x:v>EXTENSION-TPPProgramDegree</x:v>
       </x:c>
       <x:c r="C2450" s="2" t="str">
-        <x:v>EXTENSION-TPPDegreeTypeDescriptor</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderProgram</x:v>
       </x:c>
       <x:c r="D2450" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2450" s="2" t="str">
-        <x:v>The mapping to a known TPPDegreeType enumeration type.</x:v>
+        <x:v>Details of the degree.</x:v>
       </x:c>
     </x:row>
     <x:row r="2451">
       <x:c r="A2451" s="2" t="str">
-        <x:v>TPPProgramDegree</x:v>
+        <x:v>TPPProgramPathway</x:v>
       </x:c>
       <x:c r="B2451" s="2" t="str">
-        <x:v>EXTENSION-TPPProgramDegree</x:v>
+        <x:v>EXTENSION-TPPProgramPathwayDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2451" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProviderProgram</x:v>
       </x:c>
       <x:c r="D2451" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2451" s="2" t="str">
-        <x:v>Details of the degree.</x:v>
+        <x:v>A code for describing the program pathway, for example: Residency, Internship, Traditional</x:v>
       </x:c>
     </x:row>
     <x:row r="2452">
       <x:c r="A2452" s="2" t="str">
-        <x:v>TPPProgramPathway</x:v>
+        <x:v>TPPProgramPathwayMap</x:v>
       </x:c>
       <x:c r="B2452" s="2" t="str">
-        <x:v>EXTENSION-TPPProgramPathwayDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-TPPProgramPathwayMapType</x:v>
       </x:c>
       <x:c r="C2452" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderProgram</x:v>
+        <x:v>EXTENSION-TPPProgramPathwayDescriptor</x:v>
       </x:c>
       <x:c r="D2452" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2452" s="2" t="str">
-        <x:v>A code for describing the program pathway, for example: Residency, Internship, Traditional</x:v>
+        <x:v>The mapping to a known TPPProgramPathway enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2453">
       <x:c r="A2453" s="2" t="str">
-        <x:v>TPPProgramPathwayMap</x:v>
+        <x:v>TuitionCost</x:v>
       </x:c>
       <x:c r="B2453" s="2" t="str">
-        <x:v>EXTENSION-TPPProgramPathwayMapType</x:v>
+        <x:v>Currency</x:v>
       </x:c>
       <x:c r="C2453" s="2" t="str">
-        <x:v>EXTENSION-TPPProgramPathwayDescriptor</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2453" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2453" s="2" t="str">
-        <x:v>The mapping to a known TPPProgramPathway enumeration type.</x:v>
+        <x:v>The tuition for a person's participation in a program, service. or course.</x:v>
       </x:c>
     </x:row>
     <x:row r="2454">
       <x:c r="A2454" s="2" t="str">
-        <x:v>TuitionCost</x:v>
+        <x:v>TypeNumber</x:v>
       </x:c>
       <x:c r="B2454" s="2" t="str">
-        <x:v>Currency</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2454" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-DisabilityByType</x:v>
       </x:c>
       <x:c r="D2454" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2454" s="2" t="str">
-        <x:v>The tuition for a person's participation in a program, service. or course.</x:v>
+        <x:v>The number of student who have a disability by disability type</x:v>
       </x:c>
     </x:row>
     <x:row r="2455">
@@ -43666,19 +43667,19 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2455" s="2" t="str">
-        <x:v>EXTENSION-DisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
       </x:c>
       <x:c r="D2455" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2455" s="2" t="str">
-        <x:v>The number of student who have a disability by disability type</x:v>
+        <x:v>The number of students eligibile for SchoolFoodServicesEligibility by category</x:v>
       </x:c>
     </x:row>
     <x:row r="2456">
       <x:c r="A2456" s="2" t="str">
-        <x:v>TypeNumber</x:v>
+        <x:v>TypePercentage</x:v>
       </x:c>
       <x:c r="B2456" s="2" t="str">
         <x:v>xs:int</x:v>
@@ -43691,25 +43692,24 @@
 </x:v>
       </x:c>
       <x:c r="E2456" s="2" t="str">
-        <x:v>The number of students eligibile for SchoolFoodServicesEligibility by category</x:v>
+        <x:v>The percentage of student who are eligible for SchoolFoodServicesEligibility by type</x:v>
       </x:c>
     </x:row>
     <x:row r="2457">
       <x:c r="A2457" s="2" t="str">
-        <x:v>TypePercentage</x:v>
+        <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="B2457" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2457" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
+        <x:v>Section</x:v>
       </x:c>
       <x:c r="D2457" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2457" s="2" t="str">
-        <x:v>The percentage of student who are eligible for SchoolFoodServicesEligibility by type</x:v>
+        <x:v>A unique identifier for the Section that is defined by the classroom, the subjects taught, and the instructors who are assigned.</x:v>
       </x:c>
     </x:row>
     <x:row r="2458">
@@ -43720,7 +43720,7 @@
         <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2458" s="2" t="str">
-        <x:v>Section</x:v>
+        <x:v>SectionIdentityType</x:v>
       </x:c>
       <x:c r="D2458" s="2" t="str">
         <x:v/>
@@ -43737,10 +43737,11 @@
         <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2459" s="2" t="str">
-        <x:v>SectionIdentityType</x:v>
+        <x:v>SectionLookupType</x:v>
       </x:c>
       <x:c r="D2459" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2459" s="2" t="str">
         <x:v>A unique identifier for the Section that is defined by the classroom, the subjects taught, and the instructors who are assigned.</x:v>
@@ -43748,20 +43749,19 @@
     </x:row>
     <x:row r="2460">
       <x:c r="A2460" s="2" t="str">
-        <x:v>UniqueSectionCode</x:v>
+        <x:v>UniversityId</x:v>
       </x:c>
       <x:c r="B2460" s="2" t="str">
-        <x:v>UniqueSectionCode</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2460" s="2" t="str">
-        <x:v>SectionLookupType</x:v>
+        <x:v>EXTENSION-UniversityIdentityType</x:v>
       </x:c>
       <x:c r="D2460" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2460" s="2" t="str">
-        <x:v>A unique identifier for the Section that is defined by the classroom, the subjects taught, and the instructors who are assigned.</x:v>
+        <x:v>The unique identification code of the University</x:v>
       </x:c>
     </x:row>
     <x:row r="2461">
@@ -43772,7 +43772,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2461" s="2" t="str">
-        <x:v>EXTENSION-UniversityIdentityType</x:v>
+        <x:v>EXTENSION-University</x:v>
       </x:c>
       <x:c r="D2461" s="2" t="str">
         <x:v/>
@@ -43783,55 +43783,56 @@
     </x:row>
     <x:row r="2462">
       <x:c r="A2462" s="2" t="str">
-        <x:v>UniversityId</x:v>
+        <x:v>UniversityIdentity</x:v>
       </x:c>
       <x:c r="B2462" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>EXTENSION-UniversityIdentityType</x:v>
       </x:c>
       <x:c r="C2462" s="2" t="str">
-        <x:v>EXTENSION-University</x:v>
+        <x:v>EXTENSION-UniversityReferenceType</x:v>
       </x:c>
       <x:c r="D2462" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2462" s="2" t="str">
-        <x:v>The unique identification code of the University</x:v>
+        <x:v>Encapsulates primary attributes that can be used to look up the identity of an University.</x:v>
       </x:c>
     </x:row>
     <x:row r="2463">
       <x:c r="A2463" s="2" t="str">
-        <x:v>UniversityIdentity</x:v>
+        <x:v>UniversityReference</x:v>
       </x:c>
       <x:c r="B2463" s="2" t="str">
-        <x:v>EXTENSION-UniversityIdentityType</x:v>
+        <x:v>EXTENSION-UniversityReferenceType</x:v>
       </x:c>
       <x:c r="C2463" s="2" t="str">
-        <x:v>EXTENSION-UniversityReferenceType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
       </x:c>
       <x:c r="D2463" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2463" s="2" t="str">
-        <x:v>Encapsulates primary attributes that can be used to look up the identity of an University.</x:v>
+        <x:v>The post secondary institution of which the teacher preparation provider is a component of.</x:v>
       </x:c>
     </x:row>
     <x:row r="2464">
       <x:c r="A2464" s="2" t="str">
-        <x:v>UniversityReference</x:v>
+        <x:v>URI</x:v>
       </x:c>
       <x:c r="B2464" s="2" t="str">
-        <x:v>EXTENSION-UniversityReferenceType</x:v>
+        <x:v>URI</x:v>
       </x:c>
       <x:c r="C2464" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
+        <x:v>LearningStandard</x:v>
       </x:c>
       <x:c r="D2464" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2464" s="2" t="str">
-        <x:v>The post secondary institution of which the teacher preparation provider is a component of.</x:v>
+        <x:v>An unambiguous reference to the statement using a network-resolvable URI.</x:v>
       </x:c>
     </x:row>
     <x:row r="2465">
@@ -43842,14 +43843,14 @@
         <x:v>URI</x:v>
       </x:c>
       <x:c r="C2465" s="2" t="str">
-        <x:v>LearningStandard</x:v>
+        <x:v>ContentStandard</x:v>
       </x:c>
       <x:c r="D2465" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2465" s="2" t="str">
-        <x:v>An unambiguous reference to the statement using a network-resolvable URI.</x:v>
+        <x:v>An unambiguous reference to the standards using a network-resolvable URI.</x:v>
       </x:c>
     </x:row>
     <x:row r="2466">
@@ -43860,74 +43861,74 @@
         <x:v>URI</x:v>
       </x:c>
       <x:c r="C2466" s="2" t="str">
-        <x:v>ContentStandard</x:v>
+        <x:v>EducationContentSource</x:v>
       </x:c>
       <x:c r="D2466" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2466" s="2" t="str">
-        <x:v>An unambiguous reference to the standards using a network-resolvable URI.</x:v>
+        <x:v>The URI (typical a URL) pointing to an education content item.</x:v>
       </x:c>
     </x:row>
     <x:row r="2467">
       <x:c r="A2467" s="2" t="str">
-        <x:v>URI</x:v>
+        <x:v>USCitizenshipIdentificationDocument</x:v>
       </x:c>
       <x:c r="B2467" s="2" t="str">
-        <x:v>URI</x:v>
+        <x:v>IdentificationDocument</x:v>
       </x:c>
       <x:c r="C2467" s="2" t="str">
-        <x:v>EducationContentSource</x:v>
+        <x:v>Citizenship</x:v>
       </x:c>
       <x:c r="D2467" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
+        <x:v>maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2467" s="2" t="str">
-        <x:v>The URI (typical a URL) pointing to an education content item.</x:v>
+        <x:v>Describe the probationary documentation of US citizenship.</x:v>
       </x:c>
     </x:row>
     <x:row r="2468">
       <x:c r="A2468" s="2" t="str">
-        <x:v>USCitizenshipIdentificationDocument</x:v>
+        <x:v>UseRightsURL</x:v>
       </x:c>
       <x:c r="B2468" s="2" t="str">
-        <x:v>IdentificationDocument</x:v>
+        <x:v>URI</x:v>
       </x:c>
       <x:c r="C2468" s="2" t="str">
-        <x:v>Citizenship</x:v>
+        <x:v>EducationContent</x:v>
       </x:c>
       <x:c r="D2468" s="2" t="str">
-        <x:v>maxOccurs: unbounded
+        <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2468" s="2" t="str">
-        <x:v>Describe the probationary documentation of US citizenship.</x:v>
+        <x:v>The URL where the owner specifies permissions for using the resource.</x:v>
       </x:c>
     </x:row>
     <x:row r="2469">
       <x:c r="A2469" s="2" t="str">
-        <x:v>UseRightsURL</x:v>
+        <x:v>USInitialEntry</x:v>
       </x:c>
       <x:c r="B2469" s="2" t="str">
-        <x:v>URI</x:v>
+        <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C2469" s="2" t="str">
-        <x:v>EducationContent</x:v>
+        <x:v>StudentMigrantEducationProgramAssociation</x:v>
       </x:c>
       <x:c r="D2469" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2469" s="2" t="str">
-        <x:v>The URL where the owner specifies permissions for using the resource.</x:v>
+        <x:v>The month, day, and year on which the Student first entered the U.S.</x:v>
       </x:c>
     </x:row>
     <x:row r="2470">
       <x:c r="A2470" s="2" t="str">
-        <x:v>USInitialEntry</x:v>
+        <x:v>USInitialSchoolEntry</x:v>
       </x:c>
       <x:c r="B2470" s="2" t="str">
         <x:v>xs:date</x:v>
@@ -43940,12 +43941,12 @@
 </x:v>
       </x:c>
       <x:c r="E2470" s="2" t="str">
-        <x:v>The month, day, and year on which the Student first entered the U.S.</x:v>
+        <x:v>The month, day, and year on which the Student first entered a U.S. school.</x:v>
       </x:c>
     </x:row>
     <x:row r="2471">
       <x:c r="A2471" s="2" t="str">
-        <x:v>USInitialSchoolEntry</x:v>
+        <x:v>USMostRecentEntry</x:v>
       </x:c>
       <x:c r="B2471" s="2" t="str">
         <x:v>xs:date</x:v>
@@ -43958,43 +43959,43 @@
 </x:v>
       </x:c>
       <x:c r="E2471" s="2" t="str">
-        <x:v>The month, day, and year on which the Student first entered a U.S. school.</x:v>
+        <x:v>The month, day, and year of the Student's most recent entry into the U.S.</x:v>
       </x:c>
     </x:row>
     <x:row r="2472">
       <x:c r="A2472" s="2" t="str">
-        <x:v>USMostRecentEntry</x:v>
+        <x:v>Vacancies</x:v>
       </x:c>
       <x:c r="B2472" s="2" t="str">
-        <x:v>xs:date</x:v>
+        <x:v>EXTENSION-Vacancies</x:v>
       </x:c>
       <x:c r="C2472" s="2" t="str">
-        <x:v>StudentMigrantEducationProgramAssociation</x:v>
+        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
       </x:c>
       <x:c r="D2472" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2472" s="2" t="str">
-        <x:v>The month, day, and year of the Student's most recent entry into the U.S.</x:v>
+        <x:v>(TPDP Extension) This entity represents actual and projected vacancies for the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="2473">
       <x:c r="A2473" s="2" t="str">
-        <x:v>Vacancies</x:v>
+        <x:v>ValueType</x:v>
       </x:c>
       <x:c r="B2473" s="2" t="str">
-        <x:v>EXTENSION-Vacancies</x:v>
+        <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2473" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
+        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
       </x:c>
       <x:c r="D2473" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2473" s="2" t="str">
-        <x:v>(TPDP Extension) This entity represents actual and projected vacancies for the education organization.</x:v>
+        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
       </x:c>
     </x:row>
     <x:row r="2474">
@@ -44005,7 +44006,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2474" s="2" t="str">
-        <x:v>EXTENSION-TotalStudentsDisabled</x:v>
+        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
       </x:c>
       <x:c r="D2474" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44023,7 +44024,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2475" s="2" t="str">
-        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
+        <x:v>EXTENSION-AggregatedSPED</x:v>
       </x:c>
       <x:c r="D2475" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44041,7 +44042,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2476" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSPED</x:v>
+        <x:v>EXTENSION-AggregatedSex</x:v>
       </x:c>
       <x:c r="D2476" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44059,7 +44060,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2477" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSex</x:v>
+        <x:v>EXTENSION-AggregatedSection504Enrollment</x:v>
       </x:c>
       <x:c r="D2477" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44077,7 +44078,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2478" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSection504Enrollment</x:v>
+        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
       </x:c>
       <x:c r="D2478" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44095,7 +44096,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2479" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
+        <x:v>EXTENSION-AggregatedRace</x:v>
       </x:c>
       <x:c r="D2479" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44113,7 +44114,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2480" s="2" t="str">
-        <x:v>EXTENSION-AggregatedRace</x:v>
+        <x:v>EXTENSION-AggregatedLanguage</x:v>
       </x:c>
       <x:c r="D2480" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44131,7 +44132,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2481" s="2" t="str">
-        <x:v>EXTENSION-AggregatedLanguage</x:v>
+        <x:v>EXTENSION-AggregatedHispanicLatinoEthnicity</x:v>
       </x:c>
       <x:c r="D2481" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44149,7 +44150,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2482" s="2" t="str">
-        <x:v>EXTENSION-AggregatedHispanicLatinoEthnicity</x:v>
+        <x:v>EXTENSION-AggregatedGender</x:v>
       </x:c>
       <x:c r="D2482" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44167,7 +44168,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2483" s="2" t="str">
-        <x:v>EXTENSION-AggregatedGender</x:v>
+        <x:v>EXTENSION-AggregatedESLEnrollment</x:v>
       </x:c>
       <x:c r="D2483" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44185,7 +44186,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2484" s="2" t="str">
-        <x:v>EXTENSION-AggregatedESLEnrollment</x:v>
+        <x:v>EXTENSION-AggregatedELLEnrollment</x:v>
       </x:c>
       <x:c r="D2484" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44203,11 +44204,10 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2485" s="2" t="str">
-        <x:v>EXTENSION-AggregatedELLEnrollment</x:v>
+        <x:v>EXTENSION-CredentialExtension</x:v>
       </x:c>
       <x:c r="D2485" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2485" s="2" t="str">
         <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
@@ -44221,13 +44221,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2486" s="2" t="str">
-        <x:v>EXTENSION-CredentialExtension</x:v>
+        <x:v>EXTENSION-AnonymizedStudent</x:v>
       </x:c>
       <x:c r="D2486" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2486" s="2" t="str">
-        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
+        <x:v>Domain entity to collect data for indiviudal students with whom the teacher candidate is associated through field work or student teaching</x:v>
       </x:c>
     </x:row>
     <x:row r="2487">
@@ -44238,14 +44239,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2487" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudent</x:v>
+        <x:v>EXTENSION-Vacancies</x:v>
       </x:c>
       <x:c r="D2487" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2487" s="2" t="str">
-        <x:v>Domain entity to collect data for indiviudal students with whom the teacher candidate is associated through field work or student teaching</x:v>
+        <x:v>The type (i.e. actual or projected) of value.</x:v>
       </x:c>
     </x:row>
     <x:row r="2488">
@@ -44256,14 +44257,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2488" s="2" t="str">
-        <x:v>EXTENSION-Vacancies</x:v>
+        <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="D2488" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2488" s="2" t="str">
-        <x:v>The type (i.e. actual or projected) of value.</x:v>
+        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
       </x:c>
     </x:row>
     <x:row r="2489">
@@ -44274,7 +44275,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2489" s="2" t="str">
-        <x:v>EXTENSION-StudentsEnrolled</x:v>
+        <x:v>EXTENSION-DisabilityByType</x:v>
       </x:c>
       <x:c r="D2489" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44286,20 +44287,19 @@
     </x:row>
     <x:row r="2490">
       <x:c r="A2490" s="2" t="str">
-        <x:v>ValueType</x:v>
+        <x:v>Version</x:v>
       </x:c>
       <x:c r="B2490" s="2" t="str">
-        <x:v>EXTENSION-ValueType</x:v>
+        <x:v>Version</x:v>
       </x:c>
       <x:c r="C2490" s="2" t="str">
-        <x:v>EXTENSION-DisabilityByType</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D2490" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2490" s="2" t="str">
-        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
+        <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="2491">
@@ -44307,16 +44307,17 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="B2491" s="2" t="str">
-        <x:v>Version</x:v>
+        <x:v>ContentVersion</x:v>
       </x:c>
       <x:c r="C2491" s="2" t="str">
-        <x:v>Assessment</x:v>
+        <x:v>EducationContent</x:v>
       </x:c>
       <x:c r="D2491" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2491" s="2" t="str">
-        <x:v>The version identifier for the assessment.</x:v>
+        <x:v>The version identifier for the content.</x:v>
       </x:c>
     </x:row>
     <x:row r="2492">
@@ -44324,10 +44325,10 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="B2492" s="2" t="str">
-        <x:v>ContentVersion</x:v>
+        <x:v>ContentStandardVersion</x:v>
       </x:c>
       <x:c r="C2492" s="2" t="str">
-        <x:v>EducationContent</x:v>
+        <x:v>ContentStandard</x:v>
       </x:c>
       <x:c r="D2492" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44342,17 +44343,17 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="B2493" s="2" t="str">
-        <x:v>ContentStandardVersion</x:v>
+        <x:v>Version</x:v>
       </x:c>
       <x:c r="C2493" s="2" t="str">
-        <x:v>ContentStandard</x:v>
+        <x:v>AssessmentFamily</x:v>
       </x:c>
       <x:c r="D2493" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2493" s="2" t="str">
-        <x:v>The version identifier for the content.</x:v>
+        <x:v>The version identifier for the AssessmentFamily.</x:v>
       </x:c>
     </x:row>
     <x:row r="2494">
@@ -44363,14 +44364,13 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="C2494" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
+        <x:v>AssessmentIdentityType</x:v>
       </x:c>
       <x:c r="D2494" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2494" s="2" t="str">
-        <x:v>The version identifier for the AssessmentFamily.</x:v>
+        <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="2495">
@@ -44381,13 +44381,14 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="C2495" s="2" t="str">
-        <x:v>AssessmentIdentityType</x:v>
+        <x:v>AssessmentFamilyLookupType</x:v>
       </x:c>
       <x:c r="D2495" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2495" s="2" t="str">
-        <x:v>The version identifier for the assessment.</x:v>
+        <x:v>The version identifier for the AssessmentFamily.</x:v>
       </x:c>
     </x:row>
     <x:row r="2496">
@@ -44398,104 +44399,104 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="C2496" s="2" t="str">
-        <x:v>AssessmentFamilyLookupType</x:v>
+        <x:v>AssessmentLookupType</x:v>
       </x:c>
       <x:c r="D2496" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2496" s="2" t="str">
-        <x:v>The version identifier for the AssessmentFamily.</x:v>
+        <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="2497">
       <x:c r="A2497" s="2" t="str">
-        <x:v>Version</x:v>
+        <x:v>Visa</x:v>
       </x:c>
       <x:c r="B2497" s="2" t="str">
-        <x:v>Version</x:v>
+        <x:v>VisaType</x:v>
       </x:c>
       <x:c r="C2497" s="2" t="str">
-        <x:v>AssessmentLookupType</x:v>
+        <x:v>Citizenship</x:v>
       </x:c>
       <x:c r="D2497" s="2" t="str">
-        <x:v>minOccurs: 0
+        <x:v>maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2497" s="2" t="str">
-        <x:v>The version identifier for the assessment.</x:v>
+        <x:v>An indicator of a non-US citizen's Visa type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2498">
       <x:c r="A2498" s="2" t="str">
-        <x:v>Visa</x:v>
+        <x:v>VisualLearning</x:v>
       </x:c>
       <x:c r="B2498" s="2" t="str">
-        <x:v>VisaType</x:v>
+        <x:v>Learning</x:v>
       </x:c>
       <x:c r="C2498" s="2" t="str">
-        <x:v>Citizenship</x:v>
+        <x:v>LearningStyle</x:v>
       </x:c>
       <x:c r="D2498" s="2" t="str">
-        <x:v>maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2498" s="2" t="str">
-        <x:v>An indicator of a non-US citizen's Visa type.</x:v>
+        <x:v>The student's relative preference expressed as a percent to visual learning.</x:v>
       </x:c>
     </x:row>
     <x:row r="2499">
       <x:c r="A2499" s="2" t="str">
-        <x:v>VisualLearning</x:v>
+        <x:v>Weapon</x:v>
       </x:c>
       <x:c r="B2499" s="2" t="str">
-        <x:v>Learning</x:v>
+        <x:v>WeaponDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2499" s="2" t="str">
-        <x:v>LearningStyle</x:v>
+        <x:v>DisciplineIncident</x:v>
       </x:c>
       <x:c r="D2499" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E2499" s="2" t="str">
-        <x:v>The student's relative preference expressed as a percent to visual learning.</x:v>
+        <x:v>Identifies the type of weapon used during an incident. The Federal Gun-Free Schools Act requires states to report the number of students expelled for bringing firearms to school by type of firearm.</x:v>
       </x:c>
     </x:row>
     <x:row r="2500">
       <x:c r="A2500" s="2" t="str">
-        <x:v>Weapon</x:v>
+        <x:v>WeaponMap</x:v>
       </x:c>
       <x:c r="B2500" s="2" t="str">
-        <x:v>WeaponDescriptorReferenceType</x:v>
+        <x:v>WeaponMapType</x:v>
       </x:c>
       <x:c r="C2500" s="2" t="str">
-        <x:v>DisciplineIncident</x:v>
+        <x:v>WeaponDescriptor</x:v>
       </x:c>
       <x:c r="D2500" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2500" s="2" t="str">
-        <x:v>Identifies the type of weapon used during an incident. The Federal Gun-Free Schools Act requires states to report the number of students expelled for bringing firearms to school by type of firearm.</x:v>
+        <x:v>The mapping to a known Weapon enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2501">
       <x:c r="A2501" s="2" t="str">
-        <x:v>WeaponMap</x:v>
+        <x:v>WebSite</x:v>
       </x:c>
       <x:c r="B2501" s="2" t="str">
-        <x:v>WeaponMapType</x:v>
+        <x:v>URI</x:v>
       </x:c>
       <x:c r="C2501" s="2" t="str">
-        <x:v>WeaponDescriptor</x:v>
+        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
       </x:c>
       <x:c r="D2501" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2501" s="2" t="str">
-        <x:v>The mapping to a known Weapon enumeration type.</x:v>
+        <x:v>The public web site address (URL) for the EducationOrganization.</x:v>
       </x:c>
     </x:row>
     <x:row r="2502">
@@ -44506,7 +44507,7 @@
         <x:v>URI</x:v>
       </x:c>
       <x:c r="C2502" s="2" t="str">
-        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
+        <x:v>EducationOrganization</x:v>
       </x:c>
       <x:c r="D2502" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44518,20 +44519,19 @@
     </x:row>
     <x:row r="2503">
       <x:c r="A2503" s="2" t="str">
-        <x:v>WebSite</x:v>
+        <x:v>WeekIdentifier</x:v>
       </x:c>
       <x:c r="B2503" s="2" t="str">
-        <x:v>URI</x:v>
+        <x:v>WeekIdentifier</x:v>
       </x:c>
       <x:c r="C2503" s="2" t="str">
-        <x:v>EducationOrganization</x:v>
+        <x:v>AcademicWeek</x:v>
       </x:c>
       <x:c r="D2503" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2503" s="2" t="str">
-        <x:v>The public web site address (URL) for the EducationOrganization.</x:v>
+        <x:v>The school label for the week.</x:v>
       </x:c>
     </x:row>
     <x:row r="2504">
@@ -44542,7 +44542,7 @@
         <x:v>WeekIdentifier</x:v>
       </x:c>
       <x:c r="C2504" s="2" t="str">
-        <x:v>AcademicWeek</x:v>
+        <x:v>AcademicWeekIdentityType</x:v>
       </x:c>
       <x:c r="D2504" s="2" t="str">
         <x:v/>
@@ -44553,37 +44553,38 @@
     </x:row>
     <x:row r="2505">
       <x:c r="A2505" s="2" t="str">
-        <x:v>WeekIdentifier</x:v>
+        <x:v>WhenAssessedGradeLevel</x:v>
       </x:c>
       <x:c r="B2505" s="2" t="str">
-        <x:v>WeekIdentifier</x:v>
+        <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2505" s="2" t="str">
-        <x:v>AcademicWeekIdentityType</x:v>
+        <x:v>StudentAssessment</x:v>
       </x:c>
       <x:c r="D2505" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2505" s="2" t="str">
-        <x:v>The school label for the week.</x:v>
+        <x:v>The grade level of a student when assessed.</x:v>
       </x:c>
     </x:row>
     <x:row r="2506">
       <x:c r="A2506" s="2" t="str">
-        <x:v>WhenAssessedGradeLevel</x:v>
+        <x:v>WhenTakenGradeLevel</x:v>
       </x:c>
       <x:c r="B2506" s="2" t="str">
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2506" s="2" t="str">
-        <x:v>StudentAssessment</x:v>
+        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
       </x:c>
       <x:c r="D2506" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2506" s="2" t="str">
-        <x:v>The grade level of a student when assessed.</x:v>
+        <x:v>Student's grade level at time of course.</x:v>
       </x:c>
     </x:row>
     <x:row r="2507">
@@ -44594,7 +44595,7 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2507" s="2" t="str">
-        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
+        <x:v>CourseTranscript</x:v>
       </x:c>
       <x:c r="D2507" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44612,7 +44613,7 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2508" s="2" t="str">
-        <x:v>CourseTranscript</x:v>
+        <x:v>EXTENSION-TeacherCandidateCourseTranscript</x:v>
       </x:c>
       <x:c r="D2508" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44630,67 +44631,67 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2509" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateCourseTranscript</x:v>
+        <x:v>CreditsByCourse</x:v>
       </x:c>
       <x:c r="D2509" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2509" s="2" t="str">
-        <x:v>Student's grade level at time of course.</x:v>
+        <x:v>The grade level when the student is planned to take the course.</x:v>
       </x:c>
     </x:row>
     <x:row r="2510">
       <x:c r="A2510" s="2" t="str">
-        <x:v>WhenTakenGradeLevel</x:v>
+        <x:v>YearsExperience</x:v>
       </x:c>
       <x:c r="B2510" s="2" t="str">
-        <x:v>GradeLevelDescriptorReferenceType</x:v>
+        <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2510" s="2" t="str">
-        <x:v>CreditsByCourse</x:v>
+        <x:v>EXTENSION-Seniority</x:v>
       </x:c>
       <x:c r="D2510" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2510" s="2" t="str">
-        <x:v>The grade level when the student is planned to take the course.</x:v>
+        <x:v>The number of years of experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2511">
       <x:c r="A2511" s="2" t="str">
-        <x:v>YearsExperience</x:v>
+        <x:v>YearsOfExperienceAtCurrentEducationOrganization</x:v>
       </x:c>
       <x:c r="B2511" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2511" s="2" t="str">
-        <x:v>EXTENSION-Seniority</x:v>
+        <x:v>EXTENSION-StaffEducationOrganizationAssignmentAssociationExtension</x:v>
       </x:c>
       <x:c r="D2511" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2511" s="2" t="str">
-        <x:v>The number of years of experience.</x:v>
+        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2512">
       <x:c r="A2512" s="2" t="str">
-        <x:v>YearsOfExperienceAtCurrentEducationOrganization</x:v>
+        <x:v>YearsOfPriorProfessionalExperience</x:v>
       </x:c>
       <x:c r="B2512" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2512" s="2" t="str">
-        <x:v>EXTENSION-StaffEducationOrganizationAssignmentAssociationExtension</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2512" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2512" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
+        <x:v>The total number of years that an individual has previously held a similar professional position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2513">
@@ -44701,7 +44702,7 @@
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2513" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2513" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44713,20 +44714,20 @@
     </x:row>
     <x:row r="2514">
       <x:c r="A2514" s="2" t="str">
-        <x:v>YearsOfPriorProfessionalExperience</x:v>
+        <x:v>YearsOfPriorTeachingExperience</x:v>
       </x:c>
       <x:c r="B2514" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2514" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2514" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2514" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a similar professional position in one or more education institutions.</x:v>
+        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2515">
@@ -44737,7 +44738,7 @@
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2515" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2515" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44749,25 +44750,25 @@
     </x:row>
     <x:row r="2516">
       <x:c r="A2516" s="2" t="str">
-        <x:v>YearsOfPriorTeachingExperience</x:v>
+        <x:v>YearsOfServiceCurrentPlacement</x:v>
       </x:c>
       <x:c r="B2516" s="2" t="str">
-        <x:v>NumberOfYears</x:v>
+        <x:v>EXTENSION-YearsOfService</x:v>
       </x:c>
       <x:c r="C2516" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-ProspectQualifications</x:v>
       </x:c>
       <x:c r="D2516" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2516" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
+        <x:v>The total number of years of service at the current school.</x:v>
       </x:c>
     </x:row>
     <x:row r="2517">
       <x:c r="A2517" s="2" t="str">
-        <x:v>YearsOfServiceCurrentPlacement</x:v>
+        <x:v>YearsOfServiceTotal</x:v>
       </x:c>
       <x:c r="B2517" s="2" t="str">
         <x:v>EXTENSION-YearsOfService</x:v>
@@ -44776,27 +44777,9 @@
         <x:v>EXTENSION-ProspectQualifications</x:v>
       </x:c>
       <x:c r="D2517" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2517" s="2" t="str">
-        <x:v>The total number of years of service at the current school.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2518">
-      <x:c r="A2518" s="2" t="str">
-        <x:v>YearsOfServiceTotal</x:v>
-      </x:c>
-      <x:c r="B2518" s="2" t="str">
-        <x:v>EXTENSION-YearsOfService</x:v>
-      </x:c>
-      <x:c r="C2518" s="2" t="str">
-        <x:v>EXTENSION-ProspectQualifications</x:v>
-      </x:c>
-      <x:c r="D2518" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E2518" s="2" t="str">
         <x:v>The total number of years of service as a teacher.</x:v>
       </x:c>
     </x:row>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -25340,21 +25340,20 @@
     </x:row>
     <x:row r="1421">
       <x:c r="A1421" s="2" t="str">
-        <x:v>Matrix</x:v>
+        <x:v>MatrixElement</x:v>
       </x:c>
       <x:c r="B1421" s="2" t="str">
-        <x:v>EXTENSION-Matrix</x:v>
+        <x:v>EXTENSION-MatrixElement</x:v>
       </x:c>
       <x:c r="C1421" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>EXTENSION-Matrixx</x:v>
       </x:c>
       <x:c r="D1421" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1421" s="2" t="str">
-        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
+        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
     <x:row r="1422">
@@ -25376,20 +25375,21 @@
     </x:row>
     <x:row r="1423">
       <x:c r="A1423" s="2" t="str">
-        <x:v>MatrixElement</x:v>
+        <x:v>Matrixx</x:v>
       </x:c>
       <x:c r="B1423" s="2" t="str">
-        <x:v>EXTENSION-MatrixElement</x:v>
+        <x:v>EXTENSION-Matrixx</x:v>
       </x:c>
       <x:c r="C1423" s="2" t="str">
-        <x:v>EXTENSION-Matrix</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D1423" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1423" s="2" t="str">
-        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
+        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
       </x:c>
     </x:row>
     <x:row r="1424">
@@ -25562,7 +25562,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1433" s="2" t="str">
-        <x:v>EXTENSION-Matrix</x:v>
+        <x:v>EXTENSION-Matrixx</x:v>
       </x:c>
       <x:c r="D1433" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25915,7 +25915,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1452" s="2" t="str">
-        <x:v>EXTENSION-Matrix</x:v>
+        <x:v>EXTENSION-Matrixx</x:v>
       </x:c>
       <x:c r="D1452" s="2" t="str">
         <x:v>minOccurs: 0
@@ -47815,7 +47815,7 @@
     </x:row>
     <x:row r="297">
       <x:c r="A297" s="2" t="str">
-        <x:v>EXTENSION-Matrix</x:v>
+        <x:v>EXTENSION-Matrixx</x:v>
       </x:c>
       <x:c r="B297" s="2" t="str">
         <x:v>Information about the matrix element in the survey</x:v>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -25340,20 +25340,21 @@
     </x:row>
     <x:row r="1421">
       <x:c r="A1421" s="2" t="str">
-        <x:v>MatrixElement</x:v>
+        <x:v>Matri</x:v>
       </x:c>
       <x:c r="B1421" s="2" t="str">
-        <x:v>EXTENSION-MatrixElement</x:v>
+        <x:v>EXTENSION-Matri</x:v>
       </x:c>
       <x:c r="C1421" s="2" t="str">
-        <x:v>EXTENSION-Matrixx</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D1421" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1421" s="2" t="str">
-        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
+        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
       </x:c>
     </x:row>
     <x:row r="1422">
@@ -25375,21 +25376,20 @@
     </x:row>
     <x:row r="1423">
       <x:c r="A1423" s="2" t="str">
-        <x:v>Matrixx</x:v>
+        <x:v>MatrixElement</x:v>
       </x:c>
       <x:c r="B1423" s="2" t="str">
-        <x:v>EXTENSION-Matrixx</x:v>
+        <x:v>EXTENSION-MatrixElement</x:v>
       </x:c>
       <x:c r="C1423" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>EXTENSION-Matri</x:v>
       </x:c>
       <x:c r="D1423" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1423" s="2" t="str">
-        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
+        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
     <x:row r="1424">
@@ -25562,7 +25562,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1433" s="2" t="str">
-        <x:v>EXTENSION-Matrixx</x:v>
+        <x:v>EXTENSION-Matri</x:v>
       </x:c>
       <x:c r="D1433" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25915,7 +25915,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1452" s="2" t="str">
-        <x:v>EXTENSION-Matrixx</x:v>
+        <x:v>EXTENSION-Matri</x:v>
       </x:c>
       <x:c r="D1452" s="2" t="str">
         <x:v>minOccurs: 0
@@ -47815,7 +47815,7 @@
     </x:row>
     <x:row r="297">
       <x:c r="A297" s="2" t="str">
-        <x:v>EXTENSION-Matrixx</x:v>
+        <x:v>EXTENSION-Matri</x:v>
       </x:c>
       <x:c r="B297" s="2" t="str">
         <x:v>Information about the matrix element in the survey</x:v>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -25162,7 +25162,7 @@
         <x:v>IdentificationCode</x:v>
       </x:c>
       <x:c r="C1411" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1411" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25180,7 +25180,7 @@
         <x:v>IdentificationCode</x:v>
       </x:c>
       <x:c r="C1412" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1412" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25234,13 +25234,31 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1415" s="2" t="str">
+        <x:v>AssessmentFamily</x:v>
+      </x:c>
+      <x:c r="D1415" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1415" s="2" t="str">
+        <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1416">
+      <x:c r="A1416" s="2" t="str">
+        <x:v>LowestAssessedGradeLevel</x:v>
+      </x:c>
+      <x:c r="B1416" s="2" t="str">
+        <x:v>GradeLevelDescriptorReferenceType</x:v>
+      </x:c>
+      <x:c r="C1416" s="2" t="str">
         <x:v>Assessment</x:v>
       </x:c>
-      <x:c r="D1415" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1415" s="2" t="str">
+      <x:c r="D1416" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1416" s="2" t="str">
         <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted. For example:
         Adult
         Prekindergarten
@@ -25249,24 +25267,6 @@
         ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="1416">
-      <x:c r="A1416" s="2" t="str">
-        <x:v>LowestAssessedGradeLevel</x:v>
-      </x:c>
-      <x:c r="B1416" s="2" t="str">
-        <x:v>GradeLevelDescriptorReferenceType</x:v>
-      </x:c>
-      <x:c r="C1416" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
-      </x:c>
-      <x:c r="D1416" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1416" s="2" t="str">
-        <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted.</x:v>
-      </x:c>
-    </x:row>
     <x:row r="1417">
       <x:c r="A1417" s="2" t="str">
         <x:v>MagnetSpecialProgramEmphasisSchool</x:v>
@@ -25340,21 +25340,20 @@
     </x:row>
     <x:row r="1421">
       <x:c r="A1421" s="2" t="str">
-        <x:v>Matri</x:v>
+        <x:v>MatrixElement</x:v>
       </x:c>
       <x:c r="B1421" s="2" t="str">
-        <x:v>EXTENSION-Matri</x:v>
+        <x:v>EXTENSION-MatrixElement</x:v>
       </x:c>
       <x:c r="C1421" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="D1421" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1421" s="2" t="str">
-        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
+        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
     <x:row r="1422">
@@ -25376,56 +25375,56 @@
     </x:row>
     <x:row r="1423">
       <x:c r="A1423" s="2" t="str">
-        <x:v>MatrixElement</x:v>
+        <x:v>MaximumAvailableCredits</x:v>
       </x:c>
       <x:c r="B1423" s="2" t="str">
-        <x:v>EXTENSION-MatrixElement</x:v>
+        <x:v>Credits</x:v>
       </x:c>
       <x:c r="C1423" s="2" t="str">
-        <x:v>EXTENSION-Matri</x:v>
+        <x:v>Course</x:v>
       </x:c>
       <x:c r="D1423" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1423" s="2" t="str">
-        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
+        <x:v>The maximum amount of credit available to a student who successfully completes the course.</x:v>
       </x:c>
     </x:row>
     <x:row r="1424">
       <x:c r="A1424" s="2" t="str">
-        <x:v>MaximumAvailableCredits</x:v>
+        <x:v>MaximumNumberOfSeats</x:v>
       </x:c>
       <x:c r="B1424" s="2" t="str">
-        <x:v>Credits</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1424" s="2" t="str">
-        <x:v>Course</x:v>
+        <x:v>Location</x:v>
       </x:c>
       <x:c r="D1424" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1424" s="2" t="str">
-        <x:v>The maximum amount of credit available to a student who successfully completes the course.</x:v>
+        <x:v>The most number of seats the class can maintain.</x:v>
       </x:c>
     </x:row>
     <x:row r="1425">
       <x:c r="A1425" s="2" t="str">
-        <x:v>MaximumNumberOfSeats</x:v>
+        <x:v>MaximumScore</x:v>
       </x:c>
       <x:c r="B1425" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Result</x:v>
       </x:c>
       <x:c r="C1425" s="2" t="str">
-        <x:v>Location</x:v>
+        <x:v>EXTENSION-RubricLevelInformation</x:v>
       </x:c>
       <x:c r="D1425" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1425" s="2" t="str">
-        <x:v>The most number of seats the class can maintain.</x:v>
+        <x:v>The maximum score for the level of the rubic.</x:v>
       </x:c>
     </x:row>
     <x:row r="1426">
@@ -25466,38 +25465,38 @@
     </x:row>
     <x:row r="1428">
       <x:c r="A1428" s="2" t="str">
-        <x:v>MaximumScore</x:v>
+        <x:v>MaxNumericResponse</x:v>
       </x:c>
       <x:c r="B1428" s="2" t="str">
-        <x:v>Result</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1428" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelInformation</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1428" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1428" s="2" t="str">
-        <x:v>The maximum score for the level of the rubic.</x:v>
+        <x:v>The maximum score possible on a survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1429">
       <x:c r="A1429" s="2" t="str">
-        <x:v>MaxNumericResponse</x:v>
+        <x:v>MaxRawScore</x:v>
       </x:c>
       <x:c r="B1429" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1429" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D1429" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1429" s="2" t="str">
-        <x:v>The maximum score possible on a survey.</x:v>
+        <x:v>The maximum raw score achievable across all assessment items that are correct and scored at the maximum.</x:v>
       </x:c>
     </x:row>
     <x:row r="1430">
@@ -25508,7 +25507,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1430" s="2" t="str">
-        <x:v>Assessment</x:v>
+        <x:v>AssessmentItem</x:v>
       </x:c>
       <x:c r="D1430" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25526,7 +25525,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1431" s="2" t="str">
-        <x:v>AssessmentItem</x:v>
+        <x:v>ObjectiveAssessment</x:v>
       </x:c>
       <x:c r="D1431" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25544,49 +25543,31 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1432" s="2" t="str">
-        <x:v>ObjectiveAssessment</x:v>
+        <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="D1432" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1432" s="2" t="str">
-        <x:v>The maximum raw score achievable across all assessment items that are correct and scored at the maximum.</x:v>
+        <x:v>The maximum score possible on a survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1433">
       <x:c r="A1433" s="2" t="str">
-        <x:v>MaxRawScore</x:v>
+        <x:v>MedicallyFragile</x:v>
       </x:c>
       <x:c r="B1433" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C1433" s="2" t="str">
-        <x:v>EXTENSION-Matri</x:v>
+        <x:v>StudentSpecialEducationProgramAssociation</x:v>
       </x:c>
       <x:c r="D1433" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1433" s="2" t="str">
-        <x:v>The maximum score possible on a survey.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1434">
-      <x:c r="A1434" s="2" t="str">
-        <x:v>MedicallyFragile</x:v>
-      </x:c>
-      <x:c r="B1434" s="2" t="str">
-        <x:v>xs:boolean</x:v>
-      </x:c>
-      <x:c r="C1434" s="2" t="str">
-        <x:v>StudentSpecialEducationProgramAssociation</x:v>
-      </x:c>
-      <x:c r="D1434" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1434" s="2" t="str">
         <x:v>Indicates whether the Student receiving special education and related services is:
         1) in the age range of birth to 22 years, and
         2) has a serious, ongoing illness or a chronic condition that has lasted or is anticipated to last at least 12 or more months or has required at least one month of hospitalization, and that requires daily, ongoing medical treatments and monitoring by appropriately trained personnel which may include parents or other family members, and
@@ -25595,21 +25576,21 @@
         Aligns with federal requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="1435">
-      <x:c r="A1435" s="2" t="str">
+    <x:row r="1434">
+      <x:c r="A1434" s="2" t="str">
         <x:v>MediumOfInstruction</x:v>
       </x:c>
-      <x:c r="B1435" s="2" t="str">
+      <x:c r="B1434" s="2" t="str">
         <x:v>MediumOfInstructionType</x:v>
       </x:c>
-      <x:c r="C1435" s="2" t="str">
+      <x:c r="C1434" s="2" t="str">
         <x:v>Section</x:v>
       </x:c>
-      <x:c r="D1435" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1435" s="2" t="str">
+      <x:c r="D1434" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1434" s="2" t="str">
         <x:v>The media through which teachers provide instruction to students and students and teachers communicate about instructional matters; for example:
         Technology-based instruction in classroom
         Correspondence instruction
@@ -25619,23 +25600,41 @@
         ...</x:v>
       </x:c>
     </x:row>
+    <x:row r="1435">
+      <x:c r="A1435" s="2" t="str">
+        <x:v>MediumOfInstruction</x:v>
+      </x:c>
+      <x:c r="B1435" s="2" t="str">
+        <x:v>MediumOfInstructionType</x:v>
+      </x:c>
+      <x:c r="C1435" s="2" t="str">
+        <x:v>PostSecondaryInstitution</x:v>
+      </x:c>
+      <x:c r="D1435" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1435" s="2" t="str">
+        <x:v>The categories in which an institution serves the students.</x:v>
+      </x:c>
+    </x:row>
     <x:row r="1436">
       <x:c r="A1436" s="2" t="str">
-        <x:v>MediumOfInstruction</x:v>
+        <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="B1436" s="2" t="str">
-        <x:v>MediumOfInstructionType</x:v>
+        <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="C1436" s="2" t="str">
-        <x:v>PostSecondaryInstitution</x:v>
+        <x:v>BellSchedule</x:v>
       </x:c>
       <x:c r="D1436" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
+        <x:v>maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1436" s="2" t="str">
-        <x:v>The categories in which an institution serves the students.</x:v>
+        <x:v>The times at which this BellSchedule is intended to meet.</x:v>
       </x:c>
     </x:row>
     <x:row r="1437">
@@ -25646,33 +25645,32 @@
         <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="C1437" s="2" t="str">
-        <x:v>BellSchedule</x:v>
+        <x:v>Intervention</x:v>
       </x:c>
       <x:c r="D1437" s="2" t="str">
-        <x:v>maxOccurs: unbounded
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1437" s="2" t="str">
-        <x:v>The times at which this BellSchedule is intended to meet.</x:v>
+        <x:v>The times at which this intervention is scheduled to meet.</x:v>
       </x:c>
     </x:row>
     <x:row r="1438">
       <x:c r="A1438" s="2" t="str">
-        <x:v>MeetingTime</x:v>
+        <x:v>MemberEducationOrganizationReference</x:v>
       </x:c>
       <x:c r="B1438" s="2" t="str">
-        <x:v>MeetingTime</x:v>
+        <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1438" s="2" t="str">
-        <x:v>Intervention</x:v>
+        <x:v>EducationOrganizationNetworkAssociation</x:v>
       </x:c>
       <x:c r="D1438" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1438" s="2" t="str">
-        <x:v>The times at which this intervention is scheduled to meet.</x:v>
+        <x:v>The EducationOrganization member in the network.</x:v>
       </x:c>
     </x:row>
     <x:row r="1439">
@@ -25694,37 +25692,38 @@
     </x:row>
     <x:row r="1440">
       <x:c r="A1440" s="2" t="str">
-        <x:v>MemberEducationOrganizationReference</x:v>
+        <x:v>Met</x:v>
       </x:c>
       <x:c r="B1440" s="2" t="str">
-        <x:v>EducationOrganizationReferenceType</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C1440" s="2" t="str">
-        <x:v>EducationOrganizationNetworkAssociation</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D1440" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1440" s="2" t="str">
-        <x:v>The EducationOrganization member in the network.</x:v>
+        <x:v>Indicator whether the person was met by a representative of the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1441">
       <x:c r="A1441" s="2" t="str">
-        <x:v>Met</x:v>
+        <x:v>MethodCreditEarned</x:v>
       </x:c>
       <x:c r="B1441" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>MethodCreditEarnedType</x:v>
       </x:c>
       <x:c r="C1441" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>CourseTranscript</x:v>
       </x:c>
       <x:c r="D1441" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1441" s="2" t="str">
-        <x:v>Indicator whether the person was met by a representative of the education organization.</x:v>
+        <x:v>The method the credits were earned (e.g., Classroom, Examination, Transfer).</x:v>
       </x:c>
     </x:row>
     <x:row r="1442">
@@ -25735,7 +25734,7 @@
         <x:v>MethodCreditEarnedType</x:v>
       </x:c>
       <x:c r="C1442" s="2" t="str">
-        <x:v>CourseTranscript</x:v>
+        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
       </x:c>
       <x:c r="D1442" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25765,20 +25764,20 @@
     </x:row>
     <x:row r="1444">
       <x:c r="A1444" s="2" t="str">
-        <x:v>MethodCreditEarned</x:v>
+        <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="B1444" s="2" t="str">
-        <x:v>MethodCreditEarnedType</x:v>
+        <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="C1444" s="2" t="str">
-        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
+        <x:v>Name</x:v>
       </x:c>
       <x:c r="D1444" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1444" s="2" t="str">
-        <x:v>The method the credits were earned (e.g., Classroom, Examination, Transfer).</x:v>
+        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
       </x:c>
     </x:row>
     <x:row r="1445">
@@ -25789,7 +25788,7 @@
         <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="C1445" s="2" t="str">
-        <x:v>Name</x:v>
+        <x:v>OtherName</x:v>
       </x:c>
       <x:c r="D1445" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25801,38 +25800,38 @@
     </x:row>
     <x:row r="1446">
       <x:c r="A1446" s="2" t="str">
-        <x:v>MiddleName</x:v>
+        <x:v>MinimumAvailableCredits</x:v>
       </x:c>
       <x:c r="B1446" s="2" t="str">
-        <x:v>MiddleName</x:v>
+        <x:v>Credits</x:v>
       </x:c>
       <x:c r="C1446" s="2" t="str">
-        <x:v>OtherName</x:v>
+        <x:v>Course</x:v>
       </x:c>
       <x:c r="D1446" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1446" s="2" t="str">
-        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
+        <x:v>The minimum amount of credit available to a student who successfully completes the course.</x:v>
       </x:c>
     </x:row>
     <x:row r="1447">
       <x:c r="A1447" s="2" t="str">
-        <x:v>MinimumAvailableCredits</x:v>
+        <x:v>MinimumScore</x:v>
       </x:c>
       <x:c r="B1447" s="2" t="str">
-        <x:v>Credits</x:v>
+        <x:v>Result</x:v>
       </x:c>
       <x:c r="C1447" s="2" t="str">
-        <x:v>Course</x:v>
+        <x:v>AssessmentPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1447" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1447" s="2" t="str">
-        <x:v>The minimum amount of credit available to a student who successfully completes the course.</x:v>
+        <x:v>The minimum score required to make the indicated level of performance.</x:v>
       </x:c>
     </x:row>
     <x:row r="1448">
@@ -25843,14 +25842,14 @@
         <x:v>Result</x:v>
       </x:c>
       <x:c r="C1448" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelInformation</x:v>
+        <x:v>AssessmentScore</x:v>
       </x:c>
       <x:c r="D1448" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1448" s="2" t="str">
-        <x:v>The minimum score for the level of the rubic.</x:v>
+        <x:v>The minimum score possible on the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1449">
@@ -25861,43 +25860,43 @@
         <x:v>Result</x:v>
       </x:c>
       <x:c r="C1449" s="2" t="str">
-        <x:v>AssessmentPerformanceLevel</x:v>
+        <x:v>EXTENSION-RubricLevelInformation</x:v>
       </x:c>
       <x:c r="D1449" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1449" s="2" t="str">
-        <x:v>The minimum score required to make the indicated level of performance.</x:v>
+        <x:v>The minimum score for the level of the rubic.</x:v>
       </x:c>
     </x:row>
     <x:row r="1450">
       <x:c r="A1450" s="2" t="str">
-        <x:v>MinimumScore</x:v>
+        <x:v>MinNumericResponse</x:v>
       </x:c>
       <x:c r="B1450" s="2" t="str">
-        <x:v>Result</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1450" s="2" t="str">
-        <x:v>AssessmentScore</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1450" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1450" s="2" t="str">
-        <x:v>The minimum score possible on the assessment.</x:v>
+        <x:v>The minimum score possible on a survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1451">
       <x:c r="A1451" s="2" t="str">
-        <x:v>MinNumericResponse</x:v>
+        <x:v>MinRawScore</x:v>
       </x:c>
       <x:c r="B1451" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1451" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="D1451" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25909,38 +25908,39 @@
     </x:row>
     <x:row r="1452">
       <x:c r="A1452" s="2" t="str">
-        <x:v>MinRawScore</x:v>
+        <x:v>Mobility</x:v>
       </x:c>
       <x:c r="B1452" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1452" s="2" t="str">
-        <x:v>EXTENSION-Matri</x:v>
+        <x:v>EXTENSION-AnonymizedStudent</x:v>
       </x:c>
       <x:c r="D1452" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1452" s="2" t="str">
-        <x:v>The minimum score possible on a survey.</x:v>
+        <x:v>The number of times a student has moved schools during the current school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="1453">
       <x:c r="A1453" s="2" t="str">
-        <x:v>Mobility</x:v>
+        <x:v>Mom</x:v>
       </x:c>
       <x:c r="B1453" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="C1453" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudent</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D1453" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1453" s="2" t="str">
-        <x:v>The number of times a student has moved schools during the current school year.</x:v>
+        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
       </x:c>
     </x:row>
     <x:row r="1454">
@@ -26023,10 +26023,11 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1458" s="2" t="str">
-        <x:v>Parent</x:v>
+        <x:v>StudentLookupType</x:v>
       </x:c>
       <x:c r="D1458" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1458" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26040,10 +26041,11 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1459" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D1459" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1459" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26057,7 +26059,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1460" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D1460" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26075,11 +26077,10 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1461" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1461" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1461" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26093,7 +26094,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1462" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1462" s="2" t="str">
         <x:v/>
@@ -26110,11 +26111,10 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1463" s="2" t="str">
-        <x:v>StudentLookupType</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D1463" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1463" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26145,7 +26145,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1465" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D1465" s="2" t="str">
         <x:v/>
@@ -26162,7 +26162,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1466" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D1466" s="2" t="str">
         <x:v/>
@@ -26198,13 +26198,13 @@
         <x:v>NameOfInstitution</x:v>
       </x:c>
       <x:c r="C1468" s="2" t="str">
-        <x:v>EXTENSION-CurrentPosition</x:v>
+        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
       </x:c>
       <x:c r="D1468" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1468" s="2" t="str">
-        <x:v>The formal name of the education organization.</x:v>
+        <x:v>The full, legally accepted name of the institution.</x:v>
       </x:c>
     </x:row>
     <x:row r="1469">
@@ -26232,13 +26232,13 @@
         <x:v>NameOfInstitution</x:v>
       </x:c>
       <x:c r="C1470" s="2" t="str">
-        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
+        <x:v>EXTENSION-CurrentPosition</x:v>
       </x:c>
       <x:c r="D1470" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1470" s="2" t="str">
-        <x:v>The full, legally accepted name of the institution.</x:v>
+        <x:v>The formal name of the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1471">
@@ -26563,14 +26563,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1489" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D1489" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1489" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for this level of AssessmentFamily.</x:v>
+        <x:v>Reflects the specific nomenclature used for Assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1490">
@@ -26581,14 +26581,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1490" s="2" t="str">
-        <x:v>AssessmentItem</x:v>
+        <x:v>AssessmentFamily</x:v>
       </x:c>
       <x:c r="D1490" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1490" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for AssessmentItem.</x:v>
+        <x:v>Reflects the specific nomenclature used for this level of AssessmentFamily.</x:v>
       </x:c>
     </x:row>
     <x:row r="1491">
@@ -26599,14 +26599,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1491" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>AssessmentItem</x:v>
       </x:c>
       <x:c r="D1491" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1491" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for the LearningObjective.</x:v>
+        <x:v>Reflects the specific nomenclature used for AssessmentItem.</x:v>
       </x:c>
     </x:row>
     <x:row r="1492">
@@ -26617,14 +26617,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1492" s="2" t="str">
-        <x:v>Assessment</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1492" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1492" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for Assessment.</x:v>
+        <x:v>Reflects the specific nomenclature used for the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1493">
@@ -26831,14 +26831,14 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1504" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
+        <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="D1504" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1504" s="2" t="str">
-        <x:v>Enrollment count of students.</x:v>
+        <x:v>The total number of student enrolled in the respective Section</x:v>
       </x:c>
     </x:row>
     <x:row r="1505">
@@ -26849,14 +26849,14 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1505" s="2" t="str">
-        <x:v>EXTENSION-StudentsEnrolled</x:v>
+        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
       </x:c>
       <x:c r="D1505" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1505" s="2" t="str">
-        <x:v>The total number of student enrolled in the respective Section</x:v>
+        <x:v>Enrollment count of students.</x:v>
       </x:c>
     </x:row>
     <x:row r="1506">
@@ -26904,7 +26904,7 @@
         <x:v>NumericGrade</x:v>
       </x:c>
       <x:c r="C1508" s="2" t="str">
-        <x:v>Grade</x:v>
+        <x:v>StudentGradebookEntry</x:v>
       </x:c>
       <x:c r="D1508" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26922,7 +26922,7 @@
         <x:v>NumericGrade</x:v>
       </x:c>
       <x:c r="C1509" s="2" t="str">
-        <x:v>StudentGradebookEntry</x:v>
+        <x:v>Grade</x:v>
       </x:c>
       <x:c r="D1509" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26976,13 +26976,14 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1512" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D1512" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1512" s="2" t="str">
-        <x:v>The score for the specified level of the rubric.</x:v>
+        <x:v>The numeric response to the question.</x:v>
       </x:c>
     </x:row>
     <x:row r="1513">
@@ -26993,7 +26994,7 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1513" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1513" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27011,14 +27012,13 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1514" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-RubricLevelResponse</x:v>
       </x:c>
       <x:c r="D1514" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1514" s="2" t="str">
-        <x:v>The numeric response to the question.</x:v>
+        <x:v>The score for the specified level of the rubric.</x:v>
       </x:c>
     </x:row>
     <x:row r="1515">
@@ -27065,7 +27065,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1517" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-AggregatedNumericResponse</x:v>
       </x:c>
       <x:c r="D1517" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27083,7 +27083,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1518" s="2" t="str">
-        <x:v>EXTENSION-AggregatedNumericResponse</x:v>
+        <x:v>EXTENSION-AggregatedSurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1518" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27101,13 +27101,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1519" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>CompetencyObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1519" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1519" s="2" t="str">
-        <x:v>The designated title of the LearningObjective.</x:v>
+        <x:v>The designated title of the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1520">
@@ -27118,13 +27118,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1520" s="2" t="str">
-        <x:v>CompetencyObjectiveIdentityType</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1520" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1520" s="2" t="str">
-        <x:v>The designated title of the CompetencyObjective.</x:v>
+        <x:v>The designated title of the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1521">
@@ -27135,13 +27135,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1521" s="2" t="str">
-        <x:v>LearningObjectiveIdentityType</x:v>
+        <x:v>CompetencyObjective</x:v>
       </x:c>
       <x:c r="D1521" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1521" s="2" t="str">
-        <x:v>The designated title of the LearningObjective.</x:v>
+        <x:v>The designated title of the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1522">
@@ -27152,13 +27152,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1522" s="2" t="str">
-        <x:v>CompetencyObjective</x:v>
+        <x:v>LearningObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1522" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1522" s="2" t="str">
-        <x:v>The designated title of the CompetencyObjective.</x:v>
+        <x:v>The designated title of the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1523">
@@ -27204,13 +27204,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1525" s="2" t="str">
-        <x:v>CompetencyObjective</x:v>
+        <x:v>LearningObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1525" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1525" s="2" t="str">
-        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
+        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1526">
@@ -27221,13 +27221,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1526" s="2" t="str">
-        <x:v>LearningObjectiveIdentityType</x:v>
+        <x:v>CompetencyObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1526" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1526" s="2" t="str">
-        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
+        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1527">
@@ -27238,13 +27238,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1527" s="2" t="str">
-        <x:v>CompetencyObjectiveIdentityType</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1527" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1527" s="2" t="str">
-        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
+        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1528">
@@ -27255,13 +27255,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1528" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>CompetencyObjective</x:v>
       </x:c>
       <x:c r="D1528" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1528" s="2" t="str">
-        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
+        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1529">
@@ -27540,10 +27540,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1543" s="2" t="str">
-        <x:v>StudentLookupType</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D1543" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1543" s="2" t="str">
@@ -27558,10 +27559,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1544" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1544" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1544" s="2" t="str">
@@ -27576,10 +27578,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1545" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1545" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1545" s="2" t="str">
@@ -27594,11 +27597,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1546" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>StudentLookupType</x:v>
       </x:c>
       <x:c r="D1546" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1546" s="2" t="str">
@@ -27613,11 +27615,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1547" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D1547" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1547" s="2" t="str">
@@ -27632,7 +27633,7 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1548" s="2" t="str">
-        <x:v>Parent</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D1548" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27651,11 +27652,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1549" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D1549" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1549" s="2" t="str">
@@ -27813,13 +27813,13 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1558" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponse</x:v>
+        <x:v>StudentParentAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D1558" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1558" s="2" t="str">
-        <x:v>*NONE*</x:v>
+        <x:v>The Parent associated with the Student.</x:v>
       </x:c>
     </x:row>
     <x:row r="1559">
@@ -27830,7 +27830,7 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1559" s="2" t="str">
-        <x:v>StudentParentAssociationIdentityType</x:v>
+        <x:v>StudentParentAssociation</x:v>
       </x:c>
       <x:c r="D1559" s="2" t="str">
         <x:v/>
@@ -27847,13 +27847,13 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1560" s="2" t="str">
-        <x:v>StudentParentAssociation</x:v>
+        <x:v>EXTENSION-SurveyResponse</x:v>
       </x:c>
       <x:c r="D1560" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1560" s="2" t="str">
-        <x:v>The Parent associated with the Student.</x:v>
+        <x:v>*NONE*</x:v>
       </x:c>
     </x:row>
     <x:row r="1561">
@@ -27951,7 +27951,7 @@
         <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1566" s="2" t="str">
-        <x:v>EducationOrganizationPeerAssociation</x:v>
+        <x:v>EducationOrganizationPeerAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D1566" s="2" t="str">
         <x:v/>
@@ -27968,7 +27968,7 @@
         <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1567" s="2" t="str">
-        <x:v>EducationOrganizationPeerAssociationIdentityType</x:v>
+        <x:v>EducationOrganizationPeerAssociation</x:v>
       </x:c>
       <x:c r="D1567" s="2" t="str">
         <x:v/>
@@ -28201,14 +28201,14 @@
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
       <x:c r="C1580" s="2" t="str">
-        <x:v>Grade</x:v>
+        <x:v>CompetencyLevelDescriptor</x:v>
       </x:c>
       <x:c r="D1580" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1580" s="2" t="str">
-        <x:v>A conversion of the level to a standard set of performance levels.</x:v>
+        <x:v>A conversion of the level to a standard set of competency levels.</x:v>
       </x:c>
     </x:row>
     <x:row r="1581">
@@ -28219,14 +28219,14 @@
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
       <x:c r="C1581" s="2" t="str">
-        <x:v>CompetencyLevelDescriptor</x:v>
+        <x:v>Grade</x:v>
       </x:c>
       <x:c r="D1581" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1581" s="2" t="str">
-        <x:v>A conversion of the level to a standard set of competency levels.</x:v>
+        <x:v>A conversion of the level to a standard set of performance levels.</x:v>
       </x:c>
     </x:row>
     <x:row r="1582">
@@ -28234,16 +28234,18 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1582" s="2" t="str">
-        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
+        <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1582" s="2" t="str">
-        <x:v>EXTENSION-AggregatedPerformanceLevel</x:v>
+        <x:v>StudentObjectiveAssessment</x:v>
       </x:c>
       <x:c r="D1582" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E1582" s="2" t="str">
-        <x:v>A specification of which performance level value describes the Student proficiency.</x:v>
+        <x:v>The PerformanceLevel(s) achieved for the ObjectiveAssessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1583">
@@ -28251,18 +28253,16 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1583" s="2" t="str">
+        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
+      </x:c>
+      <x:c r="C1583" s="2" t="str">
         <x:v>PerformanceLevel</x:v>
       </x:c>
-      <x:c r="C1583" s="2" t="str">
-        <x:v>StudentObjectiveAssessment</x:v>
-      </x:c>
       <x:c r="D1583" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1583" s="2" t="str">
-        <x:v>The PerformanceLevel(s) achieved for the ObjectiveAssessment.</x:v>
+        <x:v>A specification of which performance level value describes the student proficiency.</x:v>
       </x:c>
     </x:row>
     <x:row r="1584">
@@ -28273,13 +28273,13 @@
         <x:v>PerformanceLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1584" s="2" t="str">
-        <x:v>PerformanceLevel</x:v>
+        <x:v>AssessmentPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1584" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1584" s="2" t="str">
-        <x:v>A specification of which performance level value describes the student proficiency.</x:v>
+        <x:v>The performance level(s) defined for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1585">
@@ -28287,16 +28287,18 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1585" s="2" t="str">
-        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
+        <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1585" s="2" t="str">
-        <x:v>AssessmentPerformanceLevel</x:v>
+        <x:v>StudentAssessment</x:v>
       </x:c>
       <x:c r="D1585" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E1585" s="2" t="str">
-        <x:v>The performance level(s) defined for the assessment.</x:v>
+        <x:v>The performance level(s) achieved for the StudentAssessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1586">
@@ -28307,11 +28309,10 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1586" s="2" t="str">
-        <x:v>StudentAssessment</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
       </x:c>
       <x:c r="D1586" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1586" s="2" t="str">
@@ -28323,17 +28324,16 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1587" s="2" t="str">
-        <x:v>PerformanceLevel</x:v>
+        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1587" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
+        <x:v>EXTENSION-AggregatedPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1587" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1587" s="2" t="str">
-        <x:v>The performance level(s) achieved for the StudentAssessment.</x:v>
+        <x:v>A specification of which performance level value describes the Student proficiency.</x:v>
       </x:c>
     </x:row>
     <x:row r="1588">
@@ -28677,7 +28677,7 @@
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
       <x:c r="C1607" s="2" t="str">
-        <x:v>OtherName</x:v>
+        <x:v>Name</x:v>
       </x:c>
       <x:c r="D1607" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28695,7 +28695,7 @@
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
       <x:c r="C1608" s="2" t="str">
-        <x:v>Name</x:v>
+        <x:v>OtherName</x:v>
       </x:c>
       <x:c r="D1608" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28731,13 +28731,87 @@
         <x:v>PopulationServedType</x:v>
       </x:c>
       <x:c r="C1610" s="2" t="str">
+        <x:v>InterventionEffectiveness</x:v>
+      </x:c>
+      <x:c r="D1610" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E1610" s="2" t="str">
+        <x:v>Population for which effectiveness is measured.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1611">
+      <x:c r="A1611" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1611" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1611" s="2" t="str">
+        <x:v>InterventionPrescription</x:v>
+      </x:c>
+      <x:c r="D1611" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1611" s="2" t="str">
+        <x:v>A subset of students that are the focus of the InterventionPrescription.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1612">
+      <x:c r="A1612" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1612" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1612" s="2" t="str">
+        <x:v>Intervention</x:v>
+      </x:c>
+      <x:c r="D1612" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1612" s="2" t="str">
+        <x:v>A subset of students that are the focus of the Intervention.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1613">
+      <x:c r="A1613" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1613" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1613" s="2" t="str">
+        <x:v>InterventionStudy</x:v>
+      </x:c>
+      <x:c r="D1613" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1613" s="2" t="str">
+        <x:v>A subset of students that are the focus of the InterventionStudy.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1614">
+      <x:c r="A1614" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1614" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1614" s="2" t="str">
         <x:v>Section</x:v>
       </x:c>
-      <x:c r="D1610" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1610" s="2" t="str">
+      <x:c r="D1614" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1614" s="2" t="str">
         <x:v>The type of students the Section is offered and tailored to; for example:
         Bilingual students
         Remedial education students
@@ -28747,80 +28821,6 @@
         ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="1611">
-      <x:c r="A1611" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1611" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1611" s="2" t="str">
-        <x:v>InterventionStudy</x:v>
-      </x:c>
-      <x:c r="D1611" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1611" s="2" t="str">
-        <x:v>A subset of students that are the focus of the InterventionStudy.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1612">
-      <x:c r="A1612" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1612" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1612" s="2" t="str">
-        <x:v>InterventionPrescription</x:v>
-      </x:c>
-      <x:c r="D1612" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1612" s="2" t="str">
-        <x:v>A subset of students that are the focus of the InterventionPrescription.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1613">
-      <x:c r="A1613" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1613" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1613" s="2" t="str">
-        <x:v>Intervention</x:v>
-      </x:c>
-      <x:c r="D1613" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1613" s="2" t="str">
-        <x:v>A subset of students that are the focus of the Intervention.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1614">
-      <x:c r="A1614" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1614" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1614" s="2" t="str">
-        <x:v>InterventionEffectiveness</x:v>
-      </x:c>
-      <x:c r="D1614" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E1614" s="2" t="str">
-        <x:v>Population for which effectiveness is measured.</x:v>
-      </x:c>
-    </x:row>
     <x:row r="1615">
       <x:c r="A1615" s="2" t="str">
         <x:v>PositionTitle</x:v>
@@ -28829,7 +28829,7 @@
         <x:v>PositionTitle</x:v>
       </x:c>
       <x:c r="C1615" s="2" t="str">
-        <x:v>StaffEducationOrganizationAssignmentAssociation</x:v>
+        <x:v>OpenStaffPosition</x:v>
       </x:c>
       <x:c r="D1615" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28847,7 +28847,7 @@
         <x:v>PositionTitle</x:v>
       </x:c>
       <x:c r="C1616" s="2" t="str">
-        <x:v>OpenStaffPosition</x:v>
+        <x:v>StaffEducationOrganizationAssignmentAssociation</x:v>
       </x:c>
       <x:c r="D1616" s="2" t="str">
         <x:v>minOccurs: 0
@@ -47815,7 +47815,7 @@
     </x:row>
     <x:row r="297">
       <x:c r="A297" s="2" t="str">
-        <x:v>EXTENSION-Matri</x:v>
+        <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="B297" s="2" t="str">
         <x:v>Information about the matrix element in the survey</x:v>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -25349,8 +25349,7 @@
         <x:v>EXTENSION-Mom</x:v>
       </x:c>
       <x:c r="D1421" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1421" s="2" t="str">
         <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -25162,7 +25162,7 @@
         <x:v>IdentificationCode</x:v>
       </x:c>
       <x:c r="C1411" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1411" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25180,7 +25180,7 @@
         <x:v>IdentificationCode</x:v>
       </x:c>
       <x:c r="C1412" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1412" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25234,31 +25234,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1415" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D1415" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1415" s="2" t="str">
-        <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1416">
-      <x:c r="A1416" s="2" t="str">
-        <x:v>LowestAssessedGradeLevel</x:v>
-      </x:c>
-      <x:c r="B1416" s="2" t="str">
-        <x:v>GradeLevelDescriptorReferenceType</x:v>
-      </x:c>
-      <x:c r="C1416" s="2" t="str">
-        <x:v>Assessment</x:v>
-      </x:c>
-      <x:c r="D1416" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1416" s="2" t="str">
         <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted. For example:
         Adult
         Prekindergarten
@@ -25267,6 +25249,24 @@
         ...</x:v>
       </x:c>
     </x:row>
+    <x:row r="1416">
+      <x:c r="A1416" s="2" t="str">
+        <x:v>LowestAssessedGradeLevel</x:v>
+      </x:c>
+      <x:c r="B1416" s="2" t="str">
+        <x:v>GradeLevelDescriptorReferenceType</x:v>
+      </x:c>
+      <x:c r="C1416" s="2" t="str">
+        <x:v>AssessmentFamily</x:v>
+      </x:c>
+      <x:c r="D1416" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1416" s="2" t="str">
+        <x:v>If the assessment spans a range of grades, then this attribute holds the lowest grade assessed. If only one grade level is assessed, then this attribute is omitted.</x:v>
+      </x:c>
+    </x:row>
     <x:row r="1417">
       <x:c r="A1417" s="2" t="str">
         <x:v>MagnetSpecialProgramEmphasisSchool</x:v>
@@ -25340,19 +25340,21 @@
     </x:row>
     <x:row r="1421">
       <x:c r="A1421" s="2" t="str">
-        <x:v>MatrixElement</x:v>
+        <x:v>Matrix</x:v>
       </x:c>
       <x:c r="B1421" s="2" t="str">
-        <x:v>EXTENSION-MatrixElement</x:v>
+        <x:v>EXTENSION-Matrix</x:v>
       </x:c>
       <x:c r="C1421" s="2" t="str">
-        <x:v>EXTENSION-Mom</x:v>
+        <x:v>EXTENSION-SurveyQuestion</x:v>
       </x:c>
       <x:c r="D1421" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E1421" s="2" t="str">
-        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
+        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
       </x:c>
     </x:row>
     <x:row r="1422">
@@ -25374,56 +25376,55 @@
     </x:row>
     <x:row r="1423">
       <x:c r="A1423" s="2" t="str">
-        <x:v>MaximumAvailableCredits</x:v>
+        <x:v>MatrixElement</x:v>
       </x:c>
       <x:c r="B1423" s="2" t="str">
-        <x:v>Credits</x:v>
+        <x:v>EXTENSION-MatrixElement</x:v>
       </x:c>
       <x:c r="C1423" s="2" t="str">
-        <x:v>Course</x:v>
+        <x:v>EXTENSION-Matrix</x:v>
       </x:c>
       <x:c r="D1423" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1423" s="2" t="str">
-        <x:v>The maximum amount of credit available to a student who successfully completes the course.</x:v>
+        <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
     <x:row r="1424">
       <x:c r="A1424" s="2" t="str">
-        <x:v>MaximumNumberOfSeats</x:v>
+        <x:v>MaximumAvailableCredits</x:v>
       </x:c>
       <x:c r="B1424" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Credits</x:v>
       </x:c>
       <x:c r="C1424" s="2" t="str">
-        <x:v>Location</x:v>
+        <x:v>Course</x:v>
       </x:c>
       <x:c r="D1424" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1424" s="2" t="str">
-        <x:v>The most number of seats the class can maintain.</x:v>
+        <x:v>The maximum amount of credit available to a student who successfully completes the course.</x:v>
       </x:c>
     </x:row>
     <x:row r="1425">
       <x:c r="A1425" s="2" t="str">
-        <x:v>MaximumScore</x:v>
+        <x:v>MaximumNumberOfSeats</x:v>
       </x:c>
       <x:c r="B1425" s="2" t="str">
-        <x:v>Result</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1425" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelInformation</x:v>
+        <x:v>Location</x:v>
       </x:c>
       <x:c r="D1425" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1425" s="2" t="str">
-        <x:v>The maximum score for the level of the rubic.</x:v>
+        <x:v>The most number of seats the class can maintain.</x:v>
       </x:c>
     </x:row>
     <x:row r="1426">
@@ -25464,38 +25465,38 @@
     </x:row>
     <x:row r="1428">
       <x:c r="A1428" s="2" t="str">
-        <x:v>MaxNumericResponse</x:v>
+        <x:v>MaximumScore</x:v>
       </x:c>
       <x:c r="B1428" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Result</x:v>
       </x:c>
       <x:c r="C1428" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-RubricLevelInformation</x:v>
       </x:c>
       <x:c r="D1428" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1428" s="2" t="str">
-        <x:v>The maximum score possible on a survey.</x:v>
+        <x:v>The maximum score for the level of the rubic.</x:v>
       </x:c>
     </x:row>
     <x:row r="1429">
       <x:c r="A1429" s="2" t="str">
-        <x:v>MaxRawScore</x:v>
+        <x:v>MaxNumericResponse</x:v>
       </x:c>
       <x:c r="B1429" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1429" s="2" t="str">
-        <x:v>Assessment</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1429" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1429" s="2" t="str">
-        <x:v>The maximum raw score achievable across all assessment items that are correct and scored at the maximum.</x:v>
+        <x:v>The maximum score possible on a survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1430">
@@ -25506,7 +25507,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1430" s="2" t="str">
-        <x:v>AssessmentItem</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D1430" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25524,7 +25525,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1431" s="2" t="str">
-        <x:v>ObjectiveAssessment</x:v>
+        <x:v>AssessmentItem</x:v>
       </x:c>
       <x:c r="D1431" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25542,31 +25543,49 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1432" s="2" t="str">
-        <x:v>EXTENSION-Mom</x:v>
+        <x:v>ObjectiveAssessment</x:v>
       </x:c>
       <x:c r="D1432" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1432" s="2" t="str">
-        <x:v>The maximum score possible on a survey.</x:v>
+        <x:v>The maximum raw score achievable across all assessment items that are correct and scored at the maximum.</x:v>
       </x:c>
     </x:row>
     <x:row r="1433">
       <x:c r="A1433" s="2" t="str">
+        <x:v>MaxRawScore</x:v>
+      </x:c>
+      <x:c r="B1433" s="2" t="str">
+        <x:v>xs:int</x:v>
+      </x:c>
+      <x:c r="C1433" s="2" t="str">
+        <x:v>EXTENSION-Matrix</x:v>
+      </x:c>
+      <x:c r="D1433" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1433" s="2" t="str">
+        <x:v>The maximum score possible on a survey.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1434">
+      <x:c r="A1434" s="2" t="str">
         <x:v>MedicallyFragile</x:v>
       </x:c>
-      <x:c r="B1433" s="2" t="str">
+      <x:c r="B1434" s="2" t="str">
         <x:v>xs:boolean</x:v>
       </x:c>
-      <x:c r="C1433" s="2" t="str">
+      <x:c r="C1434" s="2" t="str">
         <x:v>StudentSpecialEducationProgramAssociation</x:v>
       </x:c>
-      <x:c r="D1433" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1433" s="2" t="str">
+      <x:c r="D1434" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1434" s="2" t="str">
         <x:v>Indicates whether the Student receiving special education and related services is:
         1) in the age range of birth to 22 years, and
         2) has a serious, ongoing illness or a chronic condition that has lasted or is anticipated to last at least 12 or more months or has required at least one month of hospitalization, and that requires daily, ongoing medical treatments and monitoring by appropriately trained personnel which may include parents or other family members, and
@@ -25575,21 +25594,21 @@
         Aligns with federal requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="1434">
-      <x:c r="A1434" s="2" t="str">
+    <x:row r="1435">
+      <x:c r="A1435" s="2" t="str">
         <x:v>MediumOfInstruction</x:v>
       </x:c>
-      <x:c r="B1434" s="2" t="str">
+      <x:c r="B1435" s="2" t="str">
         <x:v>MediumOfInstructionType</x:v>
       </x:c>
-      <x:c r="C1434" s="2" t="str">
+      <x:c r="C1435" s="2" t="str">
         <x:v>Section</x:v>
       </x:c>
-      <x:c r="D1434" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1434" s="2" t="str">
+      <x:c r="D1435" s="2" t="str">
+        <x:v>minOccurs: 0
+</x:v>
+      </x:c>
+      <x:c r="E1435" s="2" t="str">
         <x:v>The media through which teachers provide instruction to students and students and teachers communicate about instructional matters; for example:
         Technology-based instruction in classroom
         Correspondence instruction
@@ -25599,41 +25618,23 @@
         ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="1435">
-      <x:c r="A1435" s="2" t="str">
-        <x:v>MediumOfInstruction</x:v>
-      </x:c>
-      <x:c r="B1435" s="2" t="str">
-        <x:v>MediumOfInstructionType</x:v>
-      </x:c>
-      <x:c r="C1435" s="2" t="str">
-        <x:v>PostSecondaryInstitution</x:v>
-      </x:c>
-      <x:c r="D1435" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1435" s="2" t="str">
-        <x:v>The categories in which an institution serves the students.</x:v>
-      </x:c>
-    </x:row>
     <x:row r="1436">
       <x:c r="A1436" s="2" t="str">
-        <x:v>MeetingTime</x:v>
+        <x:v>MediumOfInstruction</x:v>
       </x:c>
       <x:c r="B1436" s="2" t="str">
-        <x:v>MeetingTime</x:v>
+        <x:v>MediumOfInstructionType</x:v>
       </x:c>
       <x:c r="C1436" s="2" t="str">
-        <x:v>BellSchedule</x:v>
+        <x:v>PostSecondaryInstitution</x:v>
       </x:c>
       <x:c r="D1436" s="2" t="str">
-        <x:v>maxOccurs: unbounded
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1436" s="2" t="str">
-        <x:v>The times at which this BellSchedule is intended to meet.</x:v>
+        <x:v>The categories in which an institution serves the students.</x:v>
       </x:c>
     </x:row>
     <x:row r="1437">
@@ -25644,32 +25645,33 @@
         <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="C1437" s="2" t="str">
-        <x:v>Intervention</x:v>
+        <x:v>BellSchedule</x:v>
       </x:c>
       <x:c r="D1437" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
+        <x:v>maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1437" s="2" t="str">
-        <x:v>The times at which this intervention is scheduled to meet.</x:v>
+        <x:v>The times at which this BellSchedule is intended to meet.</x:v>
       </x:c>
     </x:row>
     <x:row r="1438">
       <x:c r="A1438" s="2" t="str">
-        <x:v>MemberEducationOrganizationReference</x:v>
+        <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="B1438" s="2" t="str">
-        <x:v>EducationOrganizationReferenceType</x:v>
+        <x:v>MeetingTime</x:v>
       </x:c>
       <x:c r="C1438" s="2" t="str">
-        <x:v>EducationOrganizationNetworkAssociation</x:v>
+        <x:v>Intervention</x:v>
       </x:c>
       <x:c r="D1438" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E1438" s="2" t="str">
-        <x:v>The EducationOrganization member in the network.</x:v>
+        <x:v>The times at which this intervention is scheduled to meet.</x:v>
       </x:c>
     </x:row>
     <x:row r="1439">
@@ -25691,38 +25693,37 @@
     </x:row>
     <x:row r="1440">
       <x:c r="A1440" s="2" t="str">
-        <x:v>Met</x:v>
+        <x:v>MemberEducationOrganizationReference</x:v>
       </x:c>
       <x:c r="B1440" s="2" t="str">
-        <x:v>xs:boolean</x:v>
+        <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1440" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>EducationOrganizationNetworkAssociation</x:v>
       </x:c>
       <x:c r="D1440" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1440" s="2" t="str">
-        <x:v>Indicator whether the person was met by a representative of the education organization.</x:v>
+        <x:v>The EducationOrganization member in the network.</x:v>
       </x:c>
     </x:row>
     <x:row r="1441">
       <x:c r="A1441" s="2" t="str">
-        <x:v>MethodCreditEarned</x:v>
+        <x:v>Met</x:v>
       </x:c>
       <x:c r="B1441" s="2" t="str">
-        <x:v>MethodCreditEarnedType</x:v>
+        <x:v>xs:boolean</x:v>
       </x:c>
       <x:c r="C1441" s="2" t="str">
-        <x:v>CourseTranscript</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D1441" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1441" s="2" t="str">
-        <x:v>The method the credits were earned (e.g., Classroom, Examination, Transfer).</x:v>
+        <x:v>Indicator whether the person was met by a representative of the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1442">
@@ -25733,7 +25734,7 @@
         <x:v>MethodCreditEarnedType</x:v>
       </x:c>
       <x:c r="C1442" s="2" t="str">
-        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
+        <x:v>CourseTranscript</x:v>
       </x:c>
       <x:c r="D1442" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25763,20 +25764,20 @@
     </x:row>
     <x:row r="1444">
       <x:c r="A1444" s="2" t="str">
-        <x:v>MiddleName</x:v>
+        <x:v>MethodCreditEarned</x:v>
       </x:c>
       <x:c r="B1444" s="2" t="str">
-        <x:v>MiddleName</x:v>
+        <x:v>MethodCreditEarnedType</x:v>
       </x:c>
       <x:c r="C1444" s="2" t="str">
-        <x:v>Name</x:v>
+        <x:v>EXTENSION-ExternalCourseTranscript</x:v>
       </x:c>
       <x:c r="D1444" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1444" s="2" t="str">
-        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
+        <x:v>The method the credits were earned (e.g., Classroom, Examination, Transfer).</x:v>
       </x:c>
     </x:row>
     <x:row r="1445">
@@ -25787,7 +25788,7 @@
         <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="C1445" s="2" t="str">
-        <x:v>OtherName</x:v>
+        <x:v>Name</x:v>
       </x:c>
       <x:c r="D1445" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25799,38 +25800,38 @@
     </x:row>
     <x:row r="1446">
       <x:c r="A1446" s="2" t="str">
-        <x:v>MinimumAvailableCredits</x:v>
+        <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="B1446" s="2" t="str">
-        <x:v>Credits</x:v>
+        <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="C1446" s="2" t="str">
-        <x:v>Course</x:v>
+        <x:v>OtherName</x:v>
       </x:c>
       <x:c r="D1446" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1446" s="2" t="str">
-        <x:v>The minimum amount of credit available to a student who successfully completes the course.</x:v>
+        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
       </x:c>
     </x:row>
     <x:row r="1447">
       <x:c r="A1447" s="2" t="str">
-        <x:v>MinimumScore</x:v>
+        <x:v>MinimumAvailableCredits</x:v>
       </x:c>
       <x:c r="B1447" s="2" t="str">
-        <x:v>Result</x:v>
+        <x:v>Credits</x:v>
       </x:c>
       <x:c r="C1447" s="2" t="str">
-        <x:v>AssessmentPerformanceLevel</x:v>
+        <x:v>Course</x:v>
       </x:c>
       <x:c r="D1447" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1447" s="2" t="str">
-        <x:v>The minimum score required to make the indicated level of performance.</x:v>
+        <x:v>The minimum amount of credit available to a student who successfully completes the course.</x:v>
       </x:c>
     </x:row>
     <x:row r="1448">
@@ -25841,14 +25842,14 @@
         <x:v>Result</x:v>
       </x:c>
       <x:c r="C1448" s="2" t="str">
-        <x:v>AssessmentScore</x:v>
+        <x:v>EXTENSION-RubricLevelInformation</x:v>
       </x:c>
       <x:c r="D1448" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1448" s="2" t="str">
-        <x:v>The minimum score possible on the assessment.</x:v>
+        <x:v>The minimum score for the level of the rubic.</x:v>
       </x:c>
     </x:row>
     <x:row r="1449">
@@ -25859,43 +25860,43 @@
         <x:v>Result</x:v>
       </x:c>
       <x:c r="C1449" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelInformation</x:v>
+        <x:v>AssessmentPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1449" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1449" s="2" t="str">
-        <x:v>The minimum score for the level of the rubic.</x:v>
+        <x:v>The minimum score required to make the indicated level of performance.</x:v>
       </x:c>
     </x:row>
     <x:row r="1450">
       <x:c r="A1450" s="2" t="str">
-        <x:v>MinNumericResponse</x:v>
+        <x:v>MinimumScore</x:v>
       </x:c>
       <x:c r="B1450" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>Result</x:v>
       </x:c>
       <x:c r="C1450" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>AssessmentScore</x:v>
       </x:c>
       <x:c r="D1450" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1450" s="2" t="str">
-        <x:v>The minimum score possible on a survey.</x:v>
+        <x:v>The minimum score possible on the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1451">
       <x:c r="A1451" s="2" t="str">
-        <x:v>MinRawScore</x:v>
+        <x:v>MinNumericResponse</x:v>
       </x:c>
       <x:c r="B1451" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1451" s="2" t="str">
-        <x:v>EXTENSION-Mom</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1451" s="2" t="str">
         <x:v>minOccurs: 0
@@ -25907,39 +25908,38 @@
     </x:row>
     <x:row r="1452">
       <x:c r="A1452" s="2" t="str">
-        <x:v>Mobility</x:v>
+        <x:v>MinRawScore</x:v>
       </x:c>
       <x:c r="B1452" s="2" t="str">
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1452" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudent</x:v>
+        <x:v>EXTENSION-Matrix</x:v>
       </x:c>
       <x:c r="D1452" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1452" s="2" t="str">
-        <x:v>The number of times a student has moved schools during the current school year.</x:v>
+        <x:v>The minimum score possible on a survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1453">
       <x:c r="A1453" s="2" t="str">
-        <x:v>Mom</x:v>
+        <x:v>Mobility</x:v>
       </x:c>
       <x:c r="B1453" s="2" t="str">
-        <x:v>EXTENSION-Mom</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1453" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestion</x:v>
+        <x:v>EXTENSION-AnonymizedStudent</x:v>
       </x:c>
       <x:c r="D1453" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1453" s="2" t="str">
-        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
+        <x:v>The number of times a student has moved schools during the current school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="1454">
@@ -26022,11 +26022,10 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1458" s="2" t="str">
-        <x:v>StudentLookupType</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D1458" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1458" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26040,11 +26039,10 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1459" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1459" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1459" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26058,7 +26056,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1460" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D1460" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26076,10 +26074,11 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1461" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D1461" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1461" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26093,7 +26092,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1462" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D1462" s="2" t="str">
         <x:v/>
@@ -26110,10 +26109,11 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1463" s="2" t="str">
-        <x:v>Parent</x:v>
+        <x:v>StudentLookupType</x:v>
       </x:c>
       <x:c r="D1463" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1463" s="2" t="str">
         <x:v>Full legal name of the person.</x:v>
@@ -26144,7 +26144,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1465" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1465" s="2" t="str">
         <x:v/>
@@ -26161,7 +26161,7 @@
         <x:v>Name</x:v>
       </x:c>
       <x:c r="C1466" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D1466" s="2" t="str">
         <x:v/>
@@ -26197,13 +26197,13 @@
         <x:v>NameOfInstitution</x:v>
       </x:c>
       <x:c r="C1468" s="2" t="str">
-        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
+        <x:v>EXTENSION-CurrentPosition</x:v>
       </x:c>
       <x:c r="D1468" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1468" s="2" t="str">
-        <x:v>The full, legally accepted name of the institution.</x:v>
+        <x:v>The formal name of the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1469">
@@ -26231,13 +26231,13 @@
         <x:v>NameOfInstitution</x:v>
       </x:c>
       <x:c r="C1470" s="2" t="str">
-        <x:v>EXTENSION-CurrentPosition</x:v>
+        <x:v>EXTENSION-ExternalEducationOrganization</x:v>
       </x:c>
       <x:c r="D1470" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1470" s="2" t="str">
-        <x:v>The formal name of the education organization.</x:v>
+        <x:v>The full, legally accepted name of the institution.</x:v>
       </x:c>
     </x:row>
     <x:row r="1471">
@@ -26562,14 +26562,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1489" s="2" t="str">
-        <x:v>Assessment</x:v>
+        <x:v>AssessmentFamily</x:v>
       </x:c>
       <x:c r="D1489" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1489" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for Assessment.</x:v>
+        <x:v>Reflects the specific nomenclature used for this level of AssessmentFamily.</x:v>
       </x:c>
     </x:row>
     <x:row r="1490">
@@ -26580,14 +26580,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1490" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
+        <x:v>AssessmentItem</x:v>
       </x:c>
       <x:c r="D1490" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1490" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for this level of AssessmentFamily.</x:v>
+        <x:v>Reflects the specific nomenclature used for AssessmentItem.</x:v>
       </x:c>
     </x:row>
     <x:row r="1491">
@@ -26598,14 +26598,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1491" s="2" t="str">
-        <x:v>AssessmentItem</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1491" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1491" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for AssessmentItem.</x:v>
+        <x:v>Reflects the specific nomenclature used for the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1492">
@@ -26616,14 +26616,14 @@
         <x:v>Nomenclature</x:v>
       </x:c>
       <x:c r="C1492" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>Assessment</x:v>
       </x:c>
       <x:c r="D1492" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1492" s="2" t="str">
-        <x:v>Reflects the specific nomenclature used for the LearningObjective.</x:v>
+        <x:v>Reflects the specific nomenclature used for Assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1493">
@@ -26830,14 +26830,14 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1504" s="2" t="str">
-        <x:v>EXTENSION-StudentsEnrolled</x:v>
+        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
       </x:c>
       <x:c r="D1504" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1504" s="2" t="str">
-        <x:v>The total number of student enrolled in the respective Section</x:v>
+        <x:v>Enrollment count of students.</x:v>
       </x:c>
     </x:row>
     <x:row r="1505">
@@ -26848,14 +26848,14 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1505" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationFacts</x:v>
+        <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="D1505" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1505" s="2" t="str">
-        <x:v>Enrollment count of students.</x:v>
+        <x:v>The total number of student enrolled in the respective Section</x:v>
       </x:c>
     </x:row>
     <x:row r="1506">
@@ -26903,7 +26903,7 @@
         <x:v>NumericGrade</x:v>
       </x:c>
       <x:c r="C1508" s="2" t="str">
-        <x:v>StudentGradebookEntry</x:v>
+        <x:v>Grade</x:v>
       </x:c>
       <x:c r="D1508" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26921,7 +26921,7 @@
         <x:v>NumericGrade</x:v>
       </x:c>
       <x:c r="C1509" s="2" t="str">
-        <x:v>Grade</x:v>
+        <x:v>StudentGradebookEntry</x:v>
       </x:c>
       <x:c r="D1509" s="2" t="str">
         <x:v>minOccurs: 0
@@ -26975,14 +26975,13 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1512" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-RubricLevelResponse</x:v>
       </x:c>
       <x:c r="D1512" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1512" s="2" t="str">
-        <x:v>The numeric response to the question.</x:v>
+        <x:v>The score for the specified level of the rubric.</x:v>
       </x:c>
     </x:row>
     <x:row r="1513">
@@ -26993,7 +26992,7 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1513" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D1513" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27011,13 +27010,14 @@
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
       <x:c r="C1514" s="2" t="str">
-        <x:v>EXTENSION-RubricLevelResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1514" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1514" s="2" t="str">
-        <x:v>The score for the specified level of the rubric.</x:v>
+        <x:v>The numeric response to the question.</x:v>
       </x:c>
     </x:row>
     <x:row r="1515">
@@ -27064,7 +27064,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1517" s="2" t="str">
-        <x:v>EXTENSION-AggregatedNumericResponse</x:v>
+        <x:v>EXTENSION-AggregatedSurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D1517" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27082,7 +27082,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C1518" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-AggregatedNumericResponse</x:v>
       </x:c>
       <x:c r="D1518" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27100,13 +27100,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1519" s="2" t="str">
-        <x:v>CompetencyObjectiveIdentityType</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1519" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1519" s="2" t="str">
-        <x:v>The designated title of the CompetencyObjective.</x:v>
+        <x:v>The designated title of the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1520">
@@ -27117,13 +27117,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1520" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>CompetencyObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1520" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1520" s="2" t="str">
-        <x:v>The designated title of the LearningObjective.</x:v>
+        <x:v>The designated title of the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1521">
@@ -27134,13 +27134,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1521" s="2" t="str">
-        <x:v>CompetencyObjective</x:v>
+        <x:v>LearningObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1521" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1521" s="2" t="str">
-        <x:v>The designated title of the CompetencyObjective.</x:v>
+        <x:v>The designated title of the LearningObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1522">
@@ -27151,13 +27151,13 @@
         <x:v>Objective</x:v>
       </x:c>
       <x:c r="C1522" s="2" t="str">
-        <x:v>LearningObjectiveIdentityType</x:v>
+        <x:v>CompetencyObjective</x:v>
       </x:c>
       <x:c r="D1522" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1522" s="2" t="str">
-        <x:v>The designated title of the LearningObjective.</x:v>
+        <x:v>The designated title of the CompetencyObjective.</x:v>
       </x:c>
     </x:row>
     <x:row r="1523">
@@ -27203,13 +27203,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1525" s="2" t="str">
-        <x:v>LearningObjectiveIdentityType</x:v>
+        <x:v>CompetencyObjective</x:v>
       </x:c>
       <x:c r="D1525" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1525" s="2" t="str">
-        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
+        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1526">
@@ -27220,13 +27220,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1526" s="2" t="str">
-        <x:v>CompetencyObjectiveIdentityType</x:v>
+        <x:v>LearningObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1526" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1526" s="2" t="str">
-        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
+        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1527">
@@ -27237,13 +27237,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1527" s="2" t="str">
-        <x:v>LearningObjective</x:v>
+        <x:v>CompetencyObjectiveIdentityType</x:v>
       </x:c>
       <x:c r="D1527" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1527" s="2" t="str">
-        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
+        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1528">
@@ -27254,13 +27254,13 @@
         <x:v>GradeLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1528" s="2" t="str">
-        <x:v>CompetencyObjective</x:v>
+        <x:v>LearningObjective</x:v>
       </x:c>
       <x:c r="D1528" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1528" s="2" t="str">
-        <x:v>The grade level for which the CompetencyObjective is targeted.</x:v>
+        <x:v>The grade level for which the LearningObjective is targeted.</x:v>
       </x:c>
     </x:row>
     <x:row r="1529">
@@ -27539,11 +27539,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1543" s="2" t="str">
-        <x:v>Parent</x:v>
+        <x:v>StudentLookupType</x:v>
       </x:c>
       <x:c r="D1543" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1543" s="2" t="str">
@@ -27558,11 +27557,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1544" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D1544" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1544" s="2" t="str">
@@ -27577,11 +27575,10 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1545" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D1545" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1545" s="2" t="str">
@@ -27596,10 +27593,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1546" s="2" t="str">
-        <x:v>StudentLookupType</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D1546" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1546" s="2" t="str">
@@ -27614,10 +27612,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1547" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D1547" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1547" s="2" t="str">
@@ -27632,7 +27631,7 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1548" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D1548" s="2" t="str">
         <x:v>minOccurs: 0
@@ -27651,10 +27650,11 @@
         <x:v>OtherName</x:v>
       </x:c>
       <x:c r="C1549" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D1549" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1549" s="2" t="str">
@@ -27812,13 +27812,13 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1558" s="2" t="str">
-        <x:v>StudentParentAssociationIdentityType</x:v>
+        <x:v>EXTENSION-SurveyResponse</x:v>
       </x:c>
       <x:c r="D1558" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1558" s="2" t="str">
-        <x:v>The Parent associated with the Student.</x:v>
+        <x:v>*NONE*</x:v>
       </x:c>
     </x:row>
     <x:row r="1559">
@@ -27829,7 +27829,7 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1559" s="2" t="str">
-        <x:v>StudentParentAssociation</x:v>
+        <x:v>StudentParentAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D1559" s="2" t="str">
         <x:v/>
@@ -27846,13 +27846,13 @@
         <x:v>ParentReferenceType</x:v>
       </x:c>
       <x:c r="C1560" s="2" t="str">
-        <x:v>EXTENSION-SurveyResponse</x:v>
+        <x:v>StudentParentAssociation</x:v>
       </x:c>
       <x:c r="D1560" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1560" s="2" t="str">
-        <x:v>*NONE*</x:v>
+        <x:v>The Parent associated with the Student.</x:v>
       </x:c>
     </x:row>
     <x:row r="1561">
@@ -27950,7 +27950,7 @@
         <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1566" s="2" t="str">
-        <x:v>EducationOrganizationPeerAssociationIdentityType</x:v>
+        <x:v>EducationOrganizationPeerAssociation</x:v>
       </x:c>
       <x:c r="D1566" s="2" t="str">
         <x:v/>
@@ -27967,7 +27967,7 @@
         <x:v>EducationOrganizationReferenceType</x:v>
       </x:c>
       <x:c r="C1567" s="2" t="str">
-        <x:v>EducationOrganizationPeerAssociation</x:v>
+        <x:v>EducationOrganizationPeerAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D1567" s="2" t="str">
         <x:v/>
@@ -28200,14 +28200,14 @@
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
       <x:c r="C1580" s="2" t="str">
-        <x:v>CompetencyLevelDescriptor</x:v>
+        <x:v>Grade</x:v>
       </x:c>
       <x:c r="D1580" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1580" s="2" t="str">
-        <x:v>A conversion of the level to a standard set of competency levels.</x:v>
+        <x:v>A conversion of the level to a standard set of performance levels.</x:v>
       </x:c>
     </x:row>
     <x:row r="1581">
@@ -28218,14 +28218,14 @@
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
       <x:c r="C1581" s="2" t="str">
-        <x:v>Grade</x:v>
+        <x:v>CompetencyLevelDescriptor</x:v>
       </x:c>
       <x:c r="D1581" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E1581" s="2" t="str">
-        <x:v>A conversion of the level to a standard set of performance levels.</x:v>
+        <x:v>A conversion of the level to a standard set of competency levels.</x:v>
       </x:c>
     </x:row>
     <x:row r="1582">
@@ -28233,18 +28233,16 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1582" s="2" t="str">
-        <x:v>PerformanceLevel</x:v>
+        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1582" s="2" t="str">
-        <x:v>StudentObjectiveAssessment</x:v>
+        <x:v>EXTENSION-AggregatedPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1582" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1582" s="2" t="str">
-        <x:v>The PerformanceLevel(s) achieved for the ObjectiveAssessment.</x:v>
+        <x:v>A specification of which performance level value describes the Student proficiency.</x:v>
       </x:c>
     </x:row>
     <x:row r="1583">
@@ -28252,16 +28250,18 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1583" s="2" t="str">
-        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
+        <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1583" s="2" t="str">
-        <x:v>PerformanceLevel</x:v>
+        <x:v>StudentObjectiveAssessment</x:v>
       </x:c>
       <x:c r="D1583" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
       </x:c>
       <x:c r="E1583" s="2" t="str">
-        <x:v>A specification of which performance level value describes the student proficiency.</x:v>
+        <x:v>The PerformanceLevel(s) achieved for the ObjectiveAssessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1584">
@@ -28272,13 +28272,13 @@
         <x:v>PerformanceLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1584" s="2" t="str">
-        <x:v>AssessmentPerformanceLevel</x:v>
+        <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="D1584" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E1584" s="2" t="str">
-        <x:v>The performance level(s) defined for the assessment.</x:v>
+        <x:v>A specification of which performance level value describes the student proficiency.</x:v>
       </x:c>
     </x:row>
     <x:row r="1585">
@@ -28286,18 +28286,16 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1585" s="2" t="str">
-        <x:v>PerformanceLevel</x:v>
+        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C1585" s="2" t="str">
-        <x:v>StudentAssessment</x:v>
+        <x:v>AssessmentPerformanceLevel</x:v>
       </x:c>
       <x:c r="D1585" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1585" s="2" t="str">
-        <x:v>The performance level(s) achieved for the StudentAssessment.</x:v>
+        <x:v>The performance level(s) defined for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1586">
@@ -28308,10 +28306,11 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1586" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
+        <x:v>StudentAssessment</x:v>
       </x:c>
       <x:c r="D1586" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E1586" s="2" t="str">
@@ -28323,16 +28322,17 @@
         <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="B1587" s="2" t="str">
-        <x:v>PerformanceLevelDescriptorReferenceType</x:v>
+        <x:v>PerformanceLevel</x:v>
       </x:c>
       <x:c r="C1587" s="2" t="str">
-        <x:v>EXTENSION-AggregatedPerformanceLevel</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
       </x:c>
       <x:c r="D1587" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1587" s="2" t="str">
-        <x:v>A specification of which performance level value describes the Student proficiency.</x:v>
+        <x:v>The performance level(s) achieved for the StudentAssessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="1588">
@@ -28676,7 +28676,7 @@
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
       <x:c r="C1607" s="2" t="str">
-        <x:v>Name</x:v>
+        <x:v>OtherName</x:v>
       </x:c>
       <x:c r="D1607" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28694,7 +28694,7 @@
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
       <x:c r="C1608" s="2" t="str">
-        <x:v>OtherName</x:v>
+        <x:v>Name</x:v>
       </x:c>
       <x:c r="D1608" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28730,87 +28730,13 @@
         <x:v>PopulationServedType</x:v>
       </x:c>
       <x:c r="C1610" s="2" t="str">
-        <x:v>InterventionEffectiveness</x:v>
+        <x:v>Section</x:v>
       </x:c>
       <x:c r="D1610" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E1610" s="2" t="str">
-        <x:v>Population for which effectiveness is measured.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1611">
-      <x:c r="A1611" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1611" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1611" s="2" t="str">
-        <x:v>InterventionPrescription</x:v>
-      </x:c>
-      <x:c r="D1611" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1611" s="2" t="str">
-        <x:v>A subset of students that are the focus of the InterventionPrescription.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1612">
-      <x:c r="A1612" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1612" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1612" s="2" t="str">
-        <x:v>Intervention</x:v>
-      </x:c>
-      <x:c r="D1612" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1612" s="2" t="str">
-        <x:v>A subset of students that are the focus of the Intervention.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1613">
-      <x:c r="A1613" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1613" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1613" s="2" t="str">
-        <x:v>InterventionStudy</x:v>
-      </x:c>
-      <x:c r="D1613" s="2" t="str">
-        <x:v>minOccurs: 0
-maxOccurs: unbounded
-</x:v>
-      </x:c>
-      <x:c r="E1613" s="2" t="str">
-        <x:v>A subset of students that are the focus of the InterventionStudy.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1614">
-      <x:c r="A1614" s="2" t="str">
-        <x:v>PopulationServed</x:v>
-      </x:c>
-      <x:c r="B1614" s="2" t="str">
-        <x:v>PopulationServedType</x:v>
-      </x:c>
-      <x:c r="C1614" s="2" t="str">
-        <x:v>Section</x:v>
-      </x:c>
-      <x:c r="D1614" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
-      </x:c>
-      <x:c r="E1614" s="2" t="str">
         <x:v>The type of students the Section is offered and tailored to; for example:
         Bilingual students
         Remedial education students
@@ -28820,6 +28746,80 @@
         ...</x:v>
       </x:c>
     </x:row>
+    <x:row r="1611">
+      <x:c r="A1611" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1611" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1611" s="2" t="str">
+        <x:v>InterventionStudy</x:v>
+      </x:c>
+      <x:c r="D1611" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1611" s="2" t="str">
+        <x:v>A subset of students that are the focus of the InterventionStudy.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1612">
+      <x:c r="A1612" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1612" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1612" s="2" t="str">
+        <x:v>InterventionPrescription</x:v>
+      </x:c>
+      <x:c r="D1612" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1612" s="2" t="str">
+        <x:v>A subset of students that are the focus of the InterventionPrescription.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1613">
+      <x:c r="A1613" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1613" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1613" s="2" t="str">
+        <x:v>Intervention</x:v>
+      </x:c>
+      <x:c r="D1613" s="2" t="str">
+        <x:v>minOccurs: 0
+maxOccurs: unbounded
+</x:v>
+      </x:c>
+      <x:c r="E1613" s="2" t="str">
+        <x:v>A subset of students that are the focus of the Intervention.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1614">
+      <x:c r="A1614" s="2" t="str">
+        <x:v>PopulationServed</x:v>
+      </x:c>
+      <x:c r="B1614" s="2" t="str">
+        <x:v>PopulationServedType</x:v>
+      </x:c>
+      <x:c r="C1614" s="2" t="str">
+        <x:v>InterventionEffectiveness</x:v>
+      </x:c>
+      <x:c r="D1614" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E1614" s="2" t="str">
+        <x:v>Population for which effectiveness is measured.</x:v>
+      </x:c>
+    </x:row>
     <x:row r="1615">
       <x:c r="A1615" s="2" t="str">
         <x:v>PositionTitle</x:v>
@@ -28828,7 +28828,7 @@
         <x:v>PositionTitle</x:v>
       </x:c>
       <x:c r="C1615" s="2" t="str">
-        <x:v>OpenStaffPosition</x:v>
+        <x:v>StaffEducationOrganizationAssignmentAssociation</x:v>
       </x:c>
       <x:c r="D1615" s="2" t="str">
         <x:v>minOccurs: 0
@@ -28846,7 +28846,7 @@
         <x:v>PositionTitle</x:v>
       </x:c>
       <x:c r="C1616" s="2" t="str">
-        <x:v>StaffEducationOrganizationAssignmentAssociation</x:v>
+        <x:v>OpenStaffPosition</x:v>
       </x:c>
       <x:c r="D1616" s="2" t="str">
         <x:v>minOccurs: 0
@@ -47814,7 +47814,7 @@
     </x:row>
     <x:row r="297">
       <x:c r="A297" s="2" t="str">
-        <x:v>EXTENSION-Mom</x:v>
+        <x:v>EXTENSION-Matrix</x:v>
       </x:c>
       <x:c r="B297" s="2" t="str">
         <x:v>Information about the matrix element in the survey</x:v>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -44613,6 +44613,7 @@
       </x:c>
       <x:c r="D2509" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2509" s="2" t="str">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -1845,113 +1845,113 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" s="2" t="str">
-        <x:v>AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>AggregatedByDisability</x:v>
       </x:c>
       <x:c r="B99" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="C99" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-CourseStudentFacts</x:v>
       </x:c>
       <x:c r="D99" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E99" s="2" t="str">
-        <x:v>Data about the cumulative grade point for a group</x:v>
+        <x:v>Information about the disability of a group aggregated by course.</x:v>
       </x:c>
     </x:row>
     <x:row r="100">
       <x:c r="A100" s="2" t="str">
-        <x:v>AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>AggregatedByDisability</x:v>
       </x:c>
       <x:c r="B100" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="C100" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentFacts</x:v>
       </x:c>
       <x:c r="D100" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E100" s="2" t="str">
-        <x:v>Data about the cumulative grade point for a group</x:v>
+        <x:v>Information about the disability of a group aggregated by course.</x:v>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" s="2" t="str">
-        <x:v>AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>AggregatedByDisability</x:v>
       </x:c>
       <x:c r="B101" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="C101" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-SectionStudentFacts</x:v>
       </x:c>
       <x:c r="D101" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E101" s="2" t="str">
-        <x:v>Data about the cumulative grade point for a group</x:v>
+        <x:v>Information about the disability of a group aggregated by course.</x:v>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="2" t="str">
-        <x:v>AggregatedDisabilityByType</x:v>
+        <x:v>AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="B102" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="C102" s="2" t="str">
-        <x:v>EXTENSION-SectionStudentFacts</x:v>
+        <x:v>EXTENSION-SectionStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D102" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E102" s="2" t="str">
-        <x:v>Information about the disability of a group aggregated by course.</x:v>
+        <x:v>Data about the cumulative grade point for a group</x:v>
       </x:c>
     </x:row>
     <x:row r="103">
       <x:c r="A103" s="2" t="str">
-        <x:v>AggregatedDisabilityByType</x:v>
+        <x:v>AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="B103" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="C103" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D103" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E103" s="2" t="str">
-        <x:v>Information about the disability of a group aggregated by course.</x:v>
+        <x:v>Data about the cumulative grade point for a group</x:v>
       </x:c>
     </x:row>
     <x:row r="104">
       <x:c r="A104" s="2" t="str">
-        <x:v>AggregatedDisabilityByType</x:v>
+        <x:v>AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="B104" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="C104" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentFacts</x:v>
+        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D104" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E104" s="2" t="str">
-        <x:v>Information about the disability of a group aggregated by course.</x:v>
+        <x:v>Data about the cumulative grade point for a group</x:v>
       </x:c>
     </x:row>
     <x:row r="105">
@@ -2362,7 +2362,7 @@
         <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C128" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="D128" s="2" t="str">
         <x:v/>
@@ -2379,7 +2379,7 @@
         <x:v>xs:date</x:v>
       </x:c>
       <x:c r="C129" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D129" s="2" t="str">
         <x:v/>
@@ -3350,7 +3350,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C183" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="D183" s="2" t="str">
         <x:v/>
@@ -3367,7 +3367,7 @@
         <x:v>SchoolYearType</x:v>
       </x:c>
       <x:c r="C184" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D184" s="2" t="str">
         <x:v/>
@@ -13381,7 +13381,7 @@
         <x:v>DisabilityDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C745" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D745" s="2" t="str">
         <x:v/>
@@ -28089,7 +28089,7 @@
         <x:v>Percent</x:v>
       </x:c>
       <x:c r="C1574" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D1574" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44426,7 +44426,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2499" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D2499" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44838,7 +44838,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2522" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D2522" s="2" t="str">
         <x:v>minOccurs: 0
@@ -46911,18 +46911,18 @@
     </x:row>
     <x:row r="169">
       <x:c r="A169" s="2" t="str">
-        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="B169" s="2" t="str">
-        <x:v>Data about the cumulative grade point for a group</x:v>
+        <x:v>Students in the course who have a disability by disability type</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityByType</x:v>
+        <x:v>EXTENSION-AggregatedCumulativeGradePointAverage</x:v>
       </x:c>
       <x:c r="B170" s="2" t="str">
-        <x:v>Students in the course who have a disability by disability type</x:v>
+        <x:v>Data about the cumulative grade point for a group</x:v>
       </x:c>
     </x:row>
     <x:row r="171">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -43886,10 +43886,10 @@
     </x:row>
     <x:row r="2469">
       <x:c r="A2469" s="2" t="str">
-        <x:v>ThemeType</x:v>
+        <x:v>Theme</x:v>
       </x:c>
       <x:c r="B2469" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-ThemeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2469" s="2" t="str">
         <x:v>EXTENSION-RubricLevel</x:v>
@@ -43905,20 +43905,20 @@
     </x:row>
     <x:row r="2470">
       <x:c r="A2470" s="2" t="str">
-        <x:v>ThemeTypeMap</x:v>
+        <x:v>ThemeMap</x:v>
       </x:c>
       <x:c r="B2470" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeMapType</x:v>
+        <x:v>EXTENSION-ThemeMapType</x:v>
       </x:c>
       <x:c r="C2470" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptor</x:v>
+        <x:v>EXTENSION-ThemeDescriptor</x:v>
       </x:c>
       <x:c r="D2470" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2470" s="2" t="str">
-        <x:v>The mapping to a known ThemeType enumeration type.</x:v>
+        <x:v>The mapping to a known Theme enumeration type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2471">
@@ -49431,7 +49431,7 @@
     </x:row>
     <x:row r="484">
       <x:c r="A484" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptor</x:v>
+        <x:v>EXTENSION-ThemeDescriptor</x:v>
       </x:c>
       <x:c r="B484" s="2" t="str">
         <x:v>The descriptor holds the theme of the specified level of the rubric.</x:v>
@@ -49439,10 +49439,10 @@
     </x:row>
     <x:row r="485">
       <x:c r="A485" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeDescriptorReferenceType</x:v>
+        <x:v>EXTENSION-ThemeDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="B485" s="2" t="str">
-        <x:v>Provides references for theme type descriptor and its details during interchange. Use XML IDREF to reference a record that is included in the interchange.</x:v>
+        <x:v>Provides references for theme descriptor and its details during interchange. Use XML IDREF to reference a record that is included in the interchange.</x:v>
       </x:c>
     </x:row>
     <x:row r="486">
@@ -54604,7 +54604,7 @@
     </x:row>
     <x:row r="180">
       <x:c r="A180" s="2" t="str">
-        <x:v>EXTENSION-ThemeTypeMapType</x:v>
+        <x:v>EXTENSION-ThemeMapType</x:v>
       </x:c>
       <x:c r="B180" s="2" t="str">
         <x:v>Effective Planning

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -54662,7 +54662,7 @@
       </x:c>
       <x:c r="B183" s="2" t="str">
         <x:v>Residency
-Intership
+Internship
 Fellowship
 Traditional
 Other

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -2895,7 +2895,7 @@
         <x:v/>
       </x:c>
       <x:c r="E157" s="2" t="str">
-        <x:v>The average of the numeric responses to survey sections collected at the aggregate level.</x:v>
+        <x:v>The information about the numeric response for an aggregated survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="158">
@@ -4287,7 +4287,7 @@
         <x:v/>
       </x:c>
       <x:c r="E235" s="2" t="str">
-        <x:v>The Anonymized Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
@@ -4321,7 +4321,7 @@
         <x:v/>
       </x:c>
       <x:c r="E237" s="2" t="str">
-        <x:v>The Anonymozed Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="238">
@@ -4338,7 +4338,7 @@
         <x:v/>
       </x:c>
       <x:c r="E238" s="2" t="str">
-        <x:v>The Anonymized Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="239">
@@ -4406,7 +4406,7 @@
         <x:v/>
       </x:c>
       <x:c r="E242" s="2" t="str">
-        <x:v>The Anonymozed Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="243">
@@ -4423,7 +4423,7 @@
         <x:v/>
       </x:c>
       <x:c r="E243" s="2" t="str">
-        <x:v>The Anonymized Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="244">
@@ -4440,7 +4440,7 @@
         <x:v/>
       </x:c>
       <x:c r="E244" s="2" t="str">
-        <x:v>The Anonymized Student reference for the association</x:v>
+        <x:v>The Anonymized Student reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="245">
@@ -5009,7 +5009,7 @@
 </x:v>
       </x:c>
       <x:c r="E275" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test, Advanced placement, Alternate assessment/grade-level standards, Attitudinal test, Cognitive and perceptual skills test.</x:v>
       </x:c>
     </x:row>
     <x:row r="276">
@@ -5129,7 +5129,7 @@
 </x:v>
       </x:c>
       <x:c r="E281" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test, Advanced placement, Alternate assessment/grade-level standards, Attitudinal test, Cognitive and perceptual skills test.</x:v>
       </x:c>
     </x:row>
     <x:row r="282">
@@ -5147,7 +5147,7 @@
 </x:v>
       </x:c>
       <x:c r="E282" s="2" t="str">
-        <x:v>The category of an assessment based on format and content. For example: Achievement test Advanced placement test Alternate assessment/grade-level standards Attitudinal test Cognitive and perceptual skills test ...</x:v>
+        <x:v>The category of an assessment based on format and content. For example: Achievement test, Advanced placement, Alternate assessment/grade-level standards, Attitudinal test, Cognitive and perceptual skills test.</x:v>
       </x:c>
     </x:row>
     <x:row r="283">
@@ -5920,7 +5920,7 @@
 </x:v>
       </x:c>
       <x:c r="E325" s="2" t="str">
-        <x:v>The title if any specific assessment given to a group</x:v>
+        <x:v>The title of any specific assessment given to a group.</x:v>
       </x:c>
     </x:row>
     <x:row r="326">
@@ -5938,7 +5938,7 @@
 </x:v>
       </x:c>
       <x:c r="E326" s="2" t="str">
-        <x:v>The title if any specific assessment given to a group</x:v>
+        <x:v>The title of a specific assessment given to a group.</x:v>
       </x:c>
     </x:row>
     <x:row r="327">
@@ -5956,7 +5956,7 @@
 </x:v>
       </x:c>
       <x:c r="E327" s="2" t="str">
-        <x:v>The title if any specific assessment given to a group</x:v>
+        <x:v>The title of a specific assessment given to a group.</x:v>
       </x:c>
     </x:row>
     <x:row r="328">
@@ -8400,7 +8400,7 @@
 </x:v>
       </x:c>
       <x:c r="E465" s="2" t="str">
-        <x:v>Board certification information for a individual.</x:v>
+        <x:v>Board certification information for an individual.</x:v>
       </x:c>
     </x:row>
     <x:row r="466">
@@ -8418,7 +8418,7 @@
 </x:v>
       </x:c>
       <x:c r="E466" s="2" t="str">
-        <x:v>An indication of whether a individual is board certified.</x:v>
+        <x:v>An indication of whether an individual is board certified.</x:v>
       </x:c>
     </x:row>
     <x:row r="467">
@@ -8757,7 +8757,7 @@
 </x:v>
       </x:c>
       <x:c r="E485" s="2" t="str">
-        <x:v>Certification information for a individual.</x:v>
+        <x:v>Certification information for an individual.</x:v>
       </x:c>
     </x:row>
     <x:row r="486">
@@ -8809,7 +8809,7 @@
 </x:v>
       </x:c>
       <x:c r="E488" s="2" t="str">
-        <x:v>The type of certification exam that taken.</x:v>
+        <x:v>The type of certification exam that was taken.</x:v>
       </x:c>
     </x:row>
     <x:row r="489">
@@ -11047,7 +11047,7 @@
         <x:v/>
       </x:c>
       <x:c r="E614" s="2" t="str">
-        <x:v>The Course reference for the assocation</x:v>
+        <x:v>The Course reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="615">
@@ -11098,7 +11098,7 @@
         <x:v/>
       </x:c>
       <x:c r="E617" s="2" t="str">
-        <x:v>The Course reference for the assocation</x:v>
+        <x:v>The Course reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="618">
@@ -11626,7 +11626,7 @@
         <x:v/>
       </x:c>
       <x:c r="E647" s="2" t="str">
-        <x:v>The official Course Title with which this student acaemic is associated.</x:v>
+        <x:v>The descriptive name given to a course of study offered in a school or other institution or organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="648">
@@ -13387,7 +13387,7 @@
         <x:v/>
       </x:c>
       <x:c r="E745" s="2" t="str">
-        <x:v>Data about the disability of a group</x:v>
+        <x:v>Data about the disability of a group.</x:v>
       </x:c>
     </x:row>
     <x:row r="746">
@@ -15689,7 +15689,7 @@
         <x:v/>
       </x:c>
       <x:c r="E876" s="2" t="str">
-        <x:v>The Education Organization reference for the assocation</x:v>
+        <x:v>The Education Organization reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="877">
@@ -15894,7 +15894,7 @@
         <x:v/>
       </x:c>
       <x:c r="E888" s="2" t="str">
-        <x:v>The Education Organization reference for the assocation</x:v>
+        <x:v>The Education Organization reference for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="889">
@@ -16082,7 +16082,7 @@
         <x:v/>
       </x:c>
       <x:c r="E899" s="2" t="str">
-        <x:v>The Education Organization Student Academic Record Fact the data is associated with</x:v>
+        <x:v>The Education Organization the course transcript data is associated with.</x:v>
       </x:c>
     </x:row>
     <x:row r="900">
@@ -16099,7 +16099,7 @@
         <x:v/>
       </x:c>
       <x:c r="E900" s="2" t="str">
-        <x:v>The Education Organization Student Academic Record Fact the data is associated with</x:v>
+        <x:v>The Education Organization the course transcript data is associated with.</x:v>
       </x:c>
     </x:row>
     <x:row r="901">
@@ -16674,7 +16674,7 @@
 </x:v>
       </x:c>
       <x:c r="E932" s="2" t="str">
-        <x:v>The number of student who are ELL</x:v>
+        <x:v>The number of students who are ELL.</x:v>
       </x:c>
     </x:row>
     <x:row r="933">
@@ -17124,7 +17124,7 @@
 </x:v>
       </x:c>
       <x:c r="E956" s="2" t="str">
-        <x:v>The end date for the assocation</x:v>
+        <x:v>The end date for the association.</x:v>
       </x:c>
     </x:row>
     <x:row r="957">
@@ -17852,7 +17852,7 @@
 </x:v>
       </x:c>
       <x:c r="E997" s="2" t="str">
-        <x:v>The number of student who are ESL</x:v>
+        <x:v>The number of students who are ESL.</x:v>
       </x:c>
     </x:row>
     <x:row r="998">
@@ -20296,7 +20296,7 @@
 </x:v>
       </x:c>
       <x:c r="E1138" s="2" t="str">
-        <x:v>The final GPA for the teacher achieved in the program.</x:v>
+        <x:v>The final GPA the teacher achieved in the program.</x:v>
       </x:c>
     </x:row>
     <x:row r="1139">
@@ -21873,7 +21873,7 @@
 </x:v>
       </x:c>
       <x:c r="E1227" s="2" t="str">
-        <x:v>The percentage of student who are identified as hispanic/latino</x:v>
+        <x:v>The percentage of students who are identified as hispanic/latino.</x:v>
       </x:c>
     </x:row>
     <x:row r="1228">
@@ -21981,7 +21981,7 @@
 </x:v>
       </x:c>
       <x:c r="E1233" s="2" t="str">
-        <x:v>he hours the staff was absence if not the entire working day</x:v>
+        <x:v>The hours the staff was absent if not the entire working day.</x:v>
       </x:c>
     </x:row>
     <x:row r="1234">
@@ -23802,7 +23802,7 @@
 </x:v>
       </x:c>
       <x:c r="E1335" s="2" t="str">
-        <x:v>The number of student by each lanugage type</x:v>
+        <x:v>The number of students by each language type.</x:v>
       </x:c>
     </x:row>
     <x:row r="1336">
@@ -23820,7 +23820,7 @@
 </x:v>
       </x:c>
       <x:c r="E1336" s="2" t="str">
-        <x:v>The percentage of student by language type</x:v>
+        <x:v>The percentage of students by language type.</x:v>
       </x:c>
     </x:row>
     <x:row r="1337">
@@ -24619,7 +24619,7 @@
 </x:v>
       </x:c>
       <x:c r="E1380" s="2" t="str">
-        <x:v>The percentage of student receiving a letter grade by type</x:v>
+        <x:v>The percentage of students receiving a letter grade by type.</x:v>
       </x:c>
     </x:row>
     <x:row r="1381">
@@ -26924,7 +26924,7 @@
 </x:v>
       </x:c>
       <x:c r="E1509" s="2" t="str">
-        <x:v>The total number of student enrolled in the respective Section</x:v>
+        <x:v>The total number of students enrolled in the respective Section.</x:v>
       </x:c>
     </x:row>
     <x:row r="1510">
@@ -28472,7 +28472,7 @@
 </x:v>
       </x:c>
       <x:c r="E1595" s="2" t="str">
-        <x:v>The percentage of student who met the performance level</x:v>
+        <x:v>The percentage of students who met the performance level.</x:v>
       </x:c>
     </x:row>
     <x:row r="1596">
@@ -28508,7 +28508,7 @@
 </x:v>
       </x:c>
       <x:c r="E1597" s="2" t="str">
-        <x:v>The percentage of student who achieved perfromance level by each performance level type</x:v>
+        <x:v>The percentage of students who achieved performance level by each performance level type.</x:v>
       </x:c>
     </x:row>
     <x:row r="1598">
@@ -29823,7 +29823,7 @@
 </x:v>
       </x:c>
       <x:c r="E1670" s="2" t="str">
-        <x:v>An indication of whether a teacher candidate has completed the teacher prepartion program.</x:v>
+        <x:v>An indication of whether a teacher candidate has completed the teacher preparation program.</x:v>
       </x:c>
     </x:row>
     <x:row r="1671">
@@ -30964,7 +30964,7 @@
         <x:v/>
       </x:c>
       <x:c r="E1735" s="2" t="str">
-        <x:v>The form of question: 1) Radio box: multiple choice, single selection; 2) Checkbox: Multiple choice, multiple selection; 3) Dropdown: multiple choice, single selection; 4) Matrix, numeric rating scale; 5) Matrix of dropdowns; 6) Ranking; 7) Single textbox; 8) Matrix of text boxes.</x:v>
+        <x:v>The form of question: 1) Radio box: multiple choice, single selection; 2) Checkbox: Multiple choice, multiple selection; 3) Dropdown: multiple choice, single selection; 4) Matrix, numeric rating scale; 5) Matrix of dropdowns; 6) Ranking; 7) Single textbook; 8) Matrix of text boxes</x:v>
       </x:c>
     </x:row>
     <x:row r="1736">
@@ -31591,7 +31591,7 @@
 </x:v>
       </x:c>
       <x:c r="E1769" s="2" t="str">
-        <x:v>The information about the recommenation for the credential.</x:v>
+        <x:v>The information about the recommendation for the credential.</x:v>
       </x:c>
     </x:row>
     <x:row r="1770">
@@ -31981,7 +31981,7 @@
 </x:v>
       </x:c>
       <x:c r="E1790" s="2" t="str">
-        <x:v>An indication of whether a teacher candidate is active in an professional development.</x:v>
+        <x:v>An indication of whether a teacher candidate is active in a professional development.</x:v>
       </x:c>
     </x:row>
     <x:row r="1791">
@@ -33081,7 +33081,7 @@
 </x:v>
       </x:c>
       <x:c r="E1852" s="2" t="str">
-        <x:v>The maximum salary range for a staff.</x:v>
+        <x:v>The maximum value in a salary range for staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="1853">
@@ -33117,7 +33117,7 @@
 </x:v>
       </x:c>
       <x:c r="E1854" s="2" t="str">
-        <x:v>The minimum salary range for a staff.</x:v>
+        <x:v>The minimum value in a salary range for staff.</x:v>
       </x:c>
     </x:row>
     <x:row r="1855">
@@ -36630,7 +36630,7 @@
 </x:v>
       </x:c>
       <x:c r="E2054" s="2" t="str">
-        <x:v>The percentage of student by each sex type</x:v>
+        <x:v>The percentage of students by each sex type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2055">
@@ -36862,7 +36862,7 @@
 </x:v>
       </x:c>
       <x:c r="E2067" s="2" t="str">
-        <x:v>The percentage of student enrolled in a SPED program</x:v>
+        <x:v>The percentage of students enrolled in a SPED program.</x:v>
       </x:c>
     </x:row>
     <x:row r="2068">
@@ -38934,7 +38934,7 @@
         <x:v/>
       </x:c>
       <x:c r="E2185" s="2" t="str">
-        <x:v>Identifies if the student has met the student growth target score</x:v>
+        <x:v>Identifies if the student growth target score is achieved.</x:v>
       </x:c>
     </x:row>
     <x:row r="2186">
@@ -39005,7 +39005,7 @@
 </x:v>
       </x:c>
       <x:c r="E2189" s="2" t="str">
-        <x:v>The target score that has been set of the group of students as it pertains to their student growth.</x:v>
+        <x:v>The target score that has been set for the group of students as it pertains to their student growth.</x:v>
       </x:c>
     </x:row>
     <x:row r="2190">
@@ -39023,7 +39023,7 @@
 </x:v>
       </x:c>
       <x:c r="E2190" s="2" t="str">
-        <x:v>The target score that has been set of the group of students as it pertains to their student growth.</x:v>
+        <x:v>The target score that has been set for the group of students as it pertains to their student growth.</x:v>
       </x:c>
     </x:row>
     <x:row r="2191">
@@ -40364,7 +40364,7 @@
 </x:v>
       </x:c>
       <x:c r="E2267" s="2" t="str">
-        <x:v>The number of student who have a disability</x:v>
+        <x:v>The number of students who have a disability.</x:v>
       </x:c>
     </x:row>
     <x:row r="2268">
@@ -44061,7 +44061,7 @@
 </x:v>
       </x:c>
       <x:c r="E2478" s="2" t="str">
-        <x:v>The percentage of student who are Title I eligible</x:v>
+        <x:v>The percentage of students who are Title I eligible.</x:v>
       </x:c>
     </x:row>
     <x:row r="2479">
@@ -44451,7 +44451,7 @@
 </x:v>
       </x:c>
       <x:c r="E2500" s="2" t="str">
-        <x:v>The percentage of student who are eligible for SchoolFoodServicesEligibility by type</x:v>
+        <x:v>The percentage of students who are eligible for SchoolFoodServicesEligibility by type.</x:v>
       </x:c>
     </x:row>
     <x:row r="2501">
@@ -46994,7 +46994,7 @@
         <x:v>EXTENSION-AggregatedNumericResponse</x:v>
       </x:c>
       <x:c r="B179" s="2" t="str">
-        <x:v>Numeric response survey data provided at the aggregate level.</x:v>
+        <x:v>The information about the numeric response for an aggregated survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
@@ -47098,7 +47098,7 @@
         <x:v>EXTENSION-AidTypeDescriptor</x:v>
       </x:c>
       <x:c r="B192" s="2" t="str">
-        <x:v>The classification of financial aid awarded to a person for the academic term/year.</x:v>
+        <x:v>This descriptor defines the classification of financial aid awarded to a person for the academic term/year.</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
@@ -47338,7 +47338,7 @@
         <x:v>EXTENSION-BackgroundCheckTypeDescriptor</x:v>
       </x:c>
       <x:c r="B222" s="2" t="str">
-        <x:v>The type of background check (e.g., online, criminal, employment).</x:v>
+        <x:v>This descriptor defines the classification of the background check a person receives.</x:v>
       </x:c>
     </x:row>
     <x:row r="223">
@@ -47354,7 +47354,7 @@
         <x:v>EXTENSION-BoardCertification</x:v>
       </x:c>
       <x:c r="B224" s="2" t="str">
-        <x:v>Board certification information for a individual.</x:v>
+        <x:v>Board certification information for an individual.</x:v>
       </x:c>
     </x:row>
     <x:row r="225">
@@ -47362,7 +47362,7 @@
         <x:v>EXTENSION-BoardCertificationTypeDescriptor</x:v>
       </x:c>
       <x:c r="B225" s="2" t="str">
-        <x:v>The descriptor holds the  type of board certification awarded to an individual.</x:v>
+        <x:v>The descriptor holds the type of board certification awarded to an individual.</x:v>
       </x:c>
     </x:row>
     <x:row r="226">
@@ -47378,7 +47378,7 @@
         <x:v>EXTENSION-CertificationExam</x:v>
       </x:c>
       <x:c r="B227" s="2" t="str">
-        <x:v>Certification information for a individual.</x:v>
+        <x:v>Certification information for an individual.</x:v>
       </x:c>
     </x:row>
     <x:row r="228">
@@ -47386,7 +47386,7 @@
         <x:v>EXTENSION-CertificationExamTypeDescriptor</x:v>
       </x:c>
       <x:c r="B228" s="2" t="str">
-        <x:v>The descriptor holds the  type of certification exam that was taken.</x:v>
+        <x:v>The descriptor holds the type of certification exam that was taken.</x:v>
       </x:c>
     </x:row>
     <x:row r="229">
@@ -47410,7 +47410,7 @@
         <x:v>EXTENSION-CourseCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="B231" s="2" t="str">
-        <x:v>Data about the final letter grade earned of the group</x:v>
+        <x:v>Data about the final grade earned of the group.</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
@@ -47594,7 +47594,7 @@
         <x:v>EXTENSION-EducationOrganizationCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="B254" s="2" t="str">
-        <x:v>Data about the final letter grade earned of the group</x:v>
+        <x:v>Data about the final grade earned of the group.</x:v>
       </x:c>
     </x:row>
     <x:row r="255">
@@ -47690,7 +47690,7 @@
         <x:v>EXTENSION-EducationOrganizationStudentFacts</x:v>
       </x:c>
       <x:c r="B266" s="2" t="str">
-        <x:v>This domain entity collects data for aggregated level students with whom the teacher candidate is associated through field work or student teaching</x:v>
+        <x:v>This domain entity collects data for aggregated level students.</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
@@ -48378,7 +48378,7 @@
         <x:v>EXTENSION-SectionCourseTranscriptFacts</x:v>
       </x:c>
       <x:c r="B352" s="2" t="str">
-        <x:v>Data about the final letter grade earned of the group</x:v>
+        <x:v>Data about the final grade earned of the group.</x:v>
       </x:c>
     </x:row>
     <x:row r="353">
@@ -48402,7 +48402,7 @@
         <x:v>EXTENSION-SectionStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="B355" s="2" t="str">
-        <x:v>Complex type that provides data about a group of student and their academic record</x:v>
+        <x:v>Complex type that provides data about a group of students and their academic record.</x:v>
       </x:c>
     </x:row>
     <x:row r="356">
@@ -48450,7 +48450,7 @@
         <x:v>EXTENSION-SectionStudentFacts</x:v>
       </x:c>
       <x:c r="B361" s="2" t="str">
-        <x:v>This domain entity collects data for aggregated level students with whom the teacher candidate is associated through field work or student teaching</x:v>
+        <x:v>This domain entity collects data for aggregated level students.</x:v>
       </x:c>
     </x:row>
     <x:row r="362">
@@ -53698,7 +53698,7 @@
 </x:v>
       </x:c>
       <x:c r="C117" s="2" t="str">
-        <x:v>The type of background check (e.g., online, criminal, employment).</x:v>
+        <x:v>This descriptor defines the classification of the background check a person receives.</x:v>
       </x:c>
     </x:row>
     <x:row r="118">
@@ -53711,7 +53711,7 @@
 Art/Early and Middle Childhood
 Career and Technical Education/Early Adolescence through Young Adulthood
 English as a New Language/Early Adolescence through Young Adulthood
-English as  New Language/Early and Middle Childhood
+English as a New Language/Early and Middle Childhood
 English Language Arts/Adolescence and Young Adulthood
 English Language Arts/Early Adolescence
 Exceptional Needs Specialist/Early Childhood through Young Adulthood
@@ -53738,7 +53738,7 @@
 </x:v>
       </x:c>
       <x:c r="C118" s="2" t="str">
-        <x:v>Map for the board certiciation board types.</x:v>
+        <x:v>Map for the board certification board types.</x:v>
       </x:c>
     </x:row>
     <x:row r="119">
@@ -53792,7 +53792,7 @@
 </x:v>
       </x:c>
       <x:c r="C122" s="2" t="str">
-        <x:v>Indicates that a person passed, failed, or did not take an English Language assessment (e.g., TOEFFL).</x:v>
+        <x:v>The rating the individual received on the English Language assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="123">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -2723,7 +2723,7 @@
 </x:v>
       </x:c>
       <x:c r="E146" s="2" t="str">
-        <x:v>(TPDP Extension) Salary information collected at the aggregate level.</x:v>
+        <x:v>Salary information collected at the aggregate level.</x:v>
       </x:c>
     </x:row>
     <x:row r="147">
@@ -3202,7 +3202,7 @@
 </x:v>
       </x:c>
       <x:c r="E172" s="2" t="str">
-        <x:v>(TPDP Extension) This entity represents the financial aid a person is awarded.</x:v>
+        <x:v>This entity represents the financial aid a person is awarded.</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
@@ -6267,7 +6267,7 @@
 </x:v>
       </x:c>
       <x:c r="E342" s="2" t="str">
-        <x:v>(TPDP Extension) The average number of years that all staff have been employed in the current district of employment.</x:v>
+        <x:v>The average number of years that all staff have been employed in the current district of employment.</x:v>
       </x:c>
     </x:row>
     <x:row r="343">
@@ -10558,7 +10558,7 @@
 </x:v>
       </x:c>
       <x:c r="E585" s="2" t="str">
-        <x:v>(TPDP Extension) The course associated with the survey.</x:v>
+        <x:v>The course associated with the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="586">
@@ -11250,7 +11250,7 @@
 </x:v>
       </x:c>
       <x:c r="E624" s="2" t="str">
-        <x:v>(TPDP Extension) The legal document or authorization giving authorization to perform teaching assignment services.</x:v>
+        <x:v>The legal document or authorization giving authorization to perform teaching assignment services.</x:v>
       </x:c>
     </x:row>
     <x:row r="625">
@@ -12760,7 +12760,7 @@
 </x:v>
       </x:c>
       <x:c r="E708" s="2" t="str">
-        <x:v>(TPDP Extension) The disability condition(s) that best describes an individual's impairment.</x:v>
+        <x:v>The disability condition(s) that best describes an individual's impairment.</x:v>
       </x:c>
     </x:row>
     <x:row r="709">
@@ -12779,7 +12779,7 @@
 </x:v>
       </x:c>
       <x:c r="E709" s="2" t="str">
-        <x:v>(TPDP Extension) The disability condition(s) that best describes an individual's impairment.</x:v>
+        <x:v>The disability condition(s) that best describes an individual's impairment.</x:v>
       </x:c>
     </x:row>
     <x:row r="710">
@@ -15097,7 +15097,7 @@
 </x:v>
       </x:c>
       <x:c r="E841" s="2" t="str">
-        <x:v>(TPDP Change) The Education Organization(s) associated with the survey.</x:v>
+        <x:v>The Education Organization(s) associated with the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="842">
@@ -17672,7 +17672,7 @@
 </x:v>
       </x:c>
       <x:c r="E986" s="2" t="str">
-        <x:v>(TPDP Extension) The location of the event.</x:v>
+        <x:v>The location of the event.</x:v>
       </x:c>
     </x:row>
     <x:row r="987">
@@ -19315,7 +19315,7 @@
 </x:v>
       </x:c>
       <x:c r="E1081" s="2" t="str">
-        <x:v>(TPDP Extension) Indicates that a person has or has not completed a fingerprint.</x:v>
+        <x:v>Indicates that a person has or has not completed a fingerprint.</x:v>
       </x:c>
     </x:row>
     <x:row r="1082">
@@ -19524,7 +19524,7 @@
 </x:v>
       </x:c>
       <x:c r="E1093" s="2" t="str">
-        <x:v>(TPDP Extension) The gender with which a person associates.</x:v>
+        <x:v>The gender with which a person associates.</x:v>
       </x:c>
     </x:row>
     <x:row r="1094">
@@ -19542,7 +19542,7 @@
 </x:v>
       </x:c>
       <x:c r="E1094" s="2" t="str">
-        <x:v>(TPDP Extension) The gender with which a person associates.</x:v>
+        <x:v>The gender with which a person associates.</x:v>
       </x:c>
     </x:row>
     <x:row r="1095">
@@ -21085,7 +21085,7 @@
 </x:v>
       </x:c>
       <x:c r="E1181" s="2" t="str">
-        <x:v>(TPDP Extension) The percent of staff hired for the education organization.</x:v>
+        <x:v>The percent of staff hired for the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1182">
@@ -24830,7 +24830,7 @@
 </x:v>
       </x:c>
       <x:c r="E1390" s="2" t="str">
-        <x:v>(TPDP Extension) Information about the matrix element in the survey</x:v>
+        <x:v>Information about the matrix element in the survey</x:v>
       </x:c>
     </x:row>
     <x:row r="1391">
@@ -29744,7 +29744,7 @@
 </x:v>
       </x:c>
       <x:c r="E1664" s="2" t="str">
-        <x:v>(TPDP Extension) The program associated with the survey.</x:v>
+        <x:v>The program associated with the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1665">
@@ -30147,7 +30147,7 @@
 </x:v>
       </x:c>
       <x:c r="E1687" s="2" t="str">
-        <x:v>(TPDP Extension) The qualifications of a prospective mentor teacher.</x:v>
+        <x:v>The qualifications of a prospective mentor teacher.</x:v>
       </x:c>
     </x:row>
     <x:row r="1688">
@@ -30182,7 +30182,7 @@
         <x:v/>
       </x:c>
       <x:c r="E1689" s="2" t="str">
-        <x:v>(TPDP Extension) The reference to the prospect.</x:v>
+        <x:v>The reference to the prospect.</x:v>
       </x:c>
     </x:row>
     <x:row r="1690">
@@ -31888,7 +31888,7 @@
 </x:v>
       </x:c>
       <x:c r="E1783" s="2" t="str">
-        <x:v>(TPDP Extension) The percent of staff retained for the education organization.</x:v>
+        <x:v>The percent of staff retained for the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1784">
@@ -31928,7 +31928,7 @@
 </x:v>
       </x:c>
       <x:c r="E1785" s="2" t="str">
-        <x:v>(TPDP Extension) The percent of staff retired for the education organization.</x:v>
+        <x:v>The percent of staff retired for the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="1786">
@@ -34209,7 +34209,7 @@
 </x:v>
       </x:c>
       <x:c r="E1916" s="2" t="str">
-        <x:v>(TPDP Extension) A meaningful score or statistical expression of the performance of an individual. The results can be expressed as a number, percentile, range, level, etc.</x:v>
+        <x:v>A meaningful score or statistical expression of the performance of an individual. The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
     <x:row r="1917">
@@ -34512,7 +34512,7 @@
 </x:v>
       </x:c>
       <x:c r="E1933" s="2" t="str">
-        <x:v>(TPDP Extension) The section associated with the survey.</x:v>
+        <x:v>The section associated with the survey.</x:v>
       </x:c>
     </x:row>
     <x:row r="1934">
@@ -44161,7 +44161,7 @@
 </x:v>
       </x:c>
       <x:c r="E2482" s="2" t="str">
-        <x:v>(TPDP Extension) This entity represents actual and projected vacancies for the education organization.</x:v>
+        <x:v>This entity represents actual and projected vacancies for the education organization.</x:v>
       </x:c>
     </x:row>
     <x:row r="2483">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -53370,8 +53370,7 @@
         <x:v>EXTENSION-LevelTitle</x:v>
       </x:c>
       <x:c r="B134" s="2" t="str">
-        <x:v>minLength: 2
-maxLength: 15
+        <x:v>maxLength: 60
 </x:v>
       </x:c>
       <x:c r="C134" s="2" t="str">
@@ -53693,8 +53692,7 @@
         <x:v>EXTENSION-RubricTitle</x:v>
       </x:c>
       <x:c r="B157" s="2" t="str">
-        <x:v>minLength: 2
-maxLength: 15
+        <x:v>maxLength: 60
 </x:v>
       </x:c>
       <x:c r="C157" s="2" t="str">
